--- a/diagnostics/emd/data/PFcurrentRecord.xlsx
+++ b/diagnostics/emd/data/PFcurrentRecord.xlsx
@@ -1244,8 +1244,8 @@
   <sheetPr/>
   <dimension ref="A1:M382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="M245" sqref="A245:M245"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A212" sqref="$A212:$XFD212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5"/>

--- a/diagnostics/emd/data/PFcurrentRecord.xlsx
+++ b/diagnostics/emd/data/PFcurrentRecord.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>shotnum</t>
   </si>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -964,7 +964,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="false" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="false" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -973,7 +973,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="false" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="false" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -995,7 +995,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
     <a:clrScheme name="WPS">
       <a:dk1>
@@ -1123,7 +1123,7 @@
               <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="false"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1136,7 +1136,7 @@
               <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="false"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1166,7 +1166,7 @@
                 <a:schemeClr val="phClr"/>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="2700000" scaled="true"/>
+            <a:lin ang="2700000" scaled="1"/>
           </a:gradFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
@@ -1175,7 +1175,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
               <a:schemeClr val="phClr">
                 <a:alpha val="60000"/>
               </a:schemeClr>
@@ -1184,12 +1184,12 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="false"/>
+            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1207,7 +1207,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1232,7 +1232,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1242,21 +1242,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M578"/>
+  <dimension ref="A1:M660"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A212" sqref="$A212:$XFD212"/>
+      <pane ySplit="1" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A584" sqref="$A584:$XFD584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="1" customWidth="true"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="true"/>
+    <col min="2" max="2" width="5.625" style="1" customWidth="true"/>
+    <col min="3" max="3" width="4.625" style="1" customWidth="true"/>
+    <col min="12" max="12" width="4.625" style="1" customWidth="true"/>
+    <col min="13" max="13" width="5.625" style="1" customWidth="true"/>
     <col min="14" max="16384" width="10.625" style="2" customWidth="true"/>
-    <col min="2" max="2" width="5.625" style="1" customWidth="true"/>
-    <col min="3" max="3" width="2.625" style="1" customWidth="true"/>
-    <col min="4" max="4" width="2.625" style="1" customWidth="true"/>
+    <col min="4" max="4" width="4.625" style="1" customWidth="true"/>
     <col min="5" max="5" width="2.625" style="1" customWidth="true"/>
     <col min="6" max="6" width="2.625" style="1" customWidth="true"/>
     <col min="7" max="7" width="4.625" style="1" customWidth="true"/>
@@ -1264,8 +1268,6 @@
     <col min="9" max="9" width="4.625" style="1" customWidth="true"/>
     <col min="10" max="10" width="4.625" style="1" customWidth="true"/>
     <col min="11" max="11" width="4.625" style="1" customWidth="true"/>
-    <col min="12" max="12" width="4.625" style="1" customWidth="true"/>
-    <col min="13" max="13" width="5.625" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16894,7 +16896,7 @@
         <v>801</v>
       </c>
       <c r="B382" s="1">
-        <v>13.699999999999999</v>
+        <v>13.7</v>
       </c>
       <c r="C382" s="1">
         <v>0</v>
@@ -16909,25 +16911,25 @@
         <v>0</v>
       </c>
       <c r="G382" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H382" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I382" s="1">
         <v>1.5</v>
       </c>
       <c r="J382" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="K382" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="L382" s="1">
         <v>0</v>
       </c>
       <c r="M382" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="383">
@@ -16950,10 +16952,10 @@
         <v>0</v>
       </c>
       <c r="G383" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H383" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I383" s="1">
         <v>1.5</v>
@@ -16962,13 +16964,13 @@
         <v>1.5</v>
       </c>
       <c r="K383" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="L383" s="1">
         <v>0</v>
       </c>
       <c r="M383" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="384">
@@ -16976,7 +16978,7 @@
         <v>803</v>
       </c>
       <c r="B384" s="1">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="C384" s="1">
         <v>0</v>
@@ -16991,16 +16993,16 @@
         <v>0</v>
       </c>
       <c r="G384" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H384" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I384" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="J384" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="K384" s="1">
         <v>0</v>
@@ -17009,7 +17011,7 @@
         <v>0</v>
       </c>
       <c r="M384" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="385">
@@ -17035,7 +17037,7 @@
         <v>0</v>
       </c>
       <c r="H385" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I385" s="1">
         <v>1</v>
@@ -17050,7 +17052,7 @@
         <v>0</v>
       </c>
       <c r="M385" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="386">
@@ -17058,7 +17060,7 @@
         <v>805</v>
       </c>
       <c r="B386" s="1">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="C386" s="1">
         <v>0</v>
@@ -17076,13 +17078,13 @@
         <v>0</v>
       </c>
       <c r="H386" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I386" s="1">
         <v>1.2</v>
       </c>
       <c r="J386" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K386" s="1">
         <v>0</v>
@@ -17091,7 +17093,7 @@
         <v>0</v>
       </c>
       <c r="M386" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="387">
@@ -17099,7 +17101,7 @@
         <v>806</v>
       </c>
       <c r="B387" s="1">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="C387" s="1">
         <v>0</v>
@@ -17117,13 +17119,13 @@
         <v>0</v>
       </c>
       <c r="H387" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I387" s="1">
         <v>1.3</v>
       </c>
       <c r="J387" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K387" s="1">
         <v>0</v>
@@ -17132,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="M387" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="388">
@@ -17140,7 +17142,7 @@
         <v>807</v>
       </c>
       <c r="B388" s="1">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C388" s="1">
         <v>0</v>
@@ -17158,7 +17160,7 @@
         <v>0</v>
       </c>
       <c r="H388" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I388" s="1">
         <v>0.5</v>
@@ -17173,7 +17175,7 @@
         <v>0</v>
       </c>
       <c r="M388" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="389">
@@ -17199,13 +17201,13 @@
         <v>0</v>
       </c>
       <c r="H389" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I389" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="J389" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="K389" s="1">
         <v>0</v>
@@ -17214,7 +17216,7 @@
         <v>0</v>
       </c>
       <c r="M389" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="390">
@@ -17222,7 +17224,7 @@
         <v>809</v>
       </c>
       <c r="B390" s="1">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="C390" s="1">
         <v>0</v>
@@ -17240,7 +17242,7 @@
         <v>0</v>
       </c>
       <c r="H390" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I390" s="1">
         <v>0.5</v>
@@ -17255,7 +17257,7 @@
         <v>0</v>
       </c>
       <c r="M390" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="391">
@@ -17263,7 +17265,7 @@
         <v>810</v>
       </c>
       <c r="B391" s="1">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C391" s="1">
         <v>0</v>
@@ -17281,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="H391" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I391" s="1">
         <v>0.5</v>
@@ -17296,7 +17298,7 @@
         <v>0</v>
       </c>
       <c r="M391" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="392">
@@ -17304,7 +17306,7 @@
         <v>811</v>
       </c>
       <c r="B392" s="1">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C392" s="1">
         <v>0</v>
@@ -17322,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="H392" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I392" s="1">
         <v>0.5</v>
@@ -17334,10 +17336,10 @@
         <v>0</v>
       </c>
       <c r="L392" s="1">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="M392" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="393">
@@ -17345,7 +17347,7 @@
         <v>812</v>
       </c>
       <c r="B393" s="1">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C393" s="1">
         <v>0</v>
@@ -17363,7 +17365,7 @@
         <v>0</v>
       </c>
       <c r="H393" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I393" s="1">
         <v>0.5</v>
@@ -17375,10 +17377,10 @@
         <v>0</v>
       </c>
       <c r="L393" s="1">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="M393" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="394">
@@ -17386,7 +17388,7 @@
         <v>813</v>
       </c>
       <c r="B394" s="1">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="C394" s="1">
         <v>0</v>
@@ -17404,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="H394" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I394" s="1">
         <v>0.5</v>
@@ -17416,10 +17418,10 @@
         <v>0</v>
       </c>
       <c r="L394" s="1">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="M394" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="395">
@@ -17427,7 +17429,7 @@
         <v>814</v>
       </c>
       <c r="B395" s="1">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="C395" s="1">
         <v>0</v>
@@ -17445,22 +17447,22 @@
         <v>0</v>
       </c>
       <c r="H395" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I395" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J395" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K395" s="1">
         <v>0</v>
       </c>
       <c r="L395" s="1">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="M395" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="396">
@@ -17468,7 +17470,7 @@
         <v>815</v>
       </c>
       <c r="B396" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C396" s="1">
         <v>0</v>
@@ -17486,22 +17488,22 @@
         <v>0</v>
       </c>
       <c r="H396" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I396" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J396" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K396" s="1">
         <v>0</v>
       </c>
       <c r="L396" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="M396" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="397">
@@ -17509,7 +17511,7 @@
         <v>816</v>
       </c>
       <c r="B397" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="C397" s="1">
         <v>0</v>
@@ -17527,13 +17529,13 @@
         <v>0</v>
       </c>
       <c r="H397" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I397" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J397" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K397" s="1">
         <v>0</v>
@@ -17542,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="M397" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="398">
@@ -17550,7 +17552,7 @@
         <v>817</v>
       </c>
       <c r="B398" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C398" s="1">
         <v>0</v>
@@ -17568,13 +17570,13 @@
         <v>0</v>
       </c>
       <c r="H398" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I398" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J398" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K398" s="1">
         <v>0</v>
@@ -17583,7 +17585,7 @@
         <v>0</v>
       </c>
       <c r="M398" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="399">
@@ -17591,7 +17593,7 @@
         <v>818</v>
       </c>
       <c r="B399" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C399" s="1">
         <v>0</v>
@@ -17609,13 +17611,13 @@
         <v>0</v>
       </c>
       <c r="H399" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I399" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J399" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K399" s="1">
         <v>0.5</v>
@@ -17624,7 +17626,7 @@
         <v>0.5</v>
       </c>
       <c r="M399" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="400">
@@ -17632,7 +17634,7 @@
         <v>819</v>
       </c>
       <c r="B400" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C400" s="1">
         <v>0</v>
@@ -17647,25 +17649,25 @@
         <v>0</v>
       </c>
       <c r="G400" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="H400" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="I400" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J400" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K400" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="L400" s="1">
         <v>0.5</v>
       </c>
       <c r="M400" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="401">
@@ -17688,25 +17690,25 @@
         <v>0</v>
       </c>
       <c r="G401" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="H401" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="I401" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J401" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K401" s="1">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="L401" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="M401" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="402">
@@ -17729,16 +17731,16 @@
         <v>0</v>
       </c>
       <c r="G402" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="H402" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="I402" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J402" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K402" s="1">
         <v>1</v>
@@ -17747,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="M402" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="403">
@@ -17755,7 +17757,7 @@
         <v>822</v>
       </c>
       <c r="B403" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C403" s="1">
         <v>0</v>
@@ -17770,25 +17772,25 @@
         <v>0</v>
       </c>
       <c r="G403" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="H403" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="I403" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J403" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K403" s="1">
         <v>1</v>
       </c>
       <c r="L403" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M403" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="404">
@@ -17796,7 +17798,7 @@
         <v>823</v>
       </c>
       <c r="B404" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C404" s="1">
         <v>0</v>
@@ -17811,25 +17813,25 @@
         <v>0</v>
       </c>
       <c r="G404" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="H404" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="I404" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J404" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K404" s="1">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="L404" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M404" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="405">
@@ -17837,7 +17839,7 @@
         <v>824</v>
       </c>
       <c r="B405" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C405" s="1">
         <v>0</v>
@@ -17852,25 +17854,25 @@
         <v>0</v>
       </c>
       <c r="G405" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="H405" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I405" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J405" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K405" s="1">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="L405" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="M405" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="406">
@@ -17878,7 +17880,7 @@
         <v>825</v>
       </c>
       <c r="B406" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C406" s="1">
         <v>0</v>
@@ -17893,25 +17895,25 @@
         <v>0</v>
       </c>
       <c r="G406" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="H406" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I406" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J406" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K406" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L406" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M406" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="407">
@@ -17952,7 +17954,7 @@
         <v>0</v>
       </c>
       <c r="M407" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="408">
@@ -17993,7 +17995,7 @@
         <v>0</v>
       </c>
       <c r="M408" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="409">
@@ -18034,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="M409" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="410">
@@ -18075,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="M410" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="411">
@@ -18083,7 +18085,7 @@
         <v>830</v>
       </c>
       <c r="B411" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C411" s="1">
         <v>0</v>
@@ -18116,7 +18118,7 @@
         <v>0</v>
       </c>
       <c r="M411" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="412">
@@ -18124,7 +18126,7 @@
         <v>831</v>
       </c>
       <c r="B412" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C412" s="1">
         <v>0</v>
@@ -18157,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="M412" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="413">
@@ -18165,7 +18167,7 @@
         <v>832</v>
       </c>
       <c r="B413" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="C413" s="1">
         <v>0</v>
@@ -18198,7 +18200,7 @@
         <v>0</v>
       </c>
       <c r="M413" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="414">
@@ -18206,7 +18208,7 @@
         <v>833</v>
       </c>
       <c r="B414" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="C414" s="1">
         <v>0</v>
@@ -18239,7 +18241,7 @@
         <v>0</v>
       </c>
       <c r="M414" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="415">
@@ -18247,7 +18249,7 @@
         <v>834</v>
       </c>
       <c r="B415" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="C415" s="1">
         <v>0</v>
@@ -18280,7 +18282,7 @@
         <v>0</v>
       </c>
       <c r="M415" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="416">
@@ -18321,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="M416" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="417">
@@ -18362,7 +18364,7 @@
         <v>0</v>
       </c>
       <c r="M417" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="418">
@@ -18385,25 +18387,25 @@
         <v>0</v>
       </c>
       <c r="G418" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="H418" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I418" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J418" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K418" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="L418" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M418" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="419">
@@ -18429,22 +18431,22 @@
         <v>1</v>
       </c>
       <c r="H419" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I419" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J419" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K419" s="1">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="L419" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M419" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="420">
@@ -18452,7 +18454,7 @@
         <v>839</v>
       </c>
       <c r="B420" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C420" s="1">
         <v>0</v>
@@ -18467,25 +18469,25 @@
         <v>0</v>
       </c>
       <c r="G420" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="H420" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I420" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J420" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K420" s="1">
         <v>2</v>
       </c>
       <c r="L420" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M420" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="421">
@@ -18508,25 +18510,25 @@
         <v>0</v>
       </c>
       <c r="G421" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="H421" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I421" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J421" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K421" s="1">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="L421" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M421" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="422">
@@ -18549,25 +18551,25 @@
         <v>0</v>
       </c>
       <c r="G422" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="H422" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I422" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J422" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K422" s="1">
         <v>2</v>
       </c>
       <c r="L422" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M422" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="423">
@@ -18590,25 +18592,25 @@
         <v>0</v>
       </c>
       <c r="G423" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="H423" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I423" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J423" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K423" s="1">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="L423" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M423" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="424">
@@ -18616,7 +18618,7 @@
         <v>843</v>
       </c>
       <c r="B424" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C424" s="1">
         <v>0</v>
@@ -18634,22 +18636,22 @@
         <v>1</v>
       </c>
       <c r="H424" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I424" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J424" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K424" s="1">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="L424" s="1">
         <v>1</v>
       </c>
       <c r="M424" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="425">
@@ -18672,10 +18674,10 @@
         <v>0</v>
       </c>
       <c r="G425" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="H425" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="I425" s="1">
         <v>0.5</v>
@@ -18684,13 +18686,13 @@
         <v>0.5</v>
       </c>
       <c r="K425" s="1">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="L425" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M425" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="426">
@@ -18698,7 +18700,7 @@
         <v>845</v>
       </c>
       <c r="B426" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C426" s="1">
         <v>0</v>
@@ -18713,10 +18715,10 @@
         <v>0</v>
       </c>
       <c r="G426" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="H426" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="I426" s="1">
         <v>0.5</v>
@@ -18728,10 +18730,10 @@
         <v>2</v>
       </c>
       <c r="L426" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M426" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="427">
@@ -18739,7 +18741,7 @@
         <v>846</v>
       </c>
       <c r="B427" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C427" s="1">
         <v>0</v>
@@ -18754,25 +18756,25 @@
         <v>0</v>
       </c>
       <c r="G427" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="H427" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I427" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J427" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K427" s="1">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="L427" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M427" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="428">
@@ -18795,25 +18797,25 @@
         <v>0</v>
       </c>
       <c r="G428" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="H428" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I428" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J428" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K428" s="1">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="L428" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M428" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="429">
@@ -18821,7 +18823,7 @@
         <v>848</v>
       </c>
       <c r="B429" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C429" s="1">
         <v>0</v>
@@ -18836,25 +18838,25 @@
         <v>0</v>
       </c>
       <c r="G429" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="H429" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I429" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J429" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K429" s="1">
         <v>2</v>
       </c>
       <c r="L429" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M429" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="430">
@@ -18862,7 +18864,7 @@
         <v>849</v>
       </c>
       <c r="B430" s="1">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="C430" s="1">
         <v>0</v>
@@ -18880,22 +18882,22 @@
         <v>1</v>
       </c>
       <c r="H430" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I430" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J430" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K430" s="1">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="L430" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="M430" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="431">
@@ -18903,7 +18905,7 @@
         <v>851</v>
       </c>
       <c r="B431" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C431" s="1">
         <v>0</v>
@@ -18918,25 +18920,25 @@
         <v>0</v>
       </c>
       <c r="G431" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H431" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I431" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J431" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K431" s="1">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="L431" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="M431" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="432">
@@ -18944,7 +18946,7 @@
         <v>852</v>
       </c>
       <c r="B432" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C432" s="1">
         <v>0</v>
@@ -18959,25 +18961,25 @@
         <v>0</v>
       </c>
       <c r="G432" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H432" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I432" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J432" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K432" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="L432" s="1">
         <v>0.5</v>
       </c>
       <c r="M432" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="433">
@@ -18985,7 +18987,7 @@
         <v>853</v>
       </c>
       <c r="B433" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C433" s="1">
         <v>0</v>
@@ -19000,25 +19002,25 @@
         <v>0</v>
       </c>
       <c r="G433" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H433" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I433" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J433" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K433" s="1">
         <v>0.5</v>
       </c>
       <c r="L433" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M433" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="434">
@@ -19041,25 +19043,25 @@
         <v>0</v>
       </c>
       <c r="G434" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H434" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I434" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J434" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K434" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L434" s="1">
         <v>0.5</v>
       </c>
       <c r="M434" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="435">
@@ -19067,7 +19069,7 @@
         <v>855</v>
       </c>
       <c r="B435" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C435" s="1">
         <v>0</v>
@@ -19082,25 +19084,25 @@
         <v>0</v>
       </c>
       <c r="G435" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H435" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I435" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J435" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K435" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="L435" s="1">
         <v>0.5</v>
       </c>
       <c r="M435" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="436">
@@ -19108,7 +19110,7 @@
         <v>856</v>
       </c>
       <c r="B436" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C436" s="1">
         <v>0</v>
@@ -19123,25 +19125,25 @@
         <v>0</v>
       </c>
       <c r="G436" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H436" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I436" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J436" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K436" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="L436" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M436" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="437">
@@ -19149,7 +19151,7 @@
         <v>857</v>
       </c>
       <c r="B437" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C437" s="1">
         <v>0</v>
@@ -19164,25 +19166,25 @@
         <v>0</v>
       </c>
       <c r="G437" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H437" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I437" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J437" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K437" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="L437" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="M437" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="438">
@@ -19205,25 +19207,25 @@
         <v>0</v>
       </c>
       <c r="G438" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H438" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I438" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J438" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K438" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="L438" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="M438" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="439">
@@ -19246,25 +19248,25 @@
         <v>0</v>
       </c>
       <c r="G439" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H439" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I439" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J439" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K439" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="L439" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="M439" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="440">
@@ -19305,7 +19307,7 @@
         <v>0</v>
       </c>
       <c r="M440" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="441">
@@ -19346,7 +19348,7 @@
         <v>0</v>
       </c>
       <c r="M441" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="442">
@@ -19369,25 +19371,25 @@
         <v>0</v>
       </c>
       <c r="G442" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H442" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I442" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J442" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K442" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="L442" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M442" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="443">
@@ -19410,25 +19412,25 @@
         <v>0</v>
       </c>
       <c r="G443" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H443" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I443" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J443" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K443" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="L443" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M443" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="444">
@@ -19436,7 +19438,7 @@
         <v>864</v>
       </c>
       <c r="B444" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C444" s="1">
         <v>0</v>
@@ -19451,25 +19453,25 @@
         <v>0</v>
       </c>
       <c r="G444" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H444" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I444" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J444" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K444" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="L444" s="1">
         <v>1</v>
       </c>
       <c r="M444" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="445">
@@ -19477,7 +19479,7 @@
         <v>865</v>
       </c>
       <c r="B445" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C445" s="1">
         <v>0</v>
@@ -19495,22 +19497,22 @@
         <v>1.3</v>
       </c>
       <c r="H445" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I445" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J445" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K445" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="L445" s="1">
         <v>1</v>
       </c>
       <c r="M445" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="446">
@@ -19518,7 +19520,7 @@
         <v>866</v>
       </c>
       <c r="B446" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="C446" s="1">
         <v>0</v>
@@ -19533,25 +19535,25 @@
         <v>0</v>
       </c>
       <c r="G446" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H446" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I446" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J446" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K446" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L446" s="1">
         <v>1</v>
       </c>
       <c r="M446" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="447">
@@ -19577,22 +19579,22 @@
         <v>1.7</v>
       </c>
       <c r="H447" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I447" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J447" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K447" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L447" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M447" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="448">
@@ -19627,13 +19629,13 @@
         <v>0</v>
       </c>
       <c r="K448" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L448" s="1">
         <v>1</v>
       </c>
       <c r="M448" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="449">
@@ -19674,7 +19676,7 @@
         <v>0</v>
       </c>
       <c r="M449" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="450">
@@ -19715,7 +19717,7 @@
         <v>1.3</v>
       </c>
       <c r="M450" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="451">
@@ -19741,13 +19743,13 @@
         <v>1.7</v>
       </c>
       <c r="H451" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I451" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J451" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K451" s="1">
         <v>0.5</v>
@@ -19756,7 +19758,7 @@
         <v>0.5</v>
       </c>
       <c r="M451" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="452">
@@ -19764,7 +19766,7 @@
         <v>872</v>
       </c>
       <c r="B452" s="1">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="C452" s="1">
         <v>0</v>
@@ -19782,13 +19784,13 @@
         <v>1.2</v>
       </c>
       <c r="H452" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I452" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="J452" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="K452" s="1">
         <v>0</v>
@@ -19797,7 +19799,7 @@
         <v>0</v>
       </c>
       <c r="M452" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="453">
@@ -19820,10 +19822,10 @@
         <v>0</v>
       </c>
       <c r="G453" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H453" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I453" s="1">
         <v>1</v>
@@ -19832,13 +19834,13 @@
         <v>1</v>
       </c>
       <c r="K453" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="L453" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="M453" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="454">
@@ -19861,10 +19863,10 @@
         <v>0</v>
       </c>
       <c r="G454" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H454" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I454" s="1">
         <v>1.2</v>
@@ -19873,13 +19875,13 @@
         <v>1.2</v>
       </c>
       <c r="K454" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L454" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M454" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="455">
@@ -19887,7 +19889,7 @@
         <v>875</v>
       </c>
       <c r="B455" s="1">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="C455" s="1">
         <v>0</v>
@@ -19905,7 +19907,7 @@
         <v>1.3</v>
       </c>
       <c r="H455" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I455" s="1">
         <v>2</v>
@@ -19914,13 +19916,13 @@
         <v>2</v>
       </c>
       <c r="K455" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="L455" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M455" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="456">
@@ -19928,7 +19930,7 @@
         <v>876</v>
       </c>
       <c r="B456" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="C456" s="1">
         <v>0</v>
@@ -19943,25 +19945,25 @@
         <v>0</v>
       </c>
       <c r="G456" s="1">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H456" s="1">
         <v>1.7</v>
       </c>
       <c r="I456" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="J456" s="1">
         <v>1.3</v>
       </c>
       <c r="K456" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="L456" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M456" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="457">
@@ -19969,7 +19971,7 @@
         <v>877</v>
       </c>
       <c r="B457" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C457" s="1">
         <v>0</v>
@@ -19996,13 +19998,13 @@
         <v>2</v>
       </c>
       <c r="K457" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="L457" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="M457" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="458">
@@ -20010,7 +20012,7 @@
         <v>878</v>
       </c>
       <c r="B458" s="1">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="C458" s="1">
         <v>0</v>
@@ -20043,7 +20045,7 @@
         <v>1</v>
       </c>
       <c r="M458" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="459">
@@ -20051,7 +20053,7 @@
         <v>879</v>
       </c>
       <c r="B459" s="1">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="C459" s="1">
         <v>0</v>
@@ -20072,10 +20074,10 @@
         <v>1.3</v>
       </c>
       <c r="I459" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="J459" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K459" s="1">
         <v>1.2</v>
@@ -20084,7 +20086,7 @@
         <v>1.2</v>
       </c>
       <c r="M459" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="460">
@@ -20113,19 +20115,19 @@
         <v>1.3</v>
       </c>
       <c r="I460" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="J460" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="K460" s="1">
         <v>1.5</v>
       </c>
       <c r="L460" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M460" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="461">
@@ -20174,7 +20176,7 @@
         <v>882</v>
       </c>
       <c r="B462" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C462" s="1">
         <v>0</v>
@@ -20192,19 +20194,19 @@
         <v>1</v>
       </c>
       <c r="H462" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="I462" s="1">
         <v>0.5</v>
       </c>
       <c r="J462" s="1">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="K462" s="1">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="L462" s="1">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="M462" s="1">
         <v>10</v>
@@ -20215,7 +20217,7 @@
         <v>883</v>
       </c>
       <c r="B463" s="1">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="C463" s="1">
         <v>0</v>
@@ -20236,7 +20238,7 @@
         <v>1.3</v>
       </c>
       <c r="I463" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="J463" s="1">
         <v>1.3</v>
@@ -20248,7 +20250,7 @@
         <v>1.2</v>
       </c>
       <c r="M463" s="1">
-        <v>26.699999999999999</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="464">
@@ -20277,10 +20279,10 @@
         <v>1.3</v>
       </c>
       <c r="I464" s="1">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="J464" s="1">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="K464" s="1">
         <v>1.2</v>
@@ -20289,7 +20291,7 @@
         <v>1.2</v>
       </c>
       <c r="M464" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="465">
@@ -20318,10 +20320,10 @@
         <v>1.3</v>
       </c>
       <c r="I465" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="J465" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K465" s="1">
         <v>1.2</v>
@@ -20330,7 +20332,7 @@
         <v>1.2</v>
       </c>
       <c r="M465" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="466">
@@ -20359,10 +20361,10 @@
         <v>1.3</v>
       </c>
       <c r="I466" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J466" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K466" s="1">
         <v>1.3</v>
@@ -20371,7 +20373,7 @@
         <v>1.2</v>
       </c>
       <c r="M466" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="467">
@@ -20400,10 +20402,10 @@
         <v>1.3</v>
       </c>
       <c r="I467" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="J467" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K467" s="1">
         <v>1.3</v>
@@ -20412,7 +20414,7 @@
         <v>1.2</v>
       </c>
       <c r="M467" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="468">
@@ -20435,16 +20437,16 @@
         <v>0</v>
       </c>
       <c r="G468" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H468" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I468" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J468" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="K468" s="1">
         <v>1.2</v>
@@ -20453,7 +20455,7 @@
         <v>1.2</v>
       </c>
       <c r="M468" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="469">
@@ -20476,16 +20478,16 @@
         <v>0</v>
       </c>
       <c r="G469" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H469" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I469" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J469" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K469" s="1">
         <v>1.3</v>
@@ -20494,7 +20496,7 @@
         <v>1.3</v>
       </c>
       <c r="M469" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="470">
@@ -20502,7 +20504,7 @@
         <v>890</v>
       </c>
       <c r="B470" s="1">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="C470" s="1">
         <v>0</v>
@@ -20517,16 +20519,16 @@
         <v>0</v>
       </c>
       <c r="G470" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H470" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I470" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J470" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K470" s="1">
         <v>1.3</v>
@@ -20535,7 +20537,7 @@
         <v>1.2</v>
       </c>
       <c r="M470" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="471">
@@ -20543,7 +20545,7 @@
         <v>891</v>
       </c>
       <c r="B471" s="1">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="C471" s="1">
         <v>0</v>
@@ -20558,16 +20560,16 @@
         <v>0</v>
       </c>
       <c r="G471" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H471" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I471" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="J471" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="K471" s="1">
         <v>1.3</v>
@@ -20576,7 +20578,7 @@
         <v>1.2</v>
       </c>
       <c r="M471" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="472">
@@ -20584,7 +20586,7 @@
         <v>892</v>
       </c>
       <c r="B472" s="1">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="C472" s="1">
         <v>0</v>
@@ -20602,13 +20604,13 @@
         <v>1.3</v>
       </c>
       <c r="H472" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I472" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J472" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K472" s="1">
         <v>1.2</v>
@@ -20617,7 +20619,7 @@
         <v>1.2</v>
       </c>
       <c r="M472" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="473">
@@ -20640,25 +20642,25 @@
         <v>0</v>
       </c>
       <c r="G473" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H473" s="1">
         <v>1.3</v>
       </c>
       <c r="I473" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J473" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="K473" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L473" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M473" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="474">
@@ -20666,7 +20668,7 @@
         <v>894</v>
       </c>
       <c r="B474" s="1">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="C474" s="1">
         <v>0</v>
@@ -20681,16 +20683,16 @@
         <v>0</v>
       </c>
       <c r="G474" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H474" s="1">
         <v>1.3</v>
       </c>
       <c r="I474" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J474" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K474" s="1">
         <v>1.2</v>
@@ -20699,7 +20701,7 @@
         <v>1.2</v>
       </c>
       <c r="M474" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="475">
@@ -20707,7 +20709,7 @@
         <v>895</v>
       </c>
       <c r="B475" s="1">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="C475" s="1">
         <v>0</v>
@@ -20722,16 +20724,16 @@
         <v>0</v>
       </c>
       <c r="G475" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H475" s="1">
         <v>1.3</v>
       </c>
       <c r="I475" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="J475" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K475" s="1">
         <v>1.2</v>
@@ -20740,7 +20742,7 @@
         <v>1.2</v>
       </c>
       <c r="M475" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="476">
@@ -20748,7 +20750,7 @@
         <v>896</v>
       </c>
       <c r="B476" s="1">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="C476" s="1">
         <v>0</v>
@@ -20769,19 +20771,19 @@
         <v>1.3</v>
       </c>
       <c r="I476" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J476" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K476" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="L476" s="1">
         <v>1.3</v>
       </c>
       <c r="M476" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="477">
@@ -20789,7 +20791,7 @@
         <v>897</v>
       </c>
       <c r="B477" s="1">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="C477" s="1">
         <v>0</v>
@@ -20810,7 +20812,7 @@
         <v>1.3</v>
       </c>
       <c r="I477" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="J477" s="1">
         <v>1.5</v>
@@ -20822,7 +20824,7 @@
         <v>1.2</v>
       </c>
       <c r="M477" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="478">
@@ -20830,7 +20832,7 @@
         <v>898</v>
       </c>
       <c r="B478" s="1">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="C478" s="1">
         <v>0</v>
@@ -20851,10 +20853,10 @@
         <v>1</v>
       </c>
       <c r="I478" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="J478" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="K478" s="1">
         <v>1.2</v>
@@ -20863,7 +20865,7 @@
         <v>1.2</v>
       </c>
       <c r="M478" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="479">
@@ -20871,7 +20873,7 @@
         <v>899</v>
       </c>
       <c r="B479" s="1">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="C479" s="1">
         <v>0</v>
@@ -20886,7 +20888,7 @@
         <v>0</v>
       </c>
       <c r="G479" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H479" s="1">
         <v>1</v>
@@ -20895,7 +20897,7 @@
         <v>1.7</v>
       </c>
       <c r="J479" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="K479" s="1">
         <v>1.3</v>
@@ -20904,7 +20906,7 @@
         <v>1.2</v>
       </c>
       <c r="M479" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="480">
@@ -20912,7 +20914,7 @@
         <v>901</v>
       </c>
       <c r="B480" s="1">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="C480" s="1">
         <v>0</v>
@@ -20930,13 +20932,13 @@
         <v>1</v>
       </c>
       <c r="H480" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I480" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="J480" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="K480" s="1">
         <v>1.3</v>
@@ -20945,7 +20947,7 @@
         <v>1.3</v>
       </c>
       <c r="M480" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="481">
@@ -20953,7 +20955,7 @@
         <v>902</v>
       </c>
       <c r="B481" s="1">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="C481" s="1">
         <v>0</v>
@@ -20968,16 +20970,16 @@
         <v>0</v>
       </c>
       <c r="G481" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H481" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I481" s="1">
         <v>1.5</v>
       </c>
       <c r="J481" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="K481" s="1">
         <v>1.3</v>
@@ -20986,7 +20988,7 @@
         <v>1.2</v>
       </c>
       <c r="M481" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="482">
@@ -20994,7 +20996,7 @@
         <v>903</v>
       </c>
       <c r="B482" s="1">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="C482" s="1">
         <v>0</v>
@@ -21009,25 +21011,25 @@
         <v>0</v>
       </c>
       <c r="G482" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H482" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I482" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="J482" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="K482" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="L482" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="M482" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="483">
@@ -21050,25 +21052,25 @@
         <v>0</v>
       </c>
       <c r="G483" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H483" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I483" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J483" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K483" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L483" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M483" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="484">
@@ -21076,7 +21078,7 @@
         <v>905</v>
       </c>
       <c r="B484" s="1">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="C484" s="1">
         <v>0</v>
@@ -21091,25 +21093,25 @@
         <v>0</v>
       </c>
       <c r="G484" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H484" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I484" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J484" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K484" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L484" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M484" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="485">
@@ -21117,7 +21119,7 @@
         <v>906</v>
       </c>
       <c r="B485" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C485" s="1">
         <v>0</v>
@@ -21132,25 +21134,25 @@
         <v>0</v>
       </c>
       <c r="G485" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H485" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I485" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J485" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K485" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L485" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M485" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="486">
@@ -21173,25 +21175,25 @@
         <v>0</v>
       </c>
       <c r="G486" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H486" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I486" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J486" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K486" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L486" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M486" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="487">
@@ -21214,25 +21216,25 @@
         <v>0</v>
       </c>
       <c r="G487" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H487" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I487" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J487" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K487" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L487" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M487" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="488">
@@ -21240,7 +21242,7 @@
         <v>909</v>
       </c>
       <c r="B488" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C488" s="1">
         <v>0</v>
@@ -21258,22 +21260,22 @@
         <v>1.3</v>
       </c>
       <c r="H488" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I488" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J488" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K488" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L488" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M488" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="489">
@@ -21281,7 +21283,7 @@
         <v>910</v>
       </c>
       <c r="B489" s="1">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="C489" s="1">
         <v>0</v>
@@ -21296,25 +21298,25 @@
         <v>0</v>
       </c>
       <c r="G489" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H489" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I489" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J489" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K489" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L489" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M489" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="490">
@@ -21346,7 +21348,7 @@
         <v>2</v>
       </c>
       <c r="J490" s="1">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="K490" s="1">
         <v>1</v>
@@ -21355,7 +21357,7 @@
         <v>1</v>
       </c>
       <c r="M490" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="491">
@@ -21384,19 +21386,19 @@
         <v>1.5</v>
       </c>
       <c r="I491" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J491" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K491" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L491" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M491" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="492">
@@ -21404,7 +21406,7 @@
         <v>913</v>
       </c>
       <c r="B492" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C492" s="1">
         <v>0</v>
@@ -21422,22 +21424,22 @@
         <v>1.5</v>
       </c>
       <c r="H492" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I492" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J492" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K492" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L492" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M492" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="493">
@@ -21445,7 +21447,7 @@
         <v>914</v>
       </c>
       <c r="B493" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C493" s="1">
         <v>0</v>
@@ -21463,22 +21465,22 @@
         <v>1.5</v>
       </c>
       <c r="H493" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I493" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J493" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K493" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L493" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M493" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="494">
@@ -21486,7 +21488,7 @@
         <v>915</v>
       </c>
       <c r="B494" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C494" s="1">
         <v>0</v>
@@ -21504,22 +21506,22 @@
         <v>1.5</v>
       </c>
       <c r="H494" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I494" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J494" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K494" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L494" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M494" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="495">
@@ -21527,7 +21529,7 @@
         <v>916</v>
       </c>
       <c r="B495" s="1">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="C495" s="1">
         <v>0</v>
@@ -21542,25 +21544,25 @@
         <v>0</v>
       </c>
       <c r="G495" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H495" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I495" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J495" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K495" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L495" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M495" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="496">
@@ -21568,7 +21570,7 @@
         <v>917</v>
       </c>
       <c r="B496" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C496" s="1">
         <v>0</v>
@@ -21586,22 +21588,22 @@
         <v>1.5</v>
       </c>
       <c r="H496" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I496" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J496" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K496" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L496" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M496" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="497">
@@ -21609,7 +21611,7 @@
         <v>918</v>
       </c>
       <c r="B497" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C497" s="1">
         <v>0</v>
@@ -21627,22 +21629,22 @@
         <v>1.5</v>
       </c>
       <c r="H497" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I497" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J497" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K497" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L497" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M497" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="498">
@@ -21650,7 +21652,7 @@
         <v>919</v>
       </c>
       <c r="B498" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C498" s="1">
         <v>0</v>
@@ -21668,22 +21670,22 @@
         <v>1.7</v>
       </c>
       <c r="H498" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I498" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J498" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K498" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L498" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M498" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="499">
@@ -21691,7 +21693,7 @@
         <v>920</v>
       </c>
       <c r="B499" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C499" s="1">
         <v>0</v>
@@ -21712,19 +21714,19 @@
         <v>1.5</v>
       </c>
       <c r="I499" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J499" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K499" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L499" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M499" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="500">
@@ -21732,7 +21734,7 @@
         <v>921</v>
       </c>
       <c r="B500" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C500" s="1">
         <v>0</v>
@@ -21747,25 +21749,25 @@
         <v>0</v>
       </c>
       <c r="G500" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H500" s="1">
         <v>1.5</v>
       </c>
       <c r="I500" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J500" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K500" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L500" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M500" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="501">
@@ -21773,7 +21775,7 @@
         <v>922</v>
       </c>
       <c r="B501" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="C501" s="1">
         <v>0</v>
@@ -21791,22 +21793,22 @@
         <v>1.3</v>
       </c>
       <c r="H501" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I501" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J501" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K501" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L501" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M501" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="502">
@@ -21814,7 +21816,7 @@
         <v>923</v>
       </c>
       <c r="B502" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="C502" s="1">
         <v>0</v>
@@ -21832,22 +21834,22 @@
         <v>1.3</v>
       </c>
       <c r="H502" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I502" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J502" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K502" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L502" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M502" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="503">
@@ -21855,7 +21857,7 @@
         <v>924</v>
       </c>
       <c r="B503" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="C503" s="1">
         <v>0</v>
@@ -21870,25 +21872,25 @@
         <v>0</v>
       </c>
       <c r="G503" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H503" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I503" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J503" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K503" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L503" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M503" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="504">
@@ -21896,7 +21898,7 @@
         <v>925</v>
       </c>
       <c r="B504" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C504" s="1">
         <v>0</v>
@@ -21929,7 +21931,7 @@
         <v>0</v>
       </c>
       <c r="M504" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="505">
@@ -21937,7 +21939,7 @@
         <v>926</v>
       </c>
       <c r="B505" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C505" s="1">
         <v>0</v>
@@ -21955,22 +21957,22 @@
         <v>1.3</v>
       </c>
       <c r="H505" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I505" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J505" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K505" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L505" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M505" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="506">
@@ -21978,7 +21980,7 @@
         <v>927</v>
       </c>
       <c r="B506" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C506" s="1">
         <v>0</v>
@@ -21993,25 +21995,25 @@
         <v>0</v>
       </c>
       <c r="G506" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H506" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I506" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J506" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K506" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L506" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M506" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="507">
@@ -22019,7 +22021,7 @@
         <v>928</v>
       </c>
       <c r="B507" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="C507" s="1">
         <v>0</v>
@@ -22037,22 +22039,22 @@
         <v>1.3</v>
       </c>
       <c r="H507" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I507" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J507" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="K507" s="1">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="L507" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M507" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="508">
@@ -22060,7 +22062,7 @@
         <v>929</v>
       </c>
       <c r="B508" s="1">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="C508" s="1">
         <v>0</v>
@@ -22081,19 +22083,19 @@
         <v>1.3</v>
       </c>
       <c r="I508" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="J508" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="K508" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="L508" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M508" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="509">
@@ -22101,7 +22103,7 @@
         <v>930</v>
       </c>
       <c r="B509" s="1">
-        <v>14.699999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="C509" s="1">
         <v>0</v>
@@ -22116,16 +22118,16 @@
         <v>0</v>
       </c>
       <c r="G509" s="1">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H509" s="1">
         <v>3.5</v>
       </c>
       <c r="I509" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J509" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="K509" s="1">
         <v>1.2</v>
@@ -22134,7 +22136,7 @@
         <v>1.2</v>
       </c>
       <c r="M509" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="510">
@@ -22142,7 +22144,7 @@
         <v>931</v>
       </c>
       <c r="B510" s="1">
-        <v>17.699999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="C510" s="1">
         <v>0</v>
@@ -22157,25 +22159,25 @@
         <v>0</v>
       </c>
       <c r="G510" s="1">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="H510" s="1">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="I510" s="1">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="J510" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K510" s="1">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="L510" s="1">
         <v>2.5</v>
       </c>
       <c r="M510" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="511">
@@ -22216,7 +22218,7 @@
         <v>0</v>
       </c>
       <c r="M511" s="1">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="512">
@@ -22224,7 +22226,7 @@
         <v>933</v>
       </c>
       <c r="B512" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C512" s="1">
         <v>0</v>
@@ -22239,22 +22241,22 @@
         <v>0</v>
       </c>
       <c r="G512" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="H512" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="I512" s="1">
         <v>0.5</v>
       </c>
       <c r="J512" s="1">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="K512" s="1">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="L512" s="1">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="M512" s="1">
         <v>10</v>
@@ -22298,7 +22300,7 @@
         <v>0</v>
       </c>
       <c r="M513" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="514">
@@ -22339,7 +22341,7 @@
         <v>0</v>
       </c>
       <c r="M514" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="515">
@@ -22347,7 +22349,7 @@
         <v>936</v>
       </c>
       <c r="B515" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="C515" s="1">
         <v>0</v>
@@ -22371,16 +22373,16 @@
         <v>2</v>
       </c>
       <c r="J515" s="1">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="K515" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L515" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M515" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="516">
@@ -22388,7 +22390,7 @@
         <v>937</v>
       </c>
       <c r="B516" s="1">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="C516" s="1">
         <v>0</v>
@@ -22415,13 +22417,13 @@
         <v>2</v>
       </c>
       <c r="K516" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L516" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M516" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="517">
@@ -22429,7 +22431,7 @@
         <v>938</v>
       </c>
       <c r="B517" s="1">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="C517" s="1">
         <v>0</v>
@@ -22456,13 +22458,13 @@
         <v>2</v>
       </c>
       <c r="K517" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L517" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M517" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="518">
@@ -22470,7 +22472,7 @@
         <v>939</v>
       </c>
       <c r="B518" s="1">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="C518" s="1">
         <v>0</v>
@@ -22497,13 +22499,13 @@
         <v>2</v>
       </c>
       <c r="K518" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L518" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M518" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="519">
@@ -22511,7 +22513,7 @@
         <v>940</v>
       </c>
       <c r="B519" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="C519" s="1">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         <v>1</v>
       </c>
       <c r="M519" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="520">
@@ -22573,19 +22575,19 @@
         <v>1.2</v>
       </c>
       <c r="I520" s="1">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="J520" s="1">
         <v>2</v>
       </c>
       <c r="K520" s="1">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="L520" s="1">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="M520" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="521">
@@ -22593,7 +22595,7 @@
         <v>942</v>
       </c>
       <c r="B521" s="1">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="C521" s="1">
         <v>0</v>
@@ -22608,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="G521" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H521" s="1">
         <v>1.7</v>
@@ -22626,7 +22628,7 @@
         <v>1</v>
       </c>
       <c r="M521" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="522">
@@ -22652,7 +22654,7 @@
         <v>1.8</v>
       </c>
       <c r="H522" s="1">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="I522" s="1">
         <v>2</v>
@@ -22664,10 +22666,10 @@
         <v>1.2</v>
       </c>
       <c r="L522" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M522" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="523">
@@ -22675,7 +22677,7 @@
         <v>944</v>
       </c>
       <c r="B523" s="1">
-        <v>8.9000000000000004</v>
+        <v>8.9</v>
       </c>
       <c r="C523" s="1">
         <v>0</v>
@@ -22690,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="G523" s="1">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H523" s="1">
         <v>2.5</v>
@@ -22708,7 +22710,7 @@
         <v>1.3</v>
       </c>
       <c r="M523" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="524">
@@ -22716,7 +22718,7 @@
         <v>945</v>
       </c>
       <c r="B524" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="C524" s="1">
         <v>0</v>
@@ -22731,7 +22733,7 @@
         <v>0</v>
       </c>
       <c r="G524" s="1">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H524" s="1">
         <v>2.5</v>
@@ -22749,7 +22751,7 @@
         <v>1.5</v>
       </c>
       <c r="M524" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="525">
@@ -22757,7 +22759,7 @@
         <v>946</v>
       </c>
       <c r="B525" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="C525" s="1">
         <v>0</v>
@@ -22772,7 +22774,7 @@
         <v>0</v>
       </c>
       <c r="G525" s="1">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H525" s="1">
         <v>3</v>
@@ -22784,13 +22786,13 @@
         <v>3</v>
       </c>
       <c r="K525" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="L525" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="M525" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="526">
@@ -22798,7 +22800,7 @@
         <v>947</v>
       </c>
       <c r="B526" s="1">
-        <v>9.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="C526" s="1">
         <v>0</v>
@@ -22813,13 +22815,13 @@
         <v>0</v>
       </c>
       <c r="G526" s="1">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H526" s="1">
         <v>3</v>
       </c>
       <c r="I526" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J526" s="1">
         <v>3</v>
@@ -22828,10 +22830,10 @@
         <v>1.7</v>
       </c>
       <c r="L526" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="M526" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="527">
@@ -22839,7 +22841,7 @@
         <v>948</v>
       </c>
       <c r="B527" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="C527" s="1">
         <v>0</v>
@@ -22854,7 +22856,7 @@
         <v>0</v>
       </c>
       <c r="G527" s="1">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H527" s="1">
         <v>3</v>
@@ -22866,13 +22868,13 @@
         <v>3</v>
       </c>
       <c r="K527" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="L527" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="M527" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="528">
@@ -22880,7 +22882,7 @@
         <v>949</v>
       </c>
       <c r="B528" s="1">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="C528" s="1">
         <v>0</v>
@@ -22895,7 +22897,7 @@
         <v>0</v>
       </c>
       <c r="G528" s="1">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H528" s="1">
         <v>3</v>
@@ -22907,13 +22909,13 @@
         <v>3</v>
       </c>
       <c r="K528" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="L528" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="M528" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="529">
@@ -22939,13 +22941,13 @@
         <v>3.5</v>
       </c>
       <c r="H529" s="1">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="I529" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J529" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K529" s="1">
         <v>1.5</v>
@@ -22954,7 +22956,7 @@
         <v>1.5</v>
       </c>
       <c r="M529" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="530">
@@ -22980,13 +22982,13 @@
         <v>3.5</v>
       </c>
       <c r="H530" s="1">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="I530" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J530" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K530" s="1">
         <v>1.5</v>
@@ -22995,7 +22997,7 @@
         <v>1.5</v>
       </c>
       <c r="M530" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="531">
@@ -23021,13 +23023,13 @@
         <v>3.5</v>
       </c>
       <c r="H531" s="1">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="I531" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J531" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K531" s="1">
         <v>1.5</v>
@@ -23036,7 +23038,7 @@
         <v>1.5</v>
       </c>
       <c r="M531" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="532">
@@ -23062,13 +23064,13 @@
         <v>3.5</v>
       </c>
       <c r="H532" s="1">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="I532" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J532" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="K532" s="1">
         <v>1.5</v>
@@ -23077,7 +23079,7 @@
         <v>1.5</v>
       </c>
       <c r="M532" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="533">
@@ -23103,13 +23105,13 @@
         <v>3.5</v>
       </c>
       <c r="H533" s="1">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="I533" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="J533" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K533" s="1">
         <v>1.5</v>
@@ -23118,7 +23120,7 @@
         <v>1.5</v>
       </c>
       <c r="M533" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="534">
@@ -23126,7 +23128,7 @@
         <v>956</v>
       </c>
       <c r="B534" s="1">
-        <v>9.0999999999999996</v>
+        <v>9.1</v>
       </c>
       <c r="C534" s="1">
         <v>0</v>
@@ -23141,7 +23143,7 @@
         <v>0</v>
       </c>
       <c r="G534" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="H534" s="1">
         <v>4.5</v>
@@ -23159,7 +23161,7 @@
         <v>1.7</v>
       </c>
       <c r="M534" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="535">
@@ -23185,7 +23187,7 @@
         <v>5.5</v>
       </c>
       <c r="H535" s="1">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="I535" s="1">
         <v>3</v>
@@ -23200,7 +23202,7 @@
         <v>1.5</v>
       </c>
       <c r="M535" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="536">
@@ -23208,7 +23210,7 @@
         <v>958</v>
       </c>
       <c r="B536" s="1">
-        <v>11.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="C536" s="1">
         <v>0</v>
@@ -23223,10 +23225,10 @@
         <v>0</v>
       </c>
       <c r="G536" s="1">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="H536" s="1">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="I536" s="1">
         <v>3</v>
@@ -23235,13 +23237,13 @@
         <v>3</v>
       </c>
       <c r="K536" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="L536" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M536" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="537">
@@ -23264,25 +23266,25 @@
         <v>0</v>
       </c>
       <c r="G537" s="1">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="H537" s="1">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="I537" s="1">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="J537" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="K537" s="1">
         <v>1.5</v>
       </c>
       <c r="L537" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M537" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="538">
@@ -23311,19 +23313,19 @@
         <v>1.2</v>
       </c>
       <c r="I538" s="1">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="J538" s="1">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="K538" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="L538" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="M538" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="539">
@@ -23346,10 +23348,10 @@
         <v>0</v>
       </c>
       <c r="G539" s="1">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="H539" s="1">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="I539" s="1">
         <v>3</v>
@@ -23358,13 +23360,13 @@
         <v>3</v>
       </c>
       <c r="K539" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="L539" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M539" s="1">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="540">
@@ -23387,10 +23389,10 @@
         <v>0</v>
       </c>
       <c r="G540" s="1">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="H540" s="1">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="I540" s="1">
         <v>3</v>
@@ -23399,13 +23401,13 @@
         <v>3</v>
       </c>
       <c r="K540" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="L540" s="1">
         <v>1.3</v>
       </c>
       <c r="M540" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="541">
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G541" s="1">
-        <v>5.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="H541" s="1">
         <v>6</v>
@@ -23440,13 +23442,13 @@
         <v>3</v>
       </c>
       <c r="K541" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="L541" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M541" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="542">
@@ -23469,10 +23471,10 @@
         <v>0</v>
       </c>
       <c r="G542" s="1">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="H542" s="1">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="I542" s="1">
         <v>3</v>
@@ -23487,7 +23489,7 @@
         <v>1.5</v>
       </c>
       <c r="M542" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="543">
@@ -23510,13 +23512,13 @@
         <v>0</v>
       </c>
       <c r="G543" s="1">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="H543" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="I543" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J543" s="1">
         <v>3</v>
@@ -23525,10 +23527,10 @@
         <v>1.5</v>
       </c>
       <c r="L543" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M543" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="544">
@@ -23551,10 +23553,10 @@
         <v>0</v>
       </c>
       <c r="G544" s="1">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="H544" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="I544" s="1">
         <v>3</v>
@@ -23566,10 +23568,10 @@
         <v>1.5</v>
       </c>
       <c r="L544" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M544" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="545">
@@ -23592,25 +23594,25 @@
         <v>0</v>
       </c>
       <c r="G545" s="1">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="H545" s="1">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="I545" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J545" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K545" s="1">
         <v>1.5</v>
       </c>
       <c r="L545" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M545" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="546">
@@ -23618,7 +23620,7 @@
         <v>968</v>
       </c>
       <c r="B546" s="1">
-        <v>16.699999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="C546" s="1">
         <v>0</v>
@@ -23633,25 +23635,25 @@
         <v>0</v>
       </c>
       <c r="G546" s="1">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="H546" s="1">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="I546" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J546" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K546" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="L546" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M546" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="547">
@@ -23674,25 +23676,25 @@
         <v>0</v>
       </c>
       <c r="G547" s="1">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="H547" s="1">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="I547" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J547" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="K547" s="1">
         <v>1.5</v>
       </c>
       <c r="L547" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M547" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="548">
@@ -23715,25 +23717,25 @@
         <v>0</v>
       </c>
       <c r="G548" s="1">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="H548" s="1">
-        <v>6.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="I548" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J548" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="K548" s="1">
         <v>1.5</v>
       </c>
       <c r="L548" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M548" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="549">
@@ -23756,25 +23758,25 @@
         <v>0</v>
       </c>
       <c r="G549" s="1">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="H549" s="1">
-        <v>6.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="I549" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="J549" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="K549" s="1">
         <v>1.5</v>
       </c>
       <c r="L549" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M549" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="550">
@@ -23797,25 +23799,25 @@
         <v>0</v>
       </c>
       <c r="G550" s="1">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="H550" s="1">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="I550" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="J550" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K550" s="1">
         <v>1.5</v>
       </c>
       <c r="L550" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M550" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="551">
@@ -23823,7 +23825,7 @@
         <v>973</v>
       </c>
       <c r="B551" s="1">
-        <v>16.300000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="C551" s="1">
         <v>0</v>
@@ -23838,16 +23840,16 @@
         <v>0</v>
       </c>
       <c r="G551" s="1">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="H551" s="1">
-        <v>6.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="I551" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="J551" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="K551" s="1">
         <v>1.5</v>
@@ -23856,7 +23858,7 @@
         <v>1.5</v>
       </c>
       <c r="M551" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="552">
@@ -23864,7 +23866,7 @@
         <v>974</v>
       </c>
       <c r="B552" s="1">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="C552" s="1">
         <v>0</v>
@@ -23879,25 +23881,25 @@
         <v>0</v>
       </c>
       <c r="G552" s="1">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="H552" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I552" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="J552" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="K552" s="1">
         <v>1.5</v>
       </c>
       <c r="L552" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M552" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="553">
@@ -23905,7 +23907,7 @@
         <v>975</v>
       </c>
       <c r="B553" s="1">
-        <v>18.699999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="C553" s="1">
         <v>0</v>
@@ -23920,25 +23922,25 @@
         <v>0</v>
       </c>
       <c r="G553" s="1">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="H553" s="1">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="I553" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="J553" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="K553" s="1">
         <v>1.5</v>
       </c>
       <c r="L553" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M553" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="554">
@@ -23979,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="M554" s="1">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="555">
@@ -23987,7 +23989,7 @@
         <v>977</v>
       </c>
       <c r="B555" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C555" s="1">
         <v>0</v>
@@ -24002,16 +24004,16 @@
         <v>0</v>
       </c>
       <c r="G555" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="H555" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="I555" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="J555" s="1">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="K555" s="1">
         <v>0.5</v>
@@ -24028,7 +24030,7 @@
         <v>978</v>
       </c>
       <c r="B556" s="1">
-        <v>18.800000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="C556" s="1">
         <v>0</v>
@@ -24043,16 +24045,16 @@
         <v>0</v>
       </c>
       <c r="G556" s="1">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="H556" s="1">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="I556" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="J556" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="K556" s="1">
         <v>1.5</v>
@@ -24061,7 +24063,7 @@
         <v>1.5</v>
       </c>
       <c r="M556" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="557">
@@ -24084,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="G557" s="1">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="H557" s="1">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="I557" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="J557" s="1">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="K557" s="1">
         <v>1.5</v>
       </c>
       <c r="L557" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M557" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="558">
@@ -24143,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="M558" s="1">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="559">
@@ -24151,7 +24153,7 @@
         <v>981</v>
       </c>
       <c r="B559" s="1">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="C559" s="1">
         <v>0</v>
@@ -24166,25 +24168,25 @@
         <v>0</v>
       </c>
       <c r="G559" s="1">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="H559" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I559" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="J559" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="K559" s="1">
         <v>1.5</v>
       </c>
       <c r="L559" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M559" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="560">
@@ -24192,7 +24194,7 @@
         <v>982</v>
       </c>
       <c r="B560" s="1">
-        <v>18.699999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="C560" s="1">
         <v>0</v>
@@ -24207,25 +24209,25 @@
         <v>0</v>
       </c>
       <c r="G560" s="1">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="H560" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I560" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="J560" s="1">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="K560" s="1">
         <v>1.5</v>
       </c>
       <c r="L560" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M560" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="561">
@@ -24233,7 +24235,7 @@
         <v>983</v>
       </c>
       <c r="B561" s="1">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="C561" s="1">
         <v>0</v>
@@ -24248,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="G561" s="1">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="H561" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I561" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J561" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K561" s="1">
         <v>1.5</v>
       </c>
       <c r="L561" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M561" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="562">
@@ -24274,7 +24276,7 @@
         <v>984</v>
       </c>
       <c r="B562" s="1">
-        <v>18.699999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="C562" s="1">
         <v>0</v>
@@ -24289,10 +24291,10 @@
         <v>0</v>
       </c>
       <c r="G562" s="1">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="H562" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I562" s="1">
         <v>3</v>
@@ -24304,10 +24306,10 @@
         <v>1.5</v>
       </c>
       <c r="L562" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M562" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="563">
@@ -24315,7 +24317,7 @@
         <v>985</v>
       </c>
       <c r="B563" s="1">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="C563" s="1">
         <v>0</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="G563" s="1">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="H563" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I563" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J563" s="1">
         <v>3</v>
@@ -24345,10 +24347,10 @@
         <v>1.5</v>
       </c>
       <c r="L563" s="1">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M563" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="564">
@@ -24356,7 +24358,7 @@
         <v>986</v>
       </c>
       <c r="B564" s="1">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="C564" s="1">
         <v>0</v>
@@ -24371,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="G564" s="1">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="H564" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I564" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J564" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K564" s="1">
         <v>1.5</v>
@@ -24389,7 +24391,7 @@
         <v>1.5</v>
       </c>
       <c r="M564" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="565">
@@ -24397,7 +24399,7 @@
         <v>987</v>
       </c>
       <c r="B565" s="1">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="C565" s="1">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="G565" s="1">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="H565" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I565" s="1">
         <v>3</v>
       </c>
       <c r="J565" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K565" s="1">
         <v>1.5</v>
@@ -24430,7 +24432,7 @@
         <v>1.5</v>
       </c>
       <c r="M565" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="566">
@@ -24438,7 +24440,7 @@
         <v>988</v>
       </c>
       <c r="B566" s="1">
-        <v>18.699999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="C566" s="1">
         <v>0</v>
@@ -24453,16 +24455,16 @@
         <v>0</v>
       </c>
       <c r="G566" s="1">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="H566" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I566" s="1">
         <v>3</v>
       </c>
       <c r="J566" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K566" s="1">
         <v>1.5</v>
@@ -24471,7 +24473,7 @@
         <v>1.5</v>
       </c>
       <c r="M566" s="1">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="567">
@@ -24479,7 +24481,7 @@
         <v>989</v>
       </c>
       <c r="B567" s="1">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="C567" s="1">
         <v>0</v>
@@ -24494,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="G567" s="1">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="H567" s="1">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="I567" s="1">
         <v>3</v>
       </c>
       <c r="J567" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K567" s="1">
         <v>1.5</v>
@@ -24512,7 +24514,7 @@
         <v>1.5</v>
       </c>
       <c r="M567" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="568">
@@ -24520,7 +24522,7 @@
         <v>990</v>
       </c>
       <c r="B568" s="1">
-        <v>18.699999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="C568" s="1">
         <v>0</v>
@@ -24535,16 +24537,16 @@
         <v>0</v>
       </c>
       <c r="G568" s="1">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="H568" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I568" s="1">
         <v>3</v>
       </c>
       <c r="J568" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K568" s="1">
         <v>1.5</v>
@@ -24553,7 +24555,7 @@
         <v>1.5</v>
       </c>
       <c r="M568" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="569">
@@ -24561,7 +24563,7 @@
         <v>991</v>
       </c>
       <c r="B569" s="1">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="C569" s="1">
         <v>0</v>
@@ -24576,16 +24578,16 @@
         <v>0</v>
       </c>
       <c r="G569" s="1">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="H569" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I569" s="1">
         <v>2.5</v>
       </c>
       <c r="J569" s="1">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="K569" s="1">
         <v>1.5</v>
@@ -24594,7 +24596,7 @@
         <v>1.5</v>
       </c>
       <c r="M569" s="1">
-        <v>46.299999999999997</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="570">
@@ -24602,7 +24604,7 @@
         <v>992</v>
       </c>
       <c r="B570" s="1">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="C570" s="1">
         <v>0</v>
@@ -24617,16 +24619,16 @@
         <v>0</v>
       </c>
       <c r="G570" s="1">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="H570" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I570" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J570" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K570" s="1">
         <v>1.5</v>
@@ -24635,7 +24637,7 @@
         <v>1.5</v>
       </c>
       <c r="M570" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="571">
@@ -24643,7 +24645,7 @@
         <v>993</v>
       </c>
       <c r="B571" s="1">
-        <v>18.800000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="C571" s="1">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="G571" s="1">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="H571" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I571" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J571" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K571" s="1">
         <v>1.5</v>
@@ -24676,7 +24678,7 @@
         <v>1.5</v>
       </c>
       <c r="M571" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="572">
@@ -24699,25 +24701,25 @@
         <v>0</v>
       </c>
       <c r="G572" s="1">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="H572" s="1">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="I572" s="1">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="J572" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="K572" s="1">
         <v>2</v>
       </c>
       <c r="L572" s="1">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="M572" s="1">
-        <v>40.600000000000001</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="573">
@@ -24725,7 +24727,7 @@
         <v>995</v>
       </c>
       <c r="B573" s="1">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="C573" s="1">
         <v>0</v>
@@ -24740,25 +24742,25 @@
         <v>0</v>
       </c>
       <c r="G573" s="1">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="H573" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I573" s="1">
         <v>3</v>
       </c>
       <c r="J573" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K573" s="1">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="L573" s="1">
         <v>1.5</v>
       </c>
       <c r="M573" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="574">
@@ -24766,7 +24768,7 @@
         <v>996</v>
       </c>
       <c r="B574" s="1">
-        <v>18.800000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="C574" s="1">
         <v>0</v>
@@ -24781,16 +24783,16 @@
         <v>0</v>
       </c>
       <c r="G574" s="1">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="H574" s="1">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="I574" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J574" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K574" s="1">
         <v>1.5</v>
@@ -24799,7 +24801,7 @@
         <v>1.5</v>
       </c>
       <c r="M574" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="575">
@@ -24807,7 +24809,7 @@
         <v>997</v>
       </c>
       <c r="B575" s="1">
-        <v>18.800000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="C575" s="1">
         <v>0</v>
@@ -24822,16 +24824,16 @@
         <v>0</v>
       </c>
       <c r="G575" s="1">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="H575" s="1">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="I575" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J575" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K575" s="1">
         <v>1.5</v>
@@ -24840,7 +24842,7 @@
         <v>1.5</v>
       </c>
       <c r="M575" s="1">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="576">
@@ -24889,7 +24891,7 @@
         <v>999</v>
       </c>
       <c r="B577" s="1">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="C577" s="1">
         <v>0</v>
@@ -24904,16 +24906,16 @@
         <v>0</v>
       </c>
       <c r="G577" s="1">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="H577" s="1">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="I577" s="1">
         <v>3</v>
       </c>
       <c r="J577" s="1">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K577" s="1">
         <v>1.5</v>
@@ -24922,48 +24924,3410 @@
         <v>1.5</v>
       </c>
       <c r="M577" s="1">
-        <v>40.399999999999999</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1">
-        <v>1000</v>
+        <v>3706</v>
       </c>
       <c r="B578" s="1">
+        <v>0</v>
+      </c>
+      <c r="C578" s="1">
+        <v>0</v>
+      </c>
+      <c r="D578" s="1">
+        <v>0</v>
+      </c>
+      <c r="E578" s="1">
+        <v>0</v>
+      </c>
+      <c r="F578" s="1">
+        <v>0</v>
+      </c>
+      <c r="G578" s="1">
+        <v>0</v>
+      </c>
+      <c r="H578" s="1">
+        <v>0</v>
+      </c>
+      <c r="I578" s="1">
+        <v>0</v>
+      </c>
+      <c r="J578" s="1">
+        <v>0</v>
+      </c>
+      <c r="K578" s="1">
+        <v>0</v>
+      </c>
+      <c r="L578" s="1">
+        <v>0</v>
+      </c>
+      <c r="M578" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1">
+        <v>3707</v>
+      </c>
+      <c r="B579" s="1">
+        <v>0</v>
+      </c>
+      <c r="C579" s="1">
+        <v>0</v>
+      </c>
+      <c r="D579" s="1">
+        <v>0</v>
+      </c>
+      <c r="E579" s="1">
+        <v>0</v>
+      </c>
+      <c r="F579" s="1">
+        <v>0</v>
+      </c>
+      <c r="G579" s="1">
+        <v>0</v>
+      </c>
+      <c r="H579" s="1">
+        <v>0</v>
+      </c>
+      <c r="I579" s="1">
+        <v>0</v>
+      </c>
+      <c r="J579" s="1">
+        <v>0</v>
+      </c>
+      <c r="K579" s="1">
+        <v>0</v>
+      </c>
+      <c r="L579" s="1">
+        <v>0</v>
+      </c>
+      <c r="M579" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1">
+        <v>3708</v>
+      </c>
+      <c r="B580" s="1">
+        <v>9.2</v>
+      </c>
+      <c r="C580" s="1">
+        <v>1</v>
+      </c>
+      <c r="D580" s="1">
+        <v>1</v>
+      </c>
+      <c r="E580" s="1">
+        <v>0</v>
+      </c>
+      <c r="F580" s="1">
+        <v>0</v>
+      </c>
+      <c r="G580" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H580" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I580" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="J580" s="1">
+        <v>3</v>
+      </c>
+      <c r="K580" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L580" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M580" s="1">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1">
+        <v>3709</v>
+      </c>
+      <c r="B581" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="C581" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="D581" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="E581" s="1">
+        <v>0</v>
+      </c>
+      <c r="F581" s="1">
+        <v>0</v>
+      </c>
+      <c r="G581" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H581" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I581" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="J581" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="K581" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L581" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M581" s="1">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1">
+        <v>3710</v>
+      </c>
+      <c r="B582" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="C582" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="D582" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="E582" s="1">
+        <v>0</v>
+      </c>
+      <c r="F582" s="1">
+        <v>0</v>
+      </c>
+      <c r="G582" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H582" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I582" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="J582" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="K582" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L582" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M582" s="1">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1">
+        <v>3711</v>
+      </c>
+      <c r="B583" s="1">
+        <v>0</v>
+      </c>
+      <c r="C583" s="1">
+        <v>0</v>
+      </c>
+      <c r="D583" s="1">
+        <v>0</v>
+      </c>
+      <c r="E583" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="F583" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G583" s="1">
+        <v>0</v>
+      </c>
+      <c r="H583" s="1">
+        <v>0</v>
+      </c>
+      <c r="I583" s="1">
+        <v>0</v>
+      </c>
+      <c r="J583" s="1">
+        <v>0</v>
+      </c>
+      <c r="K583" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="L583" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="M583" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1">
+        <v>3712</v>
+      </c>
+      <c r="B584" s="1">
+        <v>0</v>
+      </c>
+      <c r="C584" s="1">
+        <v>0</v>
+      </c>
+      <c r="D584" s="1">
+        <v>0</v>
+      </c>
+      <c r="E584" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="F584" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="G584" s="1">
+        <v>0</v>
+      </c>
+      <c r="H584" s="1">
+        <v>0</v>
+      </c>
+      <c r="I584" s="1">
+        <v>0</v>
+      </c>
+      <c r="J584" s="1">
+        <v>0</v>
+      </c>
+      <c r="K584" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="L584" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="M584" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1">
+        <v>3713</v>
+      </c>
+      <c r="B585" s="1">
+        <v>0</v>
+      </c>
+      <c r="C585" s="1">
+        <v>0</v>
+      </c>
+      <c r="D585" s="1">
+        <v>0</v>
+      </c>
+      <c r="E585" s="1">
+        <v>0</v>
+      </c>
+      <c r="F585" s="1">
+        <v>0</v>
+      </c>
+      <c r="G585" s="1">
+        <v>0</v>
+      </c>
+      <c r="H585" s="1">
+        <v>0</v>
+      </c>
+      <c r="I585" s="1">
+        <v>0</v>
+      </c>
+      <c r="J585" s="1">
+        <v>0</v>
+      </c>
+      <c r="K585" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="L585" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="M585" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1">
+        <v>3714</v>
+      </c>
+      <c r="B586" s="1">
+        <v>0</v>
+      </c>
+      <c r="C586" s="1">
+        <v>0</v>
+      </c>
+      <c r="D586" s="1">
+        <v>0</v>
+      </c>
+      <c r="E586" s="1">
+        <v>0</v>
+      </c>
+      <c r="F586" s="1">
+        <v>0</v>
+      </c>
+      <c r="G586" s="1">
+        <v>0</v>
+      </c>
+      <c r="H586" s="1">
+        <v>0</v>
+      </c>
+      <c r="I586" s="1">
+        <v>0</v>
+      </c>
+      <c r="J586" s="1">
+        <v>0</v>
+      </c>
+      <c r="K586" s="1">
+        <v>0</v>
+      </c>
+      <c r="L586" s="1">
+        <v>0</v>
+      </c>
+      <c r="M586" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1">
+        <v>3715</v>
+      </c>
+      <c r="B587" s="1">
+        <v>0</v>
+      </c>
+      <c r="C587" s="1">
+        <v>0</v>
+      </c>
+      <c r="D587" s="1">
+        <v>0</v>
+      </c>
+      <c r="E587" s="1">
+        <v>0</v>
+      </c>
+      <c r="F587" s="1">
+        <v>0</v>
+      </c>
+      <c r="G587" s="1">
+        <v>0</v>
+      </c>
+      <c r="H587" s="1">
+        <v>0</v>
+      </c>
+      <c r="I587" s="1">
+        <v>0</v>
+      </c>
+      <c r="J587" s="1">
+        <v>0</v>
+      </c>
+      <c r="K587" s="1">
+        <v>0</v>
+      </c>
+      <c r="L587" s="1">
+        <v>0</v>
+      </c>
+      <c r="M587" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1">
+        <v>3716</v>
+      </c>
+      <c r="B588" s="1">
+        <v>0</v>
+      </c>
+      <c r="C588" s="1">
+        <v>0</v>
+      </c>
+      <c r="D588" s="1">
+        <v>0</v>
+      </c>
+      <c r="E588" s="1">
+        <v>0</v>
+      </c>
+      <c r="F588" s="1">
+        <v>0</v>
+      </c>
+      <c r="G588" s="1">
+        <v>0</v>
+      </c>
+      <c r="H588" s="1">
+        <v>0</v>
+      </c>
+      <c r="I588" s="1">
+        <v>0</v>
+      </c>
+      <c r="J588" s="1">
+        <v>0</v>
+      </c>
+      <c r="K588" s="1">
+        <v>0</v>
+      </c>
+      <c r="L588" s="1">
+        <v>0</v>
+      </c>
+      <c r="M588" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1">
+        <v>3717</v>
+      </c>
+      <c r="B589" s="1">
+        <v>0</v>
+      </c>
+      <c r="C589" s="1">
+        <v>0</v>
+      </c>
+      <c r="D589" s="1">
+        <v>0</v>
+      </c>
+      <c r="E589" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="F589" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="G589" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="H589" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="I589" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="J589" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="K589" s="1">
+        <v>0</v>
+      </c>
+      <c r="L589" s="1">
+        <v>0</v>
+      </c>
+      <c r="M589" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1">
+        <v>3718</v>
+      </c>
+      <c r="B590" s="1">
+        <v>0</v>
+      </c>
+      <c r="C590" s="1">
+        <v>0</v>
+      </c>
+      <c r="D590" s="1">
+        <v>0</v>
+      </c>
+      <c r="E590" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="F590" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="G590" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="H590" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I590" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="J590" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="K590" s="1">
+        <v>0</v>
+      </c>
+      <c r="L590" s="1">
+        <v>0</v>
+      </c>
+      <c r="M590" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1">
+        <v>3719</v>
+      </c>
+      <c r="B591" s="1">
+        <v>0</v>
+      </c>
+      <c r="C591" s="1">
+        <v>0</v>
+      </c>
+      <c r="D591" s="1">
+        <v>0</v>
+      </c>
+      <c r="E591" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="F591" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="G591" s="1">
+        <v>0</v>
+      </c>
+      <c r="H591" s="1">
+        <v>0</v>
+      </c>
+      <c r="I591" s="1">
+        <v>0</v>
+      </c>
+      <c r="J591" s="1">
+        <v>0</v>
+      </c>
+      <c r="K591" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="L591" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="M591" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1">
+        <v>3720</v>
+      </c>
+      <c r="B592" s="1">
+        <v>0</v>
+      </c>
+      <c r="C592" s="1">
+        <v>0</v>
+      </c>
+      <c r="D592" s="1">
+        <v>0</v>
+      </c>
+      <c r="E592" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="F592" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="G592" s="1">
+        <v>0</v>
+      </c>
+      <c r="H592" s="1">
+        <v>0</v>
+      </c>
+      <c r="I592" s="1">
+        <v>0</v>
+      </c>
+      <c r="J592" s="1">
+        <v>0</v>
+      </c>
+      <c r="K592" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="L592" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="M592" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1">
+        <v>3721</v>
+      </c>
+      <c r="B593" s="1">
+        <v>0</v>
+      </c>
+      <c r="C593" s="1">
+        <v>0</v>
+      </c>
+      <c r="D593" s="1">
+        <v>0</v>
+      </c>
+      <c r="E593" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="F593" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="G593" s="1">
+        <v>0</v>
+      </c>
+      <c r="H593" s="1">
+        <v>0</v>
+      </c>
+      <c r="I593" s="1">
+        <v>0</v>
+      </c>
+      <c r="J593" s="1">
+        <v>0</v>
+      </c>
+      <c r="K593" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="L593" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="M593" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1">
+        <v>3722</v>
+      </c>
+      <c r="B594" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="C594" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="D594" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="E594" s="1">
+        <v>0</v>
+      </c>
+      <c r="F594" s="1">
+        <v>0</v>
+      </c>
+      <c r="G594" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H594" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I594" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="J594" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="K594" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L594" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M594" s="1">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1">
+        <v>3723</v>
+      </c>
+      <c r="B595" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="C595" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="D595" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="E595" s="1">
+        <v>0</v>
+      </c>
+      <c r="F595" s="1">
+        <v>0</v>
+      </c>
+      <c r="G595" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H595" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I595" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="J595" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="K595" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L595" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M595" s="1">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1">
+        <v>3724</v>
+      </c>
+      <c r="B596" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="C596" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="D596" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="E596" s="1">
+        <v>0</v>
+      </c>
+      <c r="F596" s="1">
+        <v>0</v>
+      </c>
+      <c r="G596" s="1">
+        <v>4</v>
+      </c>
+      <c r="H596" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I596" s="1">
+        <v>5</v>
+      </c>
+      <c r="J596" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="K596" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="L596" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="M596" s="1">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1">
+        <v>3725</v>
+      </c>
+      <c r="B597" s="1">
+        <v>19.1</v>
+      </c>
+      <c r="C597" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D597" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="E597" s="1">
+        <v>0</v>
+      </c>
+      <c r="F597" s="1">
+        <v>0</v>
+      </c>
+      <c r="G597" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H597" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="I597" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="J597" s="1">
+        <v>4</v>
+      </c>
+      <c r="K597" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L597" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M597" s="1">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1">
+        <v>3726</v>
+      </c>
+      <c r="B598" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="C598" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="D598" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E598" s="1">
+        <v>0</v>
+      </c>
+      <c r="F598" s="1">
+        <v>0</v>
+      </c>
+      <c r="G598" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H598" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I598" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="J598" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="K598" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L598" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M598" s="1">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1">
+        <v>3727</v>
+      </c>
+      <c r="B599" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="C599" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D599" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E599" s="1">
+        <v>0</v>
+      </c>
+      <c r="F599" s="1">
+        <v>0</v>
+      </c>
+      <c r="G599" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H599" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I599" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="J599" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="K599" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="L599" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="M599" s="1">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1">
+        <v>3728</v>
+      </c>
+      <c r="B600" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="C600" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="D600" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="E600" s="1">
+        <v>0</v>
+      </c>
+      <c r="F600" s="1">
+        <v>0</v>
+      </c>
+      <c r="G600" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H600" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I600" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="J600" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="K600" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L600" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M600" s="1">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1">
+        <v>3729</v>
+      </c>
+      <c r="B601" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="C601" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D601" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E601" s="1">
+        <v>0</v>
+      </c>
+      <c r="F601" s="1">
+        <v>0</v>
+      </c>
+      <c r="G601" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H601" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I601" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="J601" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="K601" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L601" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M601" s="1">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1">
+        <v>3730</v>
+      </c>
+      <c r="B602" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="C602" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D602" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E602" s="1">
+        <v>0</v>
+      </c>
+      <c r="F602" s="1">
+        <v>0</v>
+      </c>
+      <c r="G602" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H602" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I602" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="J602" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="K602" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L602" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M602" s="1">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1">
+        <v>3731</v>
+      </c>
+      <c r="B603" s="1">
+        <v>0</v>
+      </c>
+      <c r="C603" s="1">
+        <v>0</v>
+      </c>
+      <c r="D603" s="1">
+        <v>0</v>
+      </c>
+      <c r="E603" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="F603" s="1">
+        <v>5.1</v>
+      </c>
+      <c r="G603" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="H603" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="I603" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="J603" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="K603" s="1">
+        <v>0</v>
+      </c>
+      <c r="L603" s="1">
+        <v>0</v>
+      </c>
+      <c r="M603" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1">
+        <v>3732</v>
+      </c>
+      <c r="B604" s="1">
+        <v>0</v>
+      </c>
+      <c r="C604" s="1">
+        <v>0</v>
+      </c>
+      <c r="D604" s="1">
+        <v>0</v>
+      </c>
+      <c r="E604" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="F604" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="G604" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="H604" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="I604" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="J604" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="K604" s="1">
+        <v>0</v>
+      </c>
+      <c r="L604" s="1">
+        <v>0</v>
+      </c>
+      <c r="M604" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1">
+        <v>3733</v>
+      </c>
+      <c r="B605" s="1">
         <v>12.6</v>
       </c>
-      <c r="C578" s="1">
-        <v>0</v>
-      </c>
-      <c r="D578" s="1">
-        <v>0</v>
-      </c>
-      <c r="E578" s="1">
-        <v>0</v>
-      </c>
-      <c r="F578" s="1">
-        <v>0</v>
-      </c>
-      <c r="G578" s="1">
+      <c r="C605" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D605" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E605" s="1">
+        <v>0</v>
+      </c>
+      <c r="F605" s="1">
+        <v>0</v>
+      </c>
+      <c r="G605" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H605" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I605" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="J605" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="K605" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L605" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M605" s="1">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1">
+        <v>3734</v>
+      </c>
+      <c r="B606" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="C606" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D606" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E606" s="1">
+        <v>0</v>
+      </c>
+      <c r="F606" s="1">
+        <v>0</v>
+      </c>
+      <c r="G606" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H606" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I606" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="J606" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="K606" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L606" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M606" s="1">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1">
+        <v>3735</v>
+      </c>
+      <c r="B607" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="C607" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D607" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E607" s="1">
+        <v>0</v>
+      </c>
+      <c r="F607" s="1">
+        <v>0</v>
+      </c>
+      <c r="G607" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H607" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I607" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="J607" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="K607" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L607" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M607" s="1">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1">
+        <v>3736</v>
+      </c>
+      <c r="B608" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="C608" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D608" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E608" s="1">
+        <v>0</v>
+      </c>
+      <c r="F608" s="1">
+        <v>0</v>
+      </c>
+      <c r="G608" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H608" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I608" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="J608" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="K608" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L608" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M608" s="1">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1">
+        <v>3737</v>
+      </c>
+      <c r="B609" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="C609" s="1">
+        <v>0</v>
+      </c>
+      <c r="D609" s="1">
+        <v>0</v>
+      </c>
+      <c r="E609" s="1">
+        <v>0</v>
+      </c>
+      <c r="F609" s="1">
+        <v>0</v>
+      </c>
+      <c r="G609" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H609" s="1">
+        <v>2</v>
+      </c>
+      <c r="I609" s="1">
+        <v>0</v>
+      </c>
+      <c r="J609" s="1">
+        <v>0</v>
+      </c>
+      <c r="K609" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L609" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M609" s="1">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1">
+        <v>3738</v>
+      </c>
+      <c r="B610" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="C610" s="1">
+        <v>0</v>
+      </c>
+      <c r="D610" s="1">
+        <v>0</v>
+      </c>
+      <c r="E610" s="1">
+        <v>0</v>
+      </c>
+      <c r="F610" s="1">
+        <v>0</v>
+      </c>
+      <c r="G610" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="H610" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="I610" s="1">
+        <v>0</v>
+      </c>
+      <c r="J610" s="1">
+        <v>0</v>
+      </c>
+      <c r="K610" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L610" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M610" s="1">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1">
+        <v>3739</v>
+      </c>
+      <c r="B611" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="C611" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="D611" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="E611" s="1">
+        <v>0</v>
+      </c>
+      <c r="F611" s="1">
+        <v>0</v>
+      </c>
+      <c r="G611" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="H611" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="I611" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="J611" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="K611" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L611" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M611" s="1">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1">
+        <v>3740</v>
+      </c>
+      <c r="B612" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="C612" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D612" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E612" s="1">
+        <v>0</v>
+      </c>
+      <c r="F612" s="1">
+        <v>0</v>
+      </c>
+      <c r="G612" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="H612" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="I612" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="J612" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="K612" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L612" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M612" s="1">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1">
+        <v>3741</v>
+      </c>
+      <c r="B613" s="1">
+        <v>13</v>
+      </c>
+      <c r="C613" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="D613" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="E613" s="1">
+        <v>0</v>
+      </c>
+      <c r="F613" s="1">
+        <v>0</v>
+      </c>
+      <c r="G613" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="H613" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="I613" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="J613" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="K613" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L613" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M613" s="1">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1">
+        <v>3659</v>
+      </c>
+      <c r="B614" s="1">
+        <v>0</v>
+      </c>
+      <c r="C614" s="1">
+        <v>0</v>
+      </c>
+      <c r="D614" s="1">
+        <v>0</v>
+      </c>
+      <c r="E614" s="1">
+        <v>0</v>
+      </c>
+      <c r="F614" s="1">
+        <v>0</v>
+      </c>
+      <c r="G614" s="1">
+        <v>0</v>
+      </c>
+      <c r="H614" s="1">
+        <v>0</v>
+      </c>
+      <c r="I614" s="1">
+        <v>0</v>
+      </c>
+      <c r="J614" s="1">
+        <v>0</v>
+      </c>
+      <c r="K614" s="1">
+        <v>0</v>
+      </c>
+      <c r="L614" s="1">
+        <v>0</v>
+      </c>
+      <c r="M614" s="1">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1">
+        <v>3660</v>
+      </c>
+      <c r="B615" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C615" s="1">
+        <v>1</v>
+      </c>
+      <c r="D615" s="1">
+        <v>1</v>
+      </c>
+      <c r="E615" s="1">
+        <v>0</v>
+      </c>
+      <c r="F615" s="1">
+        <v>0</v>
+      </c>
+      <c r="G615" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H615" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I615" s="1">
+        <v>3.2000000000000002</v>
+      </c>
+      <c r="J615" s="1">
+        <v>3</v>
+      </c>
+      <c r="K615" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L615" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M615" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1">
+        <v>3661</v>
+      </c>
+      <c r="B616" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="C616" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D616" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E616" s="1">
+        <v>0</v>
+      </c>
+      <c r="F616" s="1">
+        <v>0</v>
+      </c>
+      <c r="G616" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H616" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I616" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J616" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K616" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L616" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M616" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1">
+        <v>3662</v>
+      </c>
+      <c r="B617" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="C617" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D617" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E617" s="1">
+        <v>0</v>
+      </c>
+      <c r="F617" s="1">
+        <v>0</v>
+      </c>
+      <c r="G617" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H617" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I617" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J617" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K617" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L617" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M617" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1">
+        <v>3663</v>
+      </c>
+      <c r="B618" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="C618" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D618" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E618" s="1">
+        <v>0</v>
+      </c>
+      <c r="F618" s="1">
+        <v>0</v>
+      </c>
+      <c r="G618" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H618" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I618" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J618" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K618" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L618" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M618" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1">
+        <v>3664</v>
+      </c>
+      <c r="B619" s="1">
+        <v>12.800000000000001</v>
+      </c>
+      <c r="C619" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D619" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E619" s="1">
+        <v>0</v>
+      </c>
+      <c r="F619" s="1">
+        <v>0</v>
+      </c>
+      <c r="G619" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H619" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I619" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J619" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K619" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L619" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M619" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1">
+        <v>3665</v>
+      </c>
+      <c r="B620" s="1">
+        <v>15.800000000000001</v>
+      </c>
+      <c r="C620" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D620" s="1">
+        <v>2.3999999999999999</v>
+      </c>
+      <c r="E620" s="1">
+        <v>0</v>
+      </c>
+      <c r="F620" s="1">
+        <v>0</v>
+      </c>
+      <c r="G620" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H620" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I620" s="1">
+        <v>3.7999999999999998</v>
+      </c>
+      <c r="J620" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K620" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L620" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M620" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1">
+        <v>3666</v>
+      </c>
+      <c r="B621" s="1">
+        <v>0</v>
+      </c>
+      <c r="C621" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="D621" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="E621" s="1">
+        <v>0</v>
+      </c>
+      <c r="F621" s="1">
+        <v>0</v>
+      </c>
+      <c r="G621" s="1">
+        <v>5</v>
+      </c>
+      <c r="H621" s="1">
+        <v>5</v>
+      </c>
+      <c r="I621" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J621" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K621" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="L621" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="M621" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1">
+        <v>3667</v>
+      </c>
+      <c r="B622" s="1">
+        <v>0</v>
+      </c>
+      <c r="C622" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="D622" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="E622" s="1">
+        <v>0</v>
+      </c>
+      <c r="F622" s="1">
+        <v>0</v>
+      </c>
+      <c r="G622" s="1">
+        <v>5</v>
+      </c>
+      <c r="H622" s="1">
+        <v>5</v>
+      </c>
+      <c r="I622" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J622" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K622" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="L622" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="M622" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1">
+        <v>3668</v>
+      </c>
+      <c r="B623" s="1">
+        <v>0</v>
+      </c>
+      <c r="C623" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="D623" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="E623" s="1">
+        <v>0</v>
+      </c>
+      <c r="F623" s="1">
+        <v>0</v>
+      </c>
+      <c r="G623" s="1">
+        <v>5</v>
+      </c>
+      <c r="H623" s="1">
+        <v>5</v>
+      </c>
+      <c r="I623" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J623" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K623" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L623" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M623" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1">
+        <v>3669</v>
+      </c>
+      <c r="B624" s="1">
+        <v>0</v>
+      </c>
+      <c r="C624" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="D624" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="E624" s="1">
+        <v>0</v>
+      </c>
+      <c r="F624" s="1">
+        <v>0</v>
+      </c>
+      <c r="G624" s="1">
+        <v>0</v>
+      </c>
+      <c r="H624" s="1">
+        <v>0</v>
+      </c>
+      <c r="I624" s="1">
+        <v>4.2000000000000002</v>
+      </c>
+      <c r="J624" s="1">
+        <v>4.2000000000000002</v>
+      </c>
+      <c r="K624" s="1">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="L624" s="1">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="M624" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1">
+        <v>3670</v>
+      </c>
+      <c r="B625" s="1">
+        <v>0</v>
+      </c>
+      <c r="C625" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="D625" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="E625" s="1">
+        <v>0</v>
+      </c>
+      <c r="F625" s="1">
+        <v>0</v>
+      </c>
+      <c r="G625" s="1">
+        <v>0</v>
+      </c>
+      <c r="H625" s="1">
+        <v>0</v>
+      </c>
+      <c r="I625" s="1">
+        <v>4.2999999999999998</v>
+      </c>
+      <c r="J625" s="1">
+        <v>4.2000000000000002</v>
+      </c>
+      <c r="K625" s="1">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="L625" s="1">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="M625" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1">
+        <v>3671</v>
+      </c>
+      <c r="B626" s="1">
+        <v>0</v>
+      </c>
+      <c r="C626" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="D626" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="E626" s="1">
+        <v>0</v>
+      </c>
+      <c r="F626" s="1">
+        <v>0</v>
+      </c>
+      <c r="G626" s="1">
+        <v>0</v>
+      </c>
+      <c r="H626" s="1">
+        <v>0</v>
+      </c>
+      <c r="I626" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J626" s="1">
+        <v>4.2000000000000002</v>
+      </c>
+      <c r="K626" s="1">
+        <v>2</v>
+      </c>
+      <c r="L626" s="1">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="M626" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1">
+        <v>3672</v>
+      </c>
+      <c r="B627" s="1">
+        <v>0</v>
+      </c>
+      <c r="C627" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D627" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="E627" s="1">
+        <v>0</v>
+      </c>
+      <c r="F627" s="1">
+        <v>0</v>
+      </c>
+      <c r="G627" s="1">
+        <v>0</v>
+      </c>
+      <c r="H627" s="1">
+        <v>0</v>
+      </c>
+      <c r="I627" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J627" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="K627" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="L627" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="M627" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1">
+        <v>3673</v>
+      </c>
+      <c r="B628" s="1">
+        <v>0</v>
+      </c>
+      <c r="C628" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="D628" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="E628" s="1">
+        <v>0</v>
+      </c>
+      <c r="F628" s="1">
+        <v>0</v>
+      </c>
+      <c r="G628" s="1">
+        <v>0</v>
+      </c>
+      <c r="H628" s="1">
+        <v>0</v>
+      </c>
+      <c r="I628" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J628" s="1">
+        <v>4.2000000000000002</v>
+      </c>
+      <c r="K628" s="1">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="L628" s="1">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="M628" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1">
+        <v>3674</v>
+      </c>
+      <c r="B629" s="1">
+        <v>0</v>
+      </c>
+      <c r="C629" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="D629" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="E629" s="1">
+        <v>0</v>
+      </c>
+      <c r="F629" s="1">
+        <v>0</v>
+      </c>
+      <c r="G629" s="1">
+        <v>0</v>
+      </c>
+      <c r="H629" s="1">
+        <v>0</v>
+      </c>
+      <c r="I629" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J629" s="1">
+        <v>4.2000000000000002</v>
+      </c>
+      <c r="K629" s="1">
+        <v>2</v>
+      </c>
+      <c r="L629" s="1">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="M629" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1">
+        <v>3675</v>
+      </c>
+      <c r="B630" s="1">
+        <v>0</v>
+      </c>
+      <c r="C630" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="D630" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="E630" s="1">
+        <v>0</v>
+      </c>
+      <c r="F630" s="1">
+        <v>0</v>
+      </c>
+      <c r="G630" s="1">
+        <v>0</v>
+      </c>
+      <c r="H630" s="1">
+        <v>0</v>
+      </c>
+      <c r="I630" s="1">
+        <v>4.2000000000000002</v>
+      </c>
+      <c r="J630" s="1">
+        <v>4.2000000000000002</v>
+      </c>
+      <c r="K630" s="1">
+        <v>2</v>
+      </c>
+      <c r="L630" s="1">
+        <v>2</v>
+      </c>
+      <c r="M630" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1">
+        <v>3676</v>
+      </c>
+      <c r="B631" s="1">
+        <v>0</v>
+      </c>
+      <c r="C631" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="D631" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="E631" s="1">
+        <v>0</v>
+      </c>
+      <c r="F631" s="1">
+        <v>0</v>
+      </c>
+      <c r="G631" s="1">
+        <v>0</v>
+      </c>
+      <c r="H631" s="1">
+        <v>0</v>
+      </c>
+      <c r="I631" s="1">
+        <v>4.2000000000000002</v>
+      </c>
+      <c r="J631" s="1">
+        <v>4.2000000000000002</v>
+      </c>
+      <c r="K631" s="1">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="L631" s="1">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="M631" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1">
+        <v>3677</v>
+      </c>
+      <c r="B632" s="1">
+        <v>0</v>
+      </c>
+      <c r="C632" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="D632" s="1">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="E632" s="1">
+        <v>0</v>
+      </c>
+      <c r="F632" s="1">
+        <v>0</v>
+      </c>
+      <c r="G632" s="1">
+        <v>0</v>
+      </c>
+      <c r="H632" s="1">
+        <v>0</v>
+      </c>
+      <c r="I632" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J632" s="1">
+        <v>4.2000000000000002</v>
+      </c>
+      <c r="K632" s="1">
+        <v>2</v>
+      </c>
+      <c r="L632" s="1">
+        <v>2</v>
+      </c>
+      <c r="M632" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1">
+        <v>3678</v>
+      </c>
+      <c r="B633" s="1">
+        <v>0</v>
+      </c>
+      <c r="C633" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D633" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="E633" s="1">
+        <v>0</v>
+      </c>
+      <c r="F633" s="1">
+        <v>0</v>
+      </c>
+      <c r="G633" s="1">
+        <v>0</v>
+      </c>
+      <c r="H633" s="1">
+        <v>0</v>
+      </c>
+      <c r="I633" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J633" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="K633" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="L633" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="M633" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1">
+        <v>3679</v>
+      </c>
+      <c r="B634" s="1">
+        <v>0</v>
+      </c>
+      <c r="C634" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D634" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="E634" s="1">
+        <v>0</v>
+      </c>
+      <c r="F634" s="1">
+        <v>0</v>
+      </c>
+      <c r="G634" s="1">
+        <v>0</v>
+      </c>
+      <c r="H634" s="1">
+        <v>0</v>
+      </c>
+      <c r="I634" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J634" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="K634" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="L634" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="M634" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1">
+        <v>3680</v>
+      </c>
+      <c r="B635" s="1">
+        <v>0</v>
+      </c>
+      <c r="C635" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D635" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="E635" s="1">
+        <v>0</v>
+      </c>
+      <c r="F635" s="1">
+        <v>0</v>
+      </c>
+      <c r="G635" s="1">
+        <v>0</v>
+      </c>
+      <c r="H635" s="1">
+        <v>0</v>
+      </c>
+      <c r="I635" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J635" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="K635" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="L635" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="M635" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1">
+        <v>3681</v>
+      </c>
+      <c r="B636" s="1">
+        <v>0</v>
+      </c>
+      <c r="C636" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D636" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="E636" s="1">
+        <v>0</v>
+      </c>
+      <c r="F636" s="1">
+        <v>0</v>
+      </c>
+      <c r="G636" s="1">
+        <v>0</v>
+      </c>
+      <c r="H636" s="1">
+        <v>0</v>
+      </c>
+      <c r="I636" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J636" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="K636" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="L636" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="M636" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1">
+        <v>3682</v>
+      </c>
+      <c r="B637" s="1">
+        <v>0</v>
+      </c>
+      <c r="C637" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D637" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="E637" s="1">
+        <v>0</v>
+      </c>
+      <c r="F637" s="1">
+        <v>0</v>
+      </c>
+      <c r="G637" s="1">
+        <v>0</v>
+      </c>
+      <c r="H637" s="1">
+        <v>0</v>
+      </c>
+      <c r="I637" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J637" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="K637" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="L637" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="M637" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1">
+        <v>3683</v>
+      </c>
+      <c r="B638" s="1">
+        <v>0</v>
+      </c>
+      <c r="C638" s="1">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="D638" s="1">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="E638" s="1">
+        <v>0</v>
+      </c>
+      <c r="F638" s="1">
+        <v>0</v>
+      </c>
+      <c r="G638" s="1">
+        <v>0</v>
+      </c>
+      <c r="H638" s="1">
+        <v>0</v>
+      </c>
+      <c r="I638" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J638" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="K638" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="L638" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="M638" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1">
+        <v>3684</v>
+      </c>
+      <c r="B639" s="1">
+        <v>0</v>
+      </c>
+      <c r="C639" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D639" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="E639" s="1">
+        <v>0</v>
+      </c>
+      <c r="F639" s="1">
+        <v>0</v>
+      </c>
+      <c r="G639" s="1">
+        <v>0</v>
+      </c>
+      <c r="H639" s="1">
+        <v>0</v>
+      </c>
+      <c r="I639" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J639" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="K639" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="L639" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="M639" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1">
+        <v>3685</v>
+      </c>
+      <c r="B640" s="1">
+        <v>0</v>
+      </c>
+      <c r="C640" s="1">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="D640" s="1">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="E640" s="1">
+        <v>0</v>
+      </c>
+      <c r="F640" s="1">
+        <v>0</v>
+      </c>
+      <c r="G640" s="1">
+        <v>0</v>
+      </c>
+      <c r="H640" s="1">
+        <v>0</v>
+      </c>
+      <c r="I640" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J640" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="K640" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="L640" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="M640" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1">
+        <v>3686</v>
+      </c>
+      <c r="B641" s="1">
+        <v>0</v>
+      </c>
+      <c r="C641" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D641" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="E641" s="1">
+        <v>0</v>
+      </c>
+      <c r="F641" s="1">
+        <v>0</v>
+      </c>
+      <c r="G641" s="1">
+        <v>0</v>
+      </c>
+      <c r="H641" s="1">
+        <v>0</v>
+      </c>
+      <c r="I641" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J641" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="K641" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="L641" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="M641" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1">
+        <v>3687</v>
+      </c>
+      <c r="B642" s="1">
+        <v>0</v>
+      </c>
+      <c r="C642" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D642" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="E642" s="1">
+        <v>0</v>
+      </c>
+      <c r="F642" s="1">
+        <v>0</v>
+      </c>
+      <c r="G642" s="1">
+        <v>0</v>
+      </c>
+      <c r="H642" s="1">
+        <v>0</v>
+      </c>
+      <c r="I642" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J642" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="K642" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="L642" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="M642" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1">
+        <v>3688</v>
+      </c>
+      <c r="B643" s="1">
+        <v>0</v>
+      </c>
+      <c r="C643" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D643" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="E643" s="1">
+        <v>0</v>
+      </c>
+      <c r="F643" s="1">
+        <v>0</v>
+      </c>
+      <c r="G643" s="1">
+        <v>0</v>
+      </c>
+      <c r="H643" s="1">
+        <v>0</v>
+      </c>
+      <c r="I643" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J643" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="K643" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="L643" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="M643" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1">
+        <v>3689</v>
+      </c>
+      <c r="B644" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="C644" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D644" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E644" s="1">
+        <v>0</v>
+      </c>
+      <c r="F644" s="1">
+        <v>0</v>
+      </c>
+      <c r="G644" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H644" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I644" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J644" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K644" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L644" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M644" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1">
+        <v>3690</v>
+      </c>
+      <c r="B645" s="1">
+        <v>17.699999999999999</v>
+      </c>
+      <c r="C645" s="1">
+        <v>5.2000000000000002</v>
+      </c>
+      <c r="D645" s="1">
+        <v>5.2000000000000002</v>
+      </c>
+      <c r="E645" s="1">
+        <v>0</v>
+      </c>
+      <c r="F645" s="1">
+        <v>0</v>
+      </c>
+      <c r="G645" s="1">
         <v>3.5</v>
       </c>
-      <c r="H578" s="1">
-        <v>3.6000000000000001</v>
-      </c>
-      <c r="I578" s="1">
-        <v>3.1000000000000001</v>
-      </c>
-      <c r="J578" s="1">
-        <v>3.1000000000000001</v>
-      </c>
-      <c r="K578" s="1">
+      <c r="H645" s="1">
+        <v>3.3999999999999999</v>
+      </c>
+      <c r="I645" s="1">
+        <v>5.2999999999999998</v>
+      </c>
+      <c r="J645" s="1">
+        <v>5.2999999999999998</v>
+      </c>
+      <c r="K645" s="1">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="L645" s="1">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="M645" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1">
+        <v>3691</v>
+      </c>
+      <c r="B646" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="C646" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D646" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E646" s="1">
+        <v>0</v>
+      </c>
+      <c r="F646" s="1">
+        <v>0</v>
+      </c>
+      <c r="G646" s="1">
         <v>1.5</v>
       </c>
-      <c r="L578" s="1">
+      <c r="H646" s="1">
         <v>1.5</v>
       </c>
-      <c r="M578" s="1">
-        <v>40.399999999999999</v>
+      <c r="I646" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J646" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K646" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L646" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M646" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1">
+        <v>3692</v>
+      </c>
+      <c r="B647" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="C647" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D647" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E647" s="1">
+        <v>0</v>
+      </c>
+      <c r="F647" s="1">
+        <v>0</v>
+      </c>
+      <c r="G647" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H647" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I647" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J647" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K647" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L647" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M647" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1">
+        <v>3693</v>
+      </c>
+      <c r="B648" s="1">
+        <v>13.199999999999999</v>
+      </c>
+      <c r="C648" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D648" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="E648" s="1">
+        <v>0</v>
+      </c>
+      <c r="F648" s="1">
+        <v>0</v>
+      </c>
+      <c r="G648" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="H648" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="I648" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J648" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K648" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L648" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M648" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1">
+        <v>3694</v>
+      </c>
+      <c r="B649" s="1">
+        <v>13</v>
+      </c>
+      <c r="C649" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D649" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E649" s="1">
+        <v>0</v>
+      </c>
+      <c r="F649" s="1">
+        <v>0</v>
+      </c>
+      <c r="G649" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H649" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I649" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J649" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K649" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L649" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M649" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1">
+        <v>3695</v>
+      </c>
+      <c r="B650" s="1">
+        <v>12.699999999999999</v>
+      </c>
+      <c r="C650" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="D650" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="E650" s="1">
+        <v>0</v>
+      </c>
+      <c r="F650" s="1">
+        <v>0</v>
+      </c>
+      <c r="G650" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H650" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I650" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J650" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K650" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L650" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M650" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1">
+        <v>3696</v>
+      </c>
+      <c r="B651" s="1">
+        <v>12.699999999999999</v>
+      </c>
+      <c r="C651" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="D651" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="E651" s="1">
+        <v>0</v>
+      </c>
+      <c r="F651" s="1">
+        <v>0</v>
+      </c>
+      <c r="G651" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H651" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I651" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J651" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K651" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L651" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M651" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1">
+        <v>3697</v>
+      </c>
+      <c r="B652" s="1">
+        <v>12.800000000000001</v>
+      </c>
+      <c r="C652" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="D652" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="E652" s="1">
+        <v>0</v>
+      </c>
+      <c r="F652" s="1">
+        <v>0</v>
+      </c>
+      <c r="G652" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H652" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I652" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J652" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K652" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L652" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M652" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1">
+        <v>3698</v>
+      </c>
+      <c r="B653" s="1">
+        <v>12.699999999999999</v>
+      </c>
+      <c r="C653" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="D653" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="E653" s="1">
+        <v>0</v>
+      </c>
+      <c r="F653" s="1">
+        <v>0</v>
+      </c>
+      <c r="G653" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H653" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I653" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J653" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K653" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L653" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M653" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1">
+        <v>3699</v>
+      </c>
+      <c r="B654" s="1">
+        <v>12.699999999999999</v>
+      </c>
+      <c r="C654" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="D654" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="E654" s="1">
+        <v>0</v>
+      </c>
+      <c r="F654" s="1">
+        <v>0</v>
+      </c>
+      <c r="G654" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H654" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I654" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J654" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K654" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L654" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M654" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1">
+        <v>3700</v>
+      </c>
+      <c r="B655" s="1">
+        <v>12.699999999999999</v>
+      </c>
+      <c r="C655" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="D655" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="E655" s="1">
+        <v>0</v>
+      </c>
+      <c r="F655" s="1">
+        <v>0</v>
+      </c>
+      <c r="G655" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H655" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I655" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J655" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K655" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L655" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M655" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1">
+        <v>3701</v>
+      </c>
+      <c r="B656" s="1">
+        <v>12.699999999999999</v>
+      </c>
+      <c r="C656" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="D656" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="E656" s="1">
+        <v>0</v>
+      </c>
+      <c r="F656" s="1">
+        <v>0</v>
+      </c>
+      <c r="G656" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H656" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="I656" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J656" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K656" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L656" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M656" s="1">
+        <v>46.299999999999997</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1">
+        <v>3702</v>
+      </c>
+      <c r="B657" s="1">
+        <v>12.699999999999999</v>
+      </c>
+      <c r="C657" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="D657" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="E657" s="1">
+        <v>0</v>
+      </c>
+      <c r="F657" s="1">
+        <v>0</v>
+      </c>
+      <c r="G657" s="1">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="H657" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I657" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="J657" s="1">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="K657" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L657" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="M657" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1">
+        <v>3703</v>
+      </c>
+      <c r="B658" s="1">
+        <v>12.699999999999999</v>
+      </c>
+      <c r="C658" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="D658" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="E658" s="1">
+        <v>0</v>
+      </c>
+      <c r="F658" s="1">
+        <v>0</v>
+      </c>
+      <c r="G658" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="H658" s="1">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="I658" s="1">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="J658" s="1">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="K658" s="1">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="L658" s="1">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="M658" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1">
+        <v>3704</v>
+      </c>
+      <c r="B659" s="1">
+        <v>12.699999999999999</v>
+      </c>
+      <c r="C659" s="1">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="D659" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E659" s="1">
+        <v>0</v>
+      </c>
+      <c r="F659" s="1">
+        <v>0</v>
+      </c>
+      <c r="G659" s="1">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="H659" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I659" s="1">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="J659" s="1">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="K659" s="1">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="L659" s="1">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="M659" s="1">
+        <v>46.399999999999999</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1">
+        <v>3705</v>
+      </c>
+      <c r="B660" s="1">
+        <v>2.8999999999999999</v>
+      </c>
+      <c r="C660" s="1">
+        <v>1</v>
+      </c>
+      <c r="D660" s="1">
+        <v>1</v>
+      </c>
+      <c r="E660" s="1">
+        <v>0</v>
+      </c>
+      <c r="F660" s="1">
+        <v>0</v>
+      </c>
+      <c r="G660" s="1">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="H660" s="1">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="I660" s="1">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="J660" s="1">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="K660" s="1">
+        <v>0</v>
+      </c>
+      <c r="L660" s="1">
+        <v>0</v>
+      </c>
+      <c r="M660" s="1">
+        <v>46.299999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/diagnostics/emd/data/PFcurrentRecord.xlsx
+++ b/diagnostics/emd/data/PFcurrentRecord.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>shotnum</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>ITF</t>
+  </si>
+  <si>
+    <t>IP</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -443,16 +446,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,171 +557,169 @@
       </bottom>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -775,34 +776,34 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431"/>
-          <bgColor theme="4" tint="0.79998168889431"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431"/>
-          <bgColor theme="4" tint="0.79998168889431"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="true"/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="true"/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="true"/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -813,7 +814,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="true"/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -841,36 +842,36 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39997558519242"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431"/>
-          <bgColor theme="4" tint="0.79998168889431"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519242"/>
+          <color theme="4" tint="0.399975585192419"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="true"/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431"/>
-          <bgColor theme="4" tint="0.79998168889431"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519242"/>
+          <color theme="4" tint="0.399975585192419"/>
         </bottom>
       </border>
     </dxf>
@@ -885,19 +886,19 @@
       </font>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519242"/>
+          <color theme="4" tint="0.399975585192419"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="true"/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="true"/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -912,59 +913,59 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431"/>
-          <bgColor theme="4" tint="0.79998168889431"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431"/>
-          <bgColor theme="4" tint="0.79998168889431"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="true"/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431"/>
-          <bgColor theme="4" tint="0.79998168889431"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
       <border>
         <top style="thin">
-          <color theme="4" tint="0.39997558519242"/>
+          <color theme="4" tint="0.399975585192419"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519242"/>
+          <color theme="4" tint="0.399975585192419"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="true"/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431"/>
-          <bgColor theme="4" tint="0.79998168889431"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519242"/>
+          <color theme="4" tint="0.399975585192419"/>
         </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="false" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -973,7 +974,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="false" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1244,33 +1245,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M660"/>
+  <dimension ref="A1:N587"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A584" sqref="$A584:$XFD584"/>
+      <selection pane="bottomLeft" activeCell="N578" sqref="N578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="true"/>
-    <col min="2" max="2" width="5.625" style="1" customWidth="true"/>
-    <col min="3" max="3" width="4.625" style="1" customWidth="true"/>
-    <col min="12" max="12" width="4.625" style="1" customWidth="true"/>
-    <col min="13" max="13" width="5.625" style="1" customWidth="true"/>
-    <col min="14" max="16384" width="10.625" style="2" customWidth="true"/>
-    <col min="4" max="4" width="4.625" style="1" customWidth="true"/>
-    <col min="5" max="5" width="2.625" style="1" customWidth="true"/>
-    <col min="6" max="6" width="2.625" style="1" customWidth="true"/>
-    <col min="7" max="7" width="4.625" style="1" customWidth="true"/>
-    <col min="8" max="8" width="4.625" style="1" customWidth="true"/>
-    <col min="9" max="9" width="4.625" style="1" customWidth="true"/>
-    <col min="10" max="10" width="4.625" style="1" customWidth="true"/>
-    <col min="11" max="11" width="4.625" style="1" customWidth="true"/>
+    <col min="1" max="2" width="5.625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="2.625" style="1" customWidth="1"/>
+    <col min="7" max="12" width="4.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1310,8 +1303,11 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>400</v>
       </c>
@@ -1352,7 +1348,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>401</v>
       </c>
@@ -1393,7 +1389,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>402</v>
       </c>
@@ -1434,7 +1430,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>403</v>
       </c>
@@ -1475,7 +1471,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>404</v>
       </c>
@@ -1516,7 +1512,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>405</v>
       </c>
@@ -1557,7 +1553,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>406</v>
       </c>
@@ -1598,7 +1594,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>407</v>
       </c>
@@ -1639,7 +1635,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>408</v>
       </c>
@@ -1680,7 +1676,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>409</v>
       </c>
@@ -1721,7 +1717,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>410</v>
       </c>
@@ -1762,7 +1758,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>411</v>
       </c>
@@ -1803,7 +1799,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>412</v>
       </c>
@@ -1844,7 +1840,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>413</v>
       </c>
@@ -1885,7 +1881,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>414</v>
       </c>
@@ -1926,7 +1922,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>415</v>
       </c>
@@ -1967,7 +1963,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>416</v>
       </c>
@@ -2008,7 +2004,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>417</v>
       </c>
@@ -2049,7 +2045,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>418</v>
       </c>
@@ -2090,7 +2086,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>419</v>
       </c>
@@ -2131,7 +2127,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>420</v>
       </c>
@@ -2172,7 +2168,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>421</v>
       </c>
@@ -2213,7 +2209,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>422</v>
       </c>
@@ -2254,7 +2250,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>423</v>
       </c>
@@ -2295,7 +2291,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>424</v>
       </c>
@@ -2336,7 +2332,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>425</v>
       </c>
@@ -2377,7 +2373,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>426</v>
       </c>
@@ -2418,7 +2414,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>427</v>
       </c>
@@ -2459,7 +2455,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>428</v>
       </c>
@@ -2500,7 +2496,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>429</v>
       </c>
@@ -2541,7 +2537,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>430</v>
       </c>
@@ -2582,7 +2578,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>431</v>
       </c>
@@ -2623,7 +2619,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>432</v>
       </c>
@@ -2664,7 +2660,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>433</v>
       </c>
@@ -2705,7 +2701,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>434</v>
       </c>
@@ -2746,7 +2742,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>435</v>
       </c>
@@ -2787,7 +2783,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>436</v>
       </c>
@@ -2828,7 +2824,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>437</v>
       </c>
@@ -2869,7 +2865,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>438</v>
       </c>
@@ -2910,7 +2906,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>439</v>
       </c>
@@ -2951,7 +2947,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>440</v>
       </c>
@@ -2992,7 +2988,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>441</v>
       </c>
@@ -3033,7 +3029,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>442</v>
       </c>
@@ -3074,7 +3070,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>443</v>
       </c>
@@ -3115,7 +3111,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>444</v>
       </c>
@@ -3156,7 +3152,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>445</v>
       </c>
@@ -3197,7 +3193,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>446</v>
       </c>
@@ -3238,7 +3234,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>447</v>
       </c>
@@ -3279,7 +3275,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>448</v>
       </c>
@@ -3320,7 +3316,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>449</v>
       </c>
@@ -3361,7 +3357,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>450</v>
       </c>
@@ -3402,7 +3398,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>451</v>
       </c>
@@ -3443,7 +3439,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>452</v>
       </c>
@@ -3484,7 +3480,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>453</v>
       </c>
@@ -3525,7 +3521,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>454</v>
       </c>
@@ -3566,7 +3562,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>455</v>
       </c>
@@ -3607,7 +3603,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>456</v>
       </c>
@@ -3648,7 +3644,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>457</v>
       </c>
@@ -3689,7 +3685,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>458</v>
       </c>
@@ -3730,7 +3726,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>459</v>
       </c>
@@ -3771,7 +3767,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>460</v>
       </c>
@@ -3812,7 +3808,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>461</v>
       </c>
@@ -3853,7 +3849,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>462</v>
       </c>
@@ -3894,7 +3890,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>463</v>
       </c>
@@ -3935,7 +3931,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>464</v>
       </c>
@@ -3976,7 +3972,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>465</v>
       </c>
@@ -4017,7 +4013,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>466</v>
       </c>
@@ -4058,7 +4054,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>467</v>
       </c>
@@ -4099,7 +4095,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>468</v>
       </c>
@@ -4140,7 +4136,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>469</v>
       </c>
@@ -4181,7 +4177,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>470</v>
       </c>
@@ -4222,7 +4218,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>471</v>
       </c>
@@ -4263,7 +4259,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>472</v>
       </c>
@@ -4304,7 +4300,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>473</v>
       </c>
@@ -4345,7 +4341,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>474</v>
       </c>
@@ -4386,7 +4382,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>475</v>
       </c>
@@ -4427,7 +4423,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>476</v>
       </c>
@@ -4468,7 +4464,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>477</v>
       </c>
@@ -4509,7 +4505,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>478</v>
       </c>
@@ -4550,7 +4546,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>479</v>
       </c>
@@ -4591,7 +4587,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>480</v>
       </c>
@@ -4632,7 +4628,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>481</v>
       </c>
@@ -4673,7 +4669,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>482</v>
       </c>
@@ -4714,7 +4710,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>483</v>
       </c>
@@ -4755,7 +4751,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>484</v>
       </c>
@@ -4796,7 +4792,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>485</v>
       </c>
@@ -4837,7 +4833,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
         <v>486</v>
       </c>
@@ -4878,7 +4874,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
         <v>487</v>
       </c>
@@ -4919,7 +4915,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
         <v>488</v>
       </c>
@@ -4960,7 +4956,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
         <v>489</v>
       </c>
@@ -5001,7 +4997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
         <v>490</v>
       </c>
@@ -5042,7 +5038,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
         <v>491</v>
       </c>
@@ -5083,7 +5079,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
         <v>492</v>
       </c>
@@ -5124,7 +5120,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
         <v>493</v>
       </c>
@@ -5165,7 +5161,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
         <v>494</v>
       </c>
@@ -5206,7 +5202,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:13">
       <c r="A97" s="1">
         <v>495</v>
       </c>
@@ -5247,7 +5243,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:13">
       <c r="A98" s="1">
         <v>496</v>
       </c>
@@ -5288,7 +5284,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:13">
       <c r="A99" s="1">
         <v>497</v>
       </c>
@@ -5329,7 +5325,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:13">
       <c r="A100" s="1">
         <v>498</v>
       </c>
@@ -5370,7 +5366,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:13">
       <c r="A101" s="1">
         <v>499</v>
       </c>
@@ -5411,7 +5407,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:13">
       <c r="A102" s="1">
         <v>500</v>
       </c>
@@ -5452,7 +5448,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:13">
       <c r="A103" s="1">
         <v>501</v>
       </c>
@@ -5493,7 +5489,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:13">
       <c r="A104" s="1">
         <v>502</v>
       </c>
@@ -5534,7 +5530,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:13">
       <c r="A105" s="1">
         <v>503</v>
       </c>
@@ -5575,7 +5571,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:13">
       <c r="A106" s="1">
         <v>504</v>
       </c>
@@ -5616,7 +5612,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:13">
       <c r="A107" s="1">
         <v>505</v>
       </c>
@@ -5657,7 +5653,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:13">
       <c r="A108" s="1">
         <v>506</v>
       </c>
@@ -5698,7 +5694,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:13">
       <c r="A109" s="1">
         <v>507</v>
       </c>
@@ -5739,7 +5735,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:13">
       <c r="A110" s="1">
         <v>508</v>
       </c>
@@ -5780,7 +5776,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:13">
       <c r="A111" s="1">
         <v>509</v>
       </c>
@@ -5821,7 +5817,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:13">
       <c r="A112" s="1">
         <v>510</v>
       </c>
@@ -5862,7 +5858,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:13">
       <c r="A113" s="1">
         <v>511</v>
       </c>
@@ -5903,7 +5899,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:13">
       <c r="A114" s="1">
         <v>512</v>
       </c>
@@ -5944,7 +5940,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:13">
       <c r="A115" s="1">
         <v>513</v>
       </c>
@@ -5985,7 +5981,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:13">
       <c r="A116" s="1">
         <v>514</v>
       </c>
@@ -6026,7 +6022,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:13">
       <c r="A117" s="1">
         <v>515</v>
       </c>
@@ -6067,7 +6063,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:13">
       <c r="A118" s="1">
         <v>516</v>
       </c>
@@ -6108,7 +6104,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:13">
       <c r="A119" s="1">
         <v>517</v>
       </c>
@@ -6149,7 +6145,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:13">
       <c r="A120" s="1">
         <v>518</v>
       </c>
@@ -6190,7 +6186,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:13">
       <c r="A121" s="1">
         <v>519</v>
       </c>
@@ -6231,7 +6227,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:13">
       <c r="A122" s="1">
         <v>520</v>
       </c>
@@ -6272,7 +6268,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:13">
       <c r="A123" s="1">
         <v>521</v>
       </c>
@@ -6313,7 +6309,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:13">
       <c r="A124" s="1">
         <v>522</v>
       </c>
@@ -6354,7 +6350,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:13">
       <c r="A125" s="1">
         <v>523</v>
       </c>
@@ -6395,7 +6391,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:13">
       <c r="A126" s="1">
         <v>524</v>
       </c>
@@ -6436,7 +6432,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:13">
       <c r="A127" s="1">
         <v>525</v>
       </c>
@@ -6477,7 +6473,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:13">
       <c r="A128" s="1">
         <v>526</v>
       </c>
@@ -6518,7 +6514,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:13">
       <c r="A129" s="1">
         <v>527</v>
       </c>
@@ -6559,7 +6555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:13">
       <c r="A130" s="1">
         <v>528</v>
       </c>
@@ -6600,7 +6596,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:13">
       <c r="A131" s="1">
         <v>529</v>
       </c>
@@ -6641,7 +6637,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:13">
       <c r="A132" s="1">
         <v>530</v>
       </c>
@@ -6682,7 +6678,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:13">
       <c r="A133" s="1">
         <v>531</v>
       </c>
@@ -6723,7 +6719,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:13">
       <c r="A134" s="1">
         <v>532</v>
       </c>
@@ -6764,7 +6760,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:13">
       <c r="A135" s="1">
         <v>533</v>
       </c>
@@ -6805,7 +6801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:13">
       <c r="A136" s="1">
         <v>534</v>
       </c>
@@ -6846,7 +6842,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:13">
       <c r="A137" s="1">
         <v>535</v>
       </c>
@@ -6887,7 +6883,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:13">
       <c r="A138" s="1">
         <v>536</v>
       </c>
@@ -6928,7 +6924,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:13">
       <c r="A139" s="1">
         <v>537</v>
       </c>
@@ -6969,7 +6965,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:13">
       <c r="A140" s="1">
         <v>538</v>
       </c>
@@ -7010,7 +7006,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:13">
       <c r="A141" s="1">
         <v>539</v>
       </c>
@@ -7051,7 +7047,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:13">
       <c r="A142" s="1">
         <v>540</v>
       </c>
@@ -7092,7 +7088,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:13">
       <c r="A143" s="1">
         <v>541</v>
       </c>
@@ -7133,7 +7129,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:13">
       <c r="A144" s="1">
         <v>542</v>
       </c>
@@ -7174,7 +7170,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:13">
       <c r="A145" s="1">
         <v>543</v>
       </c>
@@ -7215,7 +7211,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:13">
       <c r="A146" s="1">
         <v>544</v>
       </c>
@@ -7256,7 +7252,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:13">
       <c r="A147" s="1">
         <v>545</v>
       </c>
@@ -7297,7 +7293,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:13">
       <c r="A148" s="1">
         <v>546</v>
       </c>
@@ -7338,7 +7334,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:13">
       <c r="A149" s="1">
         <v>547</v>
       </c>
@@ -7379,7 +7375,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:13">
       <c r="A150" s="1">
         <v>548</v>
       </c>
@@ -7420,7 +7416,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:13">
       <c r="A151" s="1">
         <v>549</v>
       </c>
@@ -7461,7 +7457,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:13">
       <c r="A152" s="1">
         <v>550</v>
       </c>
@@ -7502,7 +7498,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:13">
       <c r="A153" s="1">
         <v>551</v>
       </c>
@@ -7543,7 +7539,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:13">
       <c r="A154" s="1">
         <v>552</v>
       </c>
@@ -7584,7 +7580,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:13">
       <c r="A155" s="1">
         <v>553</v>
       </c>
@@ -7625,7 +7621,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:13">
       <c r="A156" s="1">
         <v>554</v>
       </c>
@@ -7666,7 +7662,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:13">
       <c r="A157" s="1">
         <v>555</v>
       </c>
@@ -7707,7 +7703,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:13">
       <c r="A158" s="1">
         <v>556</v>
       </c>
@@ -7748,7 +7744,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:13">
       <c r="A159" s="1">
         <v>557</v>
       </c>
@@ -7789,7 +7785,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:13">
       <c r="A160" s="1">
         <v>558</v>
       </c>
@@ -7830,7 +7826,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:13">
       <c r="A161" s="1">
         <v>559</v>
       </c>
@@ -7871,7 +7867,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:13">
       <c r="A162" s="1">
         <v>560</v>
       </c>
@@ -7912,7 +7908,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:13">
       <c r="A163" s="1">
         <v>561</v>
       </c>
@@ -7953,7 +7949,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:13">
       <c r="A164" s="1">
         <v>562</v>
       </c>
@@ -7994,7 +7990,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:13">
       <c r="A165" s="1">
         <v>563</v>
       </c>
@@ -8035,7 +8031,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:13">
       <c r="A166" s="1">
         <v>564</v>
       </c>
@@ -8076,7 +8072,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:13">
       <c r="A167" s="1">
         <v>565</v>
       </c>
@@ -8117,7 +8113,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:13">
       <c r="A168" s="1">
         <v>566</v>
       </c>
@@ -8158,7 +8154,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:13">
       <c r="A169" s="1">
         <v>567</v>
       </c>
@@ -8199,7 +8195,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:13">
       <c r="A170" s="1">
         <v>568</v>
       </c>
@@ -8240,7 +8236,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:13">
       <c r="A171" s="1">
         <v>569</v>
       </c>
@@ -8281,7 +8277,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:13">
       <c r="A172" s="1">
         <v>570</v>
       </c>
@@ -8322,7 +8318,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:13">
       <c r="A173" s="1">
         <v>571</v>
       </c>
@@ -8363,7 +8359,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:13">
       <c r="A174" s="1">
         <v>572</v>
       </c>
@@ -8404,7 +8400,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:13">
       <c r="A175" s="1">
         <v>573</v>
       </c>
@@ -8445,7 +8441,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:13">
       <c r="A176" s="1">
         <v>574</v>
       </c>
@@ -8486,7 +8482,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:13">
       <c r="A177" s="1">
         <v>575</v>
       </c>
@@ -8527,7 +8523,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:13">
       <c r="A178" s="1">
         <v>576</v>
       </c>
@@ -8568,7 +8564,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:13">
       <c r="A179" s="1">
         <v>577</v>
       </c>
@@ -8609,7 +8605,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:13">
       <c r="A180" s="1">
         <v>578</v>
       </c>
@@ -8650,7 +8646,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:13">
       <c r="A181" s="1">
         <v>579</v>
       </c>
@@ -8691,7 +8687,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:13">
       <c r="A182" s="1">
         <v>580</v>
       </c>
@@ -8732,7 +8728,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:13">
       <c r="A183" s="1">
         <v>581</v>
       </c>
@@ -8773,7 +8769,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:13">
       <c r="A184" s="1">
         <v>582</v>
       </c>
@@ -8814,7 +8810,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:13">
       <c r="A185" s="1">
         <v>583</v>
       </c>
@@ -8855,7 +8851,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:13">
       <c r="A186" s="1">
         <v>584</v>
       </c>
@@ -8896,7 +8892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:13">
       <c r="A187" s="1">
         <v>585</v>
       </c>
@@ -8937,7 +8933,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:13">
       <c r="A188" s="1">
         <v>586</v>
       </c>
@@ -8978,7 +8974,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:13">
       <c r="A189" s="1">
         <v>587</v>
       </c>
@@ -9019,7 +9015,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:13">
       <c r="A190" s="1">
         <v>588</v>
       </c>
@@ -9060,7 +9056,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:13">
       <c r="A191" s="1">
         <v>589</v>
       </c>
@@ -9101,7 +9097,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:13">
       <c r="A192" s="1">
         <v>590</v>
       </c>
@@ -9142,7 +9138,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:13">
       <c r="A193" s="1">
         <v>591</v>
       </c>
@@ -9183,7 +9179,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:13">
       <c r="A194" s="1">
         <v>592</v>
       </c>
@@ -9224,7 +9220,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:13">
       <c r="A195" s="1">
         <v>593</v>
       </c>
@@ -9265,7 +9261,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:13">
       <c r="A196" s="1">
         <v>594</v>
       </c>
@@ -9306,7 +9302,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:13">
       <c r="A197" s="1">
         <v>595</v>
       </c>
@@ -9347,7 +9343,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:13">
       <c r="A198" s="1">
         <v>596</v>
       </c>
@@ -9388,7 +9384,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:13">
       <c r="A199" s="1">
         <v>597</v>
       </c>
@@ -9429,7 +9425,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:13">
       <c r="A200" s="1">
         <v>598</v>
       </c>
@@ -9470,7 +9466,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:13">
       <c r="A201" s="1">
         <v>599</v>
       </c>
@@ -9511,7 +9507,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:13">
       <c r="A202" s="1">
         <v>600</v>
       </c>
@@ -9552,7 +9548,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:13">
       <c r="A203" s="1">
         <v>601</v>
       </c>
@@ -9593,7 +9589,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:13">
       <c r="A204" s="1">
         <v>602</v>
       </c>
@@ -9634,7 +9630,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:13">
       <c r="A205" s="1">
         <v>603</v>
       </c>
@@ -9675,7 +9671,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:13">
       <c r="A206" s="1">
         <v>604</v>
       </c>
@@ -9716,7 +9712,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:13">
       <c r="A207" s="1">
         <v>605</v>
       </c>
@@ -9757,7 +9753,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:13">
       <c r="A208" s="1">
         <v>606</v>
       </c>
@@ -9798,7 +9794,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:13">
       <c r="A209" s="1">
         <v>607</v>
       </c>
@@ -9839,7 +9835,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:13">
       <c r="A210" s="1">
         <v>608</v>
       </c>
@@ -9880,7 +9876,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:13">
       <c r="A211" s="1">
         <v>609</v>
       </c>
@@ -9921,7 +9917,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:13">
       <c r="A212" s="1">
         <v>610</v>
       </c>
@@ -9962,7 +9958,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:13">
       <c r="A213" s="1">
         <v>611</v>
       </c>
@@ -10003,7 +9999,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:13">
       <c r="A214" s="1">
         <v>612</v>
       </c>
@@ -10044,7 +10040,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:13">
       <c r="A215" s="1">
         <v>613</v>
       </c>
@@ -10085,7 +10081,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:13">
       <c r="A216" s="1">
         <v>614</v>
       </c>
@@ -10126,7 +10122,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:13">
       <c r="A217" s="1">
         <v>615</v>
       </c>
@@ -10167,7 +10163,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:13">
       <c r="A218" s="1">
         <v>616</v>
       </c>
@@ -10208,7 +10204,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:13">
       <c r="A219" s="1">
         <v>617</v>
       </c>
@@ -10249,7 +10245,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:13">
       <c r="A220" s="1">
         <v>618</v>
       </c>
@@ -10290,7 +10286,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:13">
       <c r="A221" s="1">
         <v>619</v>
       </c>
@@ -10331,7 +10327,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:13">
       <c r="A222" s="1">
         <v>620</v>
       </c>
@@ -10372,7 +10368,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:13">
       <c r="A223" s="1">
         <v>621</v>
       </c>
@@ -10413,7 +10409,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:13">
       <c r="A224" s="1">
         <v>622</v>
       </c>
@@ -10454,7 +10450,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:13">
       <c r="A225" s="1">
         <v>623</v>
       </c>
@@ -10495,7 +10491,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:13">
       <c r="A226" s="1">
         <v>624</v>
       </c>
@@ -10536,7 +10532,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:13">
       <c r="A227" s="1">
         <v>625</v>
       </c>
@@ -10577,7 +10573,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:13">
       <c r="A228" s="1">
         <v>626</v>
       </c>
@@ -10618,7 +10614,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:13">
       <c r="A229" s="1">
         <v>627</v>
       </c>
@@ -10659,7 +10655,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:13">
       <c r="A230" s="1">
         <v>628</v>
       </c>
@@ -10700,7 +10696,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:13">
       <c r="A231" s="1">
         <v>629</v>
       </c>
@@ -10741,7 +10737,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:13">
       <c r="A232" s="1">
         <v>630</v>
       </c>
@@ -10782,7 +10778,7 @@
         <v>9.3</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:13">
       <c r="A233" s="1">
         <v>631</v>
       </c>
@@ -10823,7 +10819,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:13">
       <c r="A234" s="1">
         <v>632</v>
       </c>
@@ -10864,7 +10860,7 @@
         <v>16.6</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:13">
       <c r="A235" s="1">
         <v>633</v>
       </c>
@@ -10905,7 +10901,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:13">
       <c r="A236" s="1">
         <v>634</v>
       </c>
@@ -10946,7 +10942,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:13">
       <c r="A237" s="1">
         <v>635</v>
       </c>
@@ -10987,7 +10983,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:13">
       <c r="A238" s="1">
         <v>636</v>
       </c>
@@ -11028,7 +11024,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:13">
       <c r="A239" s="1">
         <v>637</v>
       </c>
@@ -11069,7 +11065,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:13">
       <c r="A240" s="1">
         <v>638</v>
       </c>
@@ -11110,7 +11106,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:13">
       <c r="A241" s="1">
         <v>639</v>
       </c>
@@ -11151,7 +11147,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:13">
       <c r="A242" s="1">
         <v>640</v>
       </c>
@@ -11192,7 +11188,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:13">
       <c r="A243" s="1">
         <v>651</v>
       </c>
@@ -11233,7 +11229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:13">
       <c r="A244" s="1">
         <v>652</v>
       </c>
@@ -11274,7 +11270,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:13">
       <c r="A245" s="1">
         <v>653</v>
       </c>
@@ -11315,7 +11311,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:13">
       <c r="A246" s="1">
         <v>654</v>
       </c>
@@ -11356,7 +11352,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:13">
       <c r="A247" s="1">
         <v>655</v>
       </c>
@@ -11397,7 +11393,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:13">
       <c r="A248" s="1">
         <v>656</v>
       </c>
@@ -11438,7 +11434,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:13">
       <c r="A249" s="1">
         <v>657</v>
       </c>
@@ -11479,7 +11475,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:13">
       <c r="A250" s="1">
         <v>658</v>
       </c>
@@ -11520,7 +11516,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:13">
       <c r="A251" s="1">
         <v>659</v>
       </c>
@@ -11561,7 +11557,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:13">
       <c r="A252" s="1">
         <v>660</v>
       </c>
@@ -11602,7 +11598,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:13">
       <c r="A253" s="1">
         <v>661</v>
       </c>
@@ -11643,7 +11639,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:13">
       <c r="A254" s="1">
         <v>662</v>
       </c>
@@ -11684,7 +11680,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:13">
       <c r="A255" s="1">
         <v>663</v>
       </c>
@@ -11725,7 +11721,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:13">
       <c r="A256" s="1">
         <v>664</v>
       </c>
@@ -11766,7 +11762,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:13">
       <c r="A257" s="1">
         <v>665</v>
       </c>
@@ -11807,7 +11803,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:13">
       <c r="A258" s="1">
         <v>666</v>
       </c>
@@ -11848,7 +11844,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:13">
       <c r="A259" s="1">
         <v>667</v>
       </c>
@@ -11889,7 +11885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:13">
       <c r="A260" s="1">
         <v>668</v>
       </c>
@@ -11930,7 +11926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:13">
       <c r="A261" s="1">
         <v>669</v>
       </c>
@@ -11971,7 +11967,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:13">
       <c r="A262" s="1">
         <v>670</v>
       </c>
@@ -12012,7 +12008,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:13">
       <c r="A263" s="1">
         <v>671</v>
       </c>
@@ -12053,7 +12049,7 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:13">
       <c r="A264" s="1">
         <v>672</v>
       </c>
@@ -12094,7 +12090,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:13">
       <c r="A265" s="1">
         <v>673</v>
       </c>
@@ -12135,7 +12131,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:13">
       <c r="A266" s="1">
         <v>674</v>
       </c>
@@ -12176,7 +12172,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:13">
       <c r="A267" s="1">
         <v>675</v>
       </c>
@@ -12217,7 +12213,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:13">
       <c r="A268" s="1">
         <v>676</v>
       </c>
@@ -12258,7 +12254,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:13">
       <c r="A269" s="1">
         <v>677</v>
       </c>
@@ -12299,7 +12295,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:13">
       <c r="A270" s="1">
         <v>678</v>
       </c>
@@ -12340,7 +12336,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:13">
       <c r="A271" s="1">
         <v>679</v>
       </c>
@@ -12381,7 +12377,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:13">
       <c r="A272" s="1">
         <v>680</v>
       </c>
@@ -12422,7 +12418,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:13">
       <c r="A273" s="1">
         <v>681</v>
       </c>
@@ -12463,7 +12459,7 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:13">
       <c r="A274" s="1">
         <v>682</v>
       </c>
@@ -12504,7 +12500,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:13">
       <c r="A275" s="1">
         <v>683</v>
       </c>
@@ -12545,7 +12541,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:13">
       <c r="A276" s="1">
         <v>684</v>
       </c>
@@ -12586,7 +12582,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:13">
       <c r="A277" s="1">
         <v>685</v>
       </c>
@@ -12627,7 +12623,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:13">
       <c r="A278" s="1">
         <v>686</v>
       </c>
@@ -12668,7 +12664,7 @@
         <v>65.1</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:13">
       <c r="A279" s="1">
         <v>687</v>
       </c>
@@ -12709,7 +12705,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:13">
       <c r="A280" s="1">
         <v>688</v>
       </c>
@@ -12750,7 +12746,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:13">
       <c r="A281" s="1">
         <v>689</v>
       </c>
@@ -12791,7 +12787,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:13">
       <c r="A282" s="1">
         <v>690</v>
       </c>
@@ -12832,7 +12828,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:13">
       <c r="A283" s="1">
         <v>691</v>
       </c>
@@ -12873,7 +12869,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:13">
       <c r="A284" s="1">
         <v>692</v>
       </c>
@@ -12914,7 +12910,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:13">
       <c r="A285" s="1">
         <v>693</v>
       </c>
@@ -12955,7 +12951,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:13">
       <c r="A286" s="1">
         <v>694</v>
       </c>
@@ -12996,7 +12992,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:13">
       <c r="A287" s="1">
         <v>695</v>
       </c>
@@ -13037,7 +13033,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:13">
       <c r="A288" s="1">
         <v>696</v>
       </c>
@@ -13078,7 +13074,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:13">
       <c r="A289" s="1">
         <v>697</v>
       </c>
@@ -13119,7 +13115,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:13">
       <c r="A290" s="1">
         <v>698</v>
       </c>
@@ -13160,7 +13156,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:13">
       <c r="A291" s="1">
         <v>699</v>
       </c>
@@ -13201,7 +13197,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:13">
       <c r="A292" s="1">
         <v>700</v>
       </c>
@@ -13242,7 +13238,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:13">
       <c r="A293" s="1">
         <v>701</v>
       </c>
@@ -13283,7 +13279,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:13">
       <c r="A294" s="1">
         <v>702</v>
       </c>
@@ -13324,7 +13320,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:13">
       <c r="A295" s="1">
         <v>703</v>
       </c>
@@ -13365,7 +13361,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:13">
       <c r="A296" s="1">
         <v>704</v>
       </c>
@@ -13406,7 +13402,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:13">
       <c r="A297" s="1">
         <v>705</v>
       </c>
@@ -13447,7 +13443,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:13">
       <c r="A298" s="1">
         <v>706</v>
       </c>
@@ -13488,7 +13484,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:13">
       <c r="A299" s="1">
         <v>707</v>
       </c>
@@ -13529,7 +13525,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:13">
       <c r="A300" s="1">
         <v>708</v>
       </c>
@@ -13570,7 +13566,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:13">
       <c r="A301" s="1">
         <v>709</v>
       </c>
@@ -13611,7 +13607,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:13">
       <c r="A302" s="1">
         <v>710</v>
       </c>
@@ -13652,7 +13648,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:13">
       <c r="A303" s="1">
         <v>711</v>
       </c>
@@ -13693,7 +13689,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:13">
       <c r="A304" s="1">
         <v>712</v>
       </c>
@@ -13734,7 +13730,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:13">
       <c r="A305" s="1">
         <v>713</v>
       </c>
@@ -13775,7 +13771,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:13">
       <c r="A306" s="1">
         <v>714</v>
       </c>
@@ -13816,7 +13812,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:13">
       <c r="A307" s="1">
         <v>715</v>
       </c>
@@ -13857,7 +13853,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:13">
       <c r="A308" s="1">
         <v>716</v>
       </c>
@@ -13898,7 +13894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:13">
       <c r="A309" s="1">
         <v>717</v>
       </c>
@@ -13939,7 +13935,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:13">
       <c r="A310" s="1">
         <v>718</v>
       </c>
@@ -13980,7 +13976,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:13">
       <c r="A311" s="1">
         <v>719</v>
       </c>
@@ -14021,7 +14017,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:13">
       <c r="A312" s="1">
         <v>720</v>
       </c>
@@ -14062,7 +14058,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:13">
       <c r="A313" s="1">
         <v>721</v>
       </c>
@@ -14103,7 +14099,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:13">
       <c r="A314" s="1">
         <v>722</v>
       </c>
@@ -14144,7 +14140,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:13">
       <c r="A315" s="1">
         <v>723</v>
       </c>
@@ -14185,7 +14181,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:13">
       <c r="A316" s="1">
         <v>724</v>
       </c>
@@ -14226,7 +14222,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:13">
       <c r="A317" s="1">
         <v>725</v>
       </c>
@@ -14267,7 +14263,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:13">
       <c r="A318" s="1">
         <v>726</v>
       </c>
@@ -14308,7 +14304,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:13">
       <c r="A319" s="1">
         <v>727</v>
       </c>
@@ -14349,7 +14345,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:13">
       <c r="A320" s="1">
         <v>728</v>
       </c>
@@ -14390,7 +14386,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:13">
       <c r="A321" s="1">
         <v>729</v>
       </c>
@@ -14431,7 +14427,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:13">
       <c r="A322" s="1">
         <v>730</v>
       </c>
@@ -14472,7 +14468,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:13">
       <c r="A323" s="1">
         <v>731</v>
       </c>
@@ -14513,7 +14509,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:13">
       <c r="A324" s="1">
         <v>732</v>
       </c>
@@ -14554,7 +14550,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:13">
       <c r="A325" s="1">
         <v>733</v>
       </c>
@@ -14595,7 +14591,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:13">
       <c r="A326" s="1">
         <v>734</v>
       </c>
@@ -14636,7 +14632,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:13">
       <c r="A327" s="1">
         <v>735</v>
       </c>
@@ -14677,7 +14673,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:13">
       <c r="A328" s="1">
         <v>736</v>
       </c>
@@ -14718,7 +14714,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:13">
       <c r="A329" s="1">
         <v>737</v>
       </c>
@@ -14759,7 +14755,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:13">
       <c r="A330" s="1">
         <v>738</v>
       </c>
@@ -14800,7 +14796,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:13">
       <c r="A331" s="1">
         <v>739</v>
       </c>
@@ -14841,7 +14837,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:13">
       <c r="A332" s="1">
         <v>740</v>
       </c>
@@ -14882,7 +14878,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:13">
       <c r="A333" s="1">
         <v>751</v>
       </c>
@@ -14923,7 +14919,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:13">
       <c r="A334" s="1">
         <v>752</v>
       </c>
@@ -14964,7 +14960,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:13">
       <c r="A335" s="1">
         <v>753</v>
       </c>
@@ -15005,7 +15001,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:13">
       <c r="A336" s="1">
         <v>754</v>
       </c>
@@ -15046,7 +15042,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:13">
       <c r="A337" s="1">
         <v>755</v>
       </c>
@@ -15087,7 +15083,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:13">
       <c r="A338" s="1">
         <v>756</v>
       </c>
@@ -15128,7 +15124,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:13">
       <c r="A339" s="1">
         <v>757</v>
       </c>
@@ -15169,7 +15165,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:13">
       <c r="A340" s="1">
         <v>758</v>
       </c>
@@ -15210,7 +15206,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:13">
       <c r="A341" s="1">
         <v>759</v>
       </c>
@@ -15251,7 +15247,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:13">
       <c r="A342" s="1">
         <v>760</v>
       </c>
@@ -15292,7 +15288,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:13">
       <c r="A343" s="1">
         <v>761</v>
       </c>
@@ -15333,7 +15329,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:13">
       <c r="A344" s="1">
         <v>762</v>
       </c>
@@ -15374,7 +15370,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:13">
       <c r="A345" s="1">
         <v>763</v>
       </c>
@@ -15415,7 +15411,7 @@
         <v>40.8</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:13">
       <c r="A346" s="1">
         <v>764</v>
       </c>
@@ -15456,7 +15452,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:13">
       <c r="A347" s="1">
         <v>765</v>
       </c>
@@ -15497,7 +15493,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:13">
       <c r="A348" s="1">
         <v>766</v>
       </c>
@@ -15538,7 +15534,7 @@
         <v>40.8</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:13">
       <c r="A349" s="1">
         <v>767</v>
       </c>
@@ -15579,7 +15575,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:13">
       <c r="A350" s="1">
         <v>768</v>
       </c>
@@ -15620,7 +15616,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:13">
       <c r="A351" s="1">
         <v>769</v>
       </c>
@@ -15661,7 +15657,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:13">
       <c r="A352" s="1">
         <v>770</v>
       </c>
@@ -15702,7 +15698,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:13">
       <c r="A353" s="1">
         <v>771</v>
       </c>
@@ -15743,7 +15739,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:13">
       <c r="A354" s="1">
         <v>772</v>
       </c>
@@ -15784,7 +15780,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:13">
       <c r="A355" s="1">
         <v>773</v>
       </c>
@@ -15825,7 +15821,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:13">
       <c r="A356" s="1">
         <v>774</v>
       </c>
@@ -15866,7 +15862,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:13">
       <c r="A357" s="1">
         <v>775</v>
       </c>
@@ -15907,7 +15903,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:13">
       <c r="A358" s="1">
         <v>776</v>
       </c>
@@ -15948,7 +15944,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:13">
       <c r="A359" s="1">
         <v>777</v>
       </c>
@@ -15989,7 +15985,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:13">
       <c r="A360" s="1">
         <v>778</v>
       </c>
@@ -16030,7 +16026,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:13">
       <c r="A361" s="1">
         <v>779</v>
       </c>
@@ -16071,7 +16067,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:13">
       <c r="A362" s="1">
         <v>780</v>
       </c>
@@ -16112,7 +16108,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:13">
       <c r="A363" s="1">
         <v>781</v>
       </c>
@@ -16153,7 +16149,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:13">
       <c r="A364" s="1">
         <v>782</v>
       </c>
@@ -16194,7 +16190,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:13">
       <c r="A365" s="1">
         <v>783</v>
       </c>
@@ -16235,7 +16231,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:13">
       <c r="A366" s="1">
         <v>784</v>
       </c>
@@ -16276,7 +16272,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:13">
       <c r="A367" s="1">
         <v>785</v>
       </c>
@@ -16317,7 +16313,7 @@
         <v>40.7</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:13">
       <c r="A368" s="1">
         <v>786</v>
       </c>
@@ -16358,7 +16354,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:13">
       <c r="A369" s="1">
         <v>787</v>
       </c>
@@ -16399,7 +16395,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:13">
       <c r="A370" s="1">
         <v>788</v>
       </c>
@@ -16440,7 +16436,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:13">
       <c r="A371" s="1">
         <v>789</v>
       </c>
@@ -16481,7 +16477,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:13">
       <c r="A372" s="1">
         <v>790</v>
       </c>
@@ -16522,7 +16518,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:13">
       <c r="A373" s="1">
         <v>791</v>
       </c>
@@ -16563,7 +16559,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:13">
       <c r="A374" s="1">
         <v>792</v>
       </c>
@@ -16604,7 +16600,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:13">
       <c r="A375" s="1">
         <v>793</v>
       </c>
@@ -16645,7 +16641,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:13">
       <c r="A376" s="1">
         <v>794</v>
       </c>
@@ -16686,7 +16682,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:13">
       <c r="A377" s="1">
         <v>795</v>
       </c>
@@ -16727,7 +16723,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:13">
       <c r="A378" s="1">
         <v>796</v>
       </c>
@@ -16768,7 +16764,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:13">
       <c r="A379" s="1">
         <v>797</v>
       </c>
@@ -16809,7 +16805,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:13">
       <c r="A380" s="1">
         <v>798</v>
       </c>
@@ -16850,7 +16846,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:13">
       <c r="A381" s="1">
         <v>799</v>
       </c>
@@ -16891,7 +16887,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:13">
       <c r="A382" s="1">
         <v>801</v>
       </c>
@@ -16932,7 +16928,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:13">
       <c r="A383" s="1">
         <v>802</v>
       </c>
@@ -16973,7 +16969,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:13">
       <c r="A384" s="1">
         <v>803</v>
       </c>
@@ -17014,7 +17010,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:13">
       <c r="A385" s="1">
         <v>804</v>
       </c>
@@ -17055,7 +17051,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:13">
       <c r="A386" s="1">
         <v>805</v>
       </c>
@@ -17096,7 +17092,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:13">
       <c r="A387" s="1">
         <v>806</v>
       </c>
@@ -17137,7 +17133,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:13">
       <c r="A388" s="1">
         <v>807</v>
       </c>
@@ -17178,7 +17174,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:13">
       <c r="A389" s="1">
         <v>808</v>
       </c>
@@ -17219,7 +17215,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:13">
       <c r="A390" s="1">
         <v>809</v>
       </c>
@@ -17260,7 +17256,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:13">
       <c r="A391" s="1">
         <v>810</v>
       </c>
@@ -17301,7 +17297,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:13">
       <c r="A392" s="1">
         <v>811</v>
       </c>
@@ -17342,7 +17338,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:13">
       <c r="A393" s="1">
         <v>812</v>
       </c>
@@ -17383,7 +17379,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:13">
       <c r="A394" s="1">
         <v>813</v>
       </c>
@@ -17424,7 +17420,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:13">
       <c r="A395" s="1">
         <v>814</v>
       </c>
@@ -17465,7 +17461,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:13">
       <c r="A396" s="1">
         <v>815</v>
       </c>
@@ -17506,7 +17502,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:13">
       <c r="A397" s="1">
         <v>816</v>
       </c>
@@ -17547,7 +17543,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:13">
       <c r="A398" s="1">
         <v>817</v>
       </c>
@@ -17588,7 +17584,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:13">
       <c r="A399" s="1">
         <v>818</v>
       </c>
@@ -17629,7 +17625,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:13">
       <c r="A400" s="1">
         <v>819</v>
       </c>
@@ -17670,7 +17666,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:13">
       <c r="A401" s="1">
         <v>820</v>
       </c>
@@ -17711,7 +17707,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:13">
       <c r="A402" s="1">
         <v>821</v>
       </c>
@@ -17752,7 +17748,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:13">
       <c r="A403" s="1">
         <v>822</v>
       </c>
@@ -17793,7 +17789,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:13">
       <c r="A404" s="1">
         <v>823</v>
       </c>
@@ -17834,7 +17830,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:13">
       <c r="A405" s="1">
         <v>824</v>
       </c>
@@ -17875,7 +17871,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:13">
       <c r="A406" s="1">
         <v>825</v>
       </c>
@@ -17916,7 +17912,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:13">
       <c r="A407" s="1">
         <v>826</v>
       </c>
@@ -17957,7 +17953,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:13">
       <c r="A408" s="1">
         <v>827</v>
       </c>
@@ -17998,7 +17994,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:13">
       <c r="A409" s="1">
         <v>828</v>
       </c>
@@ -18039,7 +18035,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:13">
       <c r="A410" s="1">
         <v>829</v>
       </c>
@@ -18080,7 +18076,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:13">
       <c r="A411" s="1">
         <v>830</v>
       </c>
@@ -18121,7 +18117,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:13">
       <c r="A412" s="1">
         <v>831</v>
       </c>
@@ -18162,7 +18158,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:13">
       <c r="A413" s="1">
         <v>832</v>
       </c>
@@ -18203,7 +18199,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:13">
       <c r="A414" s="1">
         <v>833</v>
       </c>
@@ -18244,7 +18240,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:13">
       <c r="A415" s="1">
         <v>834</v>
       </c>
@@ -18285,7 +18281,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:13">
       <c r="A416" s="1">
         <v>835</v>
       </c>
@@ -18326,7 +18322,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:13">
       <c r="A417" s="1">
         <v>836</v>
       </c>
@@ -18367,7 +18363,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:13">
       <c r="A418" s="1">
         <v>837</v>
       </c>
@@ -18408,7 +18404,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:13">
       <c r="A419" s="1">
         <v>838</v>
       </c>
@@ -18449,7 +18445,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:13">
       <c r="A420" s="1">
         <v>839</v>
       </c>
@@ -18490,7 +18486,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:13">
       <c r="A421" s="1">
         <v>840</v>
       </c>
@@ -18531,7 +18527,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:13">
       <c r="A422" s="1">
         <v>841</v>
       </c>
@@ -18572,7 +18568,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:13">
       <c r="A423" s="1">
         <v>842</v>
       </c>
@@ -18613,7 +18609,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:13">
       <c r="A424" s="1">
         <v>843</v>
       </c>
@@ -18654,7 +18650,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:13">
       <c r="A425" s="1">
         <v>844</v>
       </c>
@@ -18695,7 +18691,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:13">
       <c r="A426" s="1">
         <v>845</v>
       </c>
@@ -18736,7 +18732,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:13">
       <c r="A427" s="1">
         <v>846</v>
       </c>
@@ -18777,7 +18773,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:13">
       <c r="A428" s="1">
         <v>847</v>
       </c>
@@ -18818,7 +18814,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:13">
       <c r="A429" s="1">
         <v>848</v>
       </c>
@@ -18859,7 +18855,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:13">
       <c r="A430" s="1">
         <v>849</v>
       </c>
@@ -18900,7 +18896,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:13">
       <c r="A431" s="1">
         <v>851</v>
       </c>
@@ -18941,7 +18937,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:13">
       <c r="A432" s="1">
         <v>852</v>
       </c>
@@ -18982,7 +18978,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:13">
       <c r="A433" s="1">
         <v>853</v>
       </c>
@@ -19023,7 +19019,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:13">
       <c r="A434" s="1">
         <v>854</v>
       </c>
@@ -19064,7 +19060,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:13">
       <c r="A435" s="1">
         <v>855</v>
       </c>
@@ -19105,7 +19101,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:13">
       <c r="A436" s="1">
         <v>856</v>
       </c>
@@ -19146,7 +19142,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:13">
       <c r="A437" s="1">
         <v>857</v>
       </c>
@@ -19187,7 +19183,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:13">
       <c r="A438" s="1">
         <v>858</v>
       </c>
@@ -19228,7 +19224,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:13">
       <c r="A439" s="1">
         <v>859</v>
       </c>
@@ -19269,7 +19265,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:13">
       <c r="A440" s="1">
         <v>860</v>
       </c>
@@ -19310,7 +19306,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:13">
       <c r="A441" s="1">
         <v>861</v>
       </c>
@@ -19351,7 +19347,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:13">
       <c r="A442" s="1">
         <v>862</v>
       </c>
@@ -19392,7 +19388,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:13">
       <c r="A443" s="1">
         <v>863</v>
       </c>
@@ -19433,7 +19429,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:13">
       <c r="A444" s="1">
         <v>864</v>
       </c>
@@ -19474,7 +19470,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:13">
       <c r="A445" s="1">
         <v>865</v>
       </c>
@@ -19515,7 +19511,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:13">
       <c r="A446" s="1">
         <v>866</v>
       </c>
@@ -19556,7 +19552,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:13">
       <c r="A447" s="1">
         <v>867</v>
       </c>
@@ -19597,7 +19593,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:13">
       <c r="A448" s="1">
         <v>868</v>
       </c>
@@ -19638,7 +19634,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:13">
       <c r="A449" s="1">
         <v>869</v>
       </c>
@@ -19679,7 +19675,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:13">
       <c r="A450" s="1">
         <v>870</v>
       </c>
@@ -19720,7 +19716,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:13">
       <c r="A451" s="1">
         <v>871</v>
       </c>
@@ -19761,7 +19757,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:13">
       <c r="A452" s="1">
         <v>872</v>
       </c>
@@ -19802,7 +19798,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:13">
       <c r="A453" s="1">
         <v>873</v>
       </c>
@@ -19843,7 +19839,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:13">
       <c r="A454" s="1">
         <v>874</v>
       </c>
@@ -19884,7 +19880,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:13">
       <c r="A455" s="1">
         <v>875</v>
       </c>
@@ -19925,7 +19921,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:13">
       <c r="A456" s="1">
         <v>876</v>
       </c>
@@ -19966,7 +19962,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:13">
       <c r="A457" s="1">
         <v>877</v>
       </c>
@@ -20007,7 +20003,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:13">
       <c r="A458" s="1">
         <v>878</v>
       </c>
@@ -20048,7 +20044,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:13">
       <c r="A459" s="1">
         <v>879</v>
       </c>
@@ -20089,7 +20085,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:13">
       <c r="A460" s="1">
         <v>880</v>
       </c>
@@ -20130,7 +20126,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:13">
       <c r="A461" s="1">
         <v>881</v>
       </c>
@@ -20171,7 +20167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:13">
       <c r="A462" s="1">
         <v>882</v>
       </c>
@@ -20212,7 +20208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:13">
       <c r="A463" s="1">
         <v>883</v>
       </c>
@@ -20253,7 +20249,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:13">
       <c r="A464" s="1">
         <v>884</v>
       </c>
@@ -20294,7 +20290,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:13">
       <c r="A465" s="1">
         <v>885</v>
       </c>
@@ -20335,7 +20331,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:13">
       <c r="A466" s="1">
         <v>886</v>
       </c>
@@ -20376,7 +20372,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:13">
       <c r="A467" s="1">
         <v>887</v>
       </c>
@@ -20417,7 +20413,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:13">
       <c r="A468" s="1">
         <v>888</v>
       </c>
@@ -20458,7 +20454,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:13">
       <c r="A469" s="1">
         <v>889</v>
       </c>
@@ -20499,7 +20495,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:13">
       <c r="A470" s="1">
         <v>890</v>
       </c>
@@ -20540,7 +20536,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:13">
       <c r="A471" s="1">
         <v>891</v>
       </c>
@@ -20581,7 +20577,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:13">
       <c r="A472" s="1">
         <v>892</v>
       </c>
@@ -20622,7 +20618,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:13">
       <c r="A473" s="1">
         <v>893</v>
       </c>
@@ -20663,7 +20659,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:13">
       <c r="A474" s="1">
         <v>894</v>
       </c>
@@ -20704,7 +20700,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:13">
       <c r="A475" s="1">
         <v>895</v>
       </c>
@@ -20745,7 +20741,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:13">
       <c r="A476" s="1">
         <v>896</v>
       </c>
@@ -20786,7 +20782,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:13">
       <c r="A477" s="1">
         <v>897</v>
       </c>
@@ -20827,7 +20823,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:13">
       <c r="A478" s="1">
         <v>898</v>
       </c>
@@ -20868,7 +20864,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:13">
       <c r="A479" s="1">
         <v>899</v>
       </c>
@@ -20909,7 +20905,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:13">
       <c r="A480" s="1">
         <v>901</v>
       </c>
@@ -20950,7 +20946,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:13">
       <c r="A481" s="1">
         <v>902</v>
       </c>
@@ -20991,7 +20987,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:13">
       <c r="A482" s="1">
         <v>903</v>
       </c>
@@ -21032,7 +21028,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:13">
       <c r="A483" s="1">
         <v>904</v>
       </c>
@@ -21073,7 +21069,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:13">
       <c r="A484" s="1">
         <v>905</v>
       </c>
@@ -21114,7 +21110,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" spans="1:13">
       <c r="A485" s="1">
         <v>906</v>
       </c>
@@ -21155,7 +21151,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:13">
       <c r="A486" s="1">
         <v>907</v>
       </c>
@@ -21196,7 +21192,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" spans="1:13">
       <c r="A487" s="1">
         <v>908</v>
       </c>
@@ -21237,7 +21233,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:13">
       <c r="A488" s="1">
         <v>909</v>
       </c>
@@ -21278,7 +21274,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" spans="1:13">
       <c r="A489" s="1">
         <v>910</v>
       </c>
@@ -21319,7 +21315,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:13">
       <c r="A490" s="1">
         <v>911</v>
       </c>
@@ -21360,7 +21356,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:13">
       <c r="A491" s="1">
         <v>912</v>
       </c>
@@ -21401,7 +21397,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:13">
       <c r="A492" s="1">
         <v>913</v>
       </c>
@@ -21442,7 +21438,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:13">
       <c r="A493" s="1">
         <v>914</v>
       </c>
@@ -21483,7 +21479,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:13">
       <c r="A494" s="1">
         <v>915</v>
       </c>
@@ -21524,7 +21520,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:13">
       <c r="A495" s="1">
         <v>916</v>
       </c>
@@ -21565,7 +21561,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" spans="1:13">
       <c r="A496" s="1">
         <v>917</v>
       </c>
@@ -21606,7 +21602,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:13">
       <c r="A497" s="1">
         <v>918</v>
       </c>
@@ -21647,7 +21643,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:13">
       <c r="A498" s="1">
         <v>919</v>
       </c>
@@ -21688,7 +21684,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:13">
       <c r="A499" s="1">
         <v>920</v>
       </c>
@@ -21729,7 +21725,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:13">
       <c r="A500" s="1">
         <v>921</v>
       </c>
@@ -21770,7 +21766,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:13">
       <c r="A501" s="1">
         <v>922</v>
       </c>
@@ -21811,7 +21807,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:13">
       <c r="A502" s="1">
         <v>923</v>
       </c>
@@ -21852,7 +21848,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:13">
       <c r="A503" s="1">
         <v>924</v>
       </c>
@@ -21893,7 +21889,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:13">
       <c r="A504" s="1">
         <v>925</v>
       </c>
@@ -21934,7 +21930,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:13">
       <c r="A505" s="1">
         <v>926</v>
       </c>
@@ -21975,7 +21971,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:13">
       <c r="A506" s="1">
         <v>927</v>
       </c>
@@ -22016,7 +22012,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:13">
       <c r="A507" s="1">
         <v>928</v>
       </c>
@@ -22057,7 +22053,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:13">
       <c r="A508" s="1">
         <v>929</v>
       </c>
@@ -22098,7 +22094,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:13">
       <c r="A509" s="1">
         <v>930</v>
       </c>
@@ -22139,7 +22135,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" spans="1:13">
       <c r="A510" s="1">
         <v>931</v>
       </c>
@@ -22180,7 +22176,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" spans="1:13">
       <c r="A511" s="1">
         <v>932</v>
       </c>
@@ -22221,7 +22217,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:13">
       <c r="A512" s="1">
         <v>933</v>
       </c>
@@ -22262,7 +22258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:13">
       <c r="A513" s="1">
         <v>934</v>
       </c>
@@ -22303,7 +22299,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" spans="1:13">
       <c r="A514" s="1">
         <v>935</v>
       </c>
@@ -22344,7 +22340,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:13">
       <c r="A515" s="1">
         <v>936</v>
       </c>
@@ -22385,7 +22381,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" spans="1:13">
       <c r="A516" s="1">
         <v>937</v>
       </c>
@@ -22426,7 +22422,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:13">
       <c r="A517" s="1">
         <v>938</v>
       </c>
@@ -22467,7 +22463,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:13">
       <c r="A518" s="1">
         <v>939</v>
       </c>
@@ -22508,7 +22504,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:13">
       <c r="A519" s="1">
         <v>940</v>
       </c>
@@ -22549,7 +22545,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:13">
       <c r="A520" s="1">
         <v>941</v>
       </c>
@@ -22590,7 +22586,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" spans="1:13">
       <c r="A521" s="1">
         <v>942</v>
       </c>
@@ -22631,7 +22627,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" spans="1:13">
       <c r="A522" s="1">
         <v>943</v>
       </c>
@@ -22672,7 +22668,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:13">
       <c r="A523" s="1">
         <v>944</v>
       </c>
@@ -22713,7 +22709,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" spans="1:13">
       <c r="A524" s="1">
         <v>945</v>
       </c>
@@ -22754,7 +22750,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:13">
       <c r="A525" s="1">
         <v>946</v>
       </c>
@@ -22795,7 +22791,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:13">
       <c r="A526" s="1">
         <v>947</v>
       </c>
@@ -22836,7 +22832,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:13">
       <c r="A527" s="1">
         <v>948</v>
       </c>
@@ -22877,7 +22873,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:13">
       <c r="A528" s="1">
         <v>949</v>
       </c>
@@ -22918,7 +22914,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" spans="1:13">
       <c r="A529" s="1">
         <v>951</v>
       </c>
@@ -22959,7 +22955,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" spans="1:13">
       <c r="A530" s="1">
         <v>952</v>
       </c>
@@ -23000,7 +22996,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:13">
       <c r="A531" s="1">
         <v>953</v>
       </c>
@@ -23041,7 +23037,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:13">
       <c r="A532" s="1">
         <v>954</v>
       </c>
@@ -23082,7 +23078,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" spans="1:13">
       <c r="A533" s="1">
         <v>955</v>
       </c>
@@ -23123,7 +23119,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" spans="1:13">
       <c r="A534" s="1">
         <v>956</v>
       </c>
@@ -23164,7 +23160,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:13">
       <c r="A535" s="1">
         <v>957</v>
       </c>
@@ -23205,7 +23201,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" spans="1:13">
       <c r="A536" s="1">
         <v>958</v>
       </c>
@@ -23246,7 +23242,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" spans="1:13">
       <c r="A537" s="1">
         <v>959</v>
       </c>
@@ -23287,7 +23283,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:13">
       <c r="A538" s="1">
         <v>960</v>
       </c>
@@ -23328,7 +23324,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" spans="1:13">
       <c r="A539" s="1">
         <v>961</v>
       </c>
@@ -23369,7 +23365,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" spans="1:13">
       <c r="A540" s="1">
         <v>962</v>
       </c>
@@ -23410,7 +23406,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="541">
+    <row r="541" spans="1:13">
       <c r="A541" s="1">
         <v>963</v>
       </c>
@@ -23451,7 +23447,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" spans="1:13">
       <c r="A542" s="1">
         <v>964</v>
       </c>
@@ -23492,7 +23488,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" spans="1:13">
       <c r="A543" s="1">
         <v>965</v>
       </c>
@@ -23533,7 +23529,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="544">
+    <row r="544" spans="1:13">
       <c r="A544" s="1">
         <v>966</v>
       </c>
@@ -23574,7 +23570,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="545">
+    <row r="545" spans="1:13">
       <c r="A545" s="1">
         <v>967</v>
       </c>
@@ -23615,7 +23611,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="546">
+    <row r="546" spans="1:13">
       <c r="A546" s="1">
         <v>968</v>
       </c>
@@ -23656,7 +23652,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" spans="1:13">
       <c r="A547" s="1">
         <v>969</v>
       </c>
@@ -23697,7 +23693,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="548">
+    <row r="548" spans="1:13">
       <c r="A548" s="1">
         <v>970</v>
       </c>
@@ -23738,7 +23734,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" spans="1:13">
       <c r="A549" s="1">
         <v>971</v>
       </c>
@@ -23779,7 +23775,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" spans="1:13">
       <c r="A550" s="1">
         <v>972</v>
       </c>
@@ -23820,7 +23816,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="551">
+    <row r="551" spans="1:13">
       <c r="A551" s="1">
         <v>973</v>
       </c>
@@ -23861,7 +23857,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="552">
+    <row r="552" spans="1:13">
       <c r="A552" s="1">
         <v>974</v>
       </c>
@@ -23902,7 +23898,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="553">
+    <row r="553" spans="1:13">
       <c r="A553" s="1">
         <v>975</v>
       </c>
@@ -23943,7 +23939,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="554">
+    <row r="554" spans="1:13">
       <c r="A554" s="1">
         <v>976</v>
       </c>
@@ -23984,7 +23980,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="555">
+    <row r="555" spans="1:13">
       <c r="A555" s="1">
         <v>977</v>
       </c>
@@ -24025,7 +24021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="556">
+    <row r="556" spans="1:13">
       <c r="A556" s="1">
         <v>978</v>
       </c>
@@ -24066,7 +24062,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="557">
+    <row r="557" spans="1:13">
       <c r="A557" s="1">
         <v>979</v>
       </c>
@@ -24107,7 +24103,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="558">
+    <row r="558" spans="1:13">
       <c r="A558" s="1">
         <v>980</v>
       </c>
@@ -24148,7 +24144,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="559">
+    <row r="559" spans="1:13">
       <c r="A559" s="1">
         <v>981</v>
       </c>
@@ -24189,7 +24185,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="560">
+    <row r="560" spans="1:13">
       <c r="A560" s="1">
         <v>982</v>
       </c>
@@ -24230,7 +24226,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="561">
+    <row r="561" spans="1:13">
       <c r="A561" s="1">
         <v>983</v>
       </c>
@@ -24271,7 +24267,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="562">
+    <row r="562" spans="1:13">
       <c r="A562" s="1">
         <v>984</v>
       </c>
@@ -24312,7 +24308,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="563">
+    <row r="563" spans="1:13">
       <c r="A563" s="1">
         <v>985</v>
       </c>
@@ -24353,7 +24349,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="564">
+    <row r="564" spans="1:13">
       <c r="A564" s="1">
         <v>986</v>
       </c>
@@ -24394,7 +24390,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="565">
+    <row r="565" spans="1:13">
       <c r="A565" s="1">
         <v>987</v>
       </c>
@@ -24435,7 +24431,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="566">
+    <row r="566" spans="1:13">
       <c r="A566" s="1">
         <v>988</v>
       </c>
@@ -24476,7 +24472,7 @@
         <v>40.2</v>
       </c>
     </row>
-    <row r="567">
+    <row r="567" spans="1:13">
       <c r="A567" s="1">
         <v>989</v>
       </c>
@@ -24517,7 +24513,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="568">
+    <row r="568" spans="1:13">
       <c r="A568" s="1">
         <v>990</v>
       </c>
@@ -24558,7 +24554,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="569">
+    <row r="569" spans="1:13">
       <c r="A569" s="1">
         <v>991</v>
       </c>
@@ -24599,7 +24595,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="570">
+    <row r="570" spans="1:13">
       <c r="A570" s="1">
         <v>992</v>
       </c>
@@ -24640,7 +24636,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="571">
+    <row r="571" spans="1:13">
       <c r="A571" s="1">
         <v>993</v>
       </c>
@@ -24681,7 +24677,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="572">
+    <row r="572" spans="1:13">
       <c r="A572" s="1">
         <v>994</v>
       </c>
@@ -24722,7 +24718,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="573">
+    <row r="573" spans="1:13">
       <c r="A573" s="1">
         <v>995</v>
       </c>
@@ -24763,7 +24759,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="574">
+    <row r="574" spans="1:13">
       <c r="A574" s="1">
         <v>996</v>
       </c>
@@ -24804,7 +24800,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="575">
+    <row r="575" spans="1:13">
       <c r="A575" s="1">
         <v>997</v>
       </c>
@@ -24845,7 +24841,7 @@
         <v>40.3</v>
       </c>
     </row>
-    <row r="576">
+    <row r="576" spans="1:13">
       <c r="A576" s="1">
         <v>998</v>
       </c>
@@ -24886,12 +24882,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="577">
+    <row r="577" spans="1:14">
       <c r="A577" s="1">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B577" s="1">
-        <v>18.9</v>
+        <v>12.6</v>
       </c>
       <c r="C577" s="1">
         <v>0</v>
@@ -24906,13 +24902,13 @@
         <v>0</v>
       </c>
       <c r="G577" s="1">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="H577" s="1">
-        <v>7.4</v>
+        <v>3.6</v>
       </c>
       <c r="I577" s="1">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J577" s="1">
         <v>3.1</v>
@@ -24926,13 +24922,16 @@
       <c r="M577" s="1">
         <v>40.4</v>
       </c>
-    </row>
-    <row r="578">
+      <c r="N577" s="2">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:14">
       <c r="A578" s="1">
-        <v>3706</v>
+        <v>1001</v>
       </c>
       <c r="B578" s="1">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="C578" s="1">
         <v>0</v>
@@ -24947,33 +24946,36 @@
         <v>0</v>
       </c>
       <c r="G578" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H578" s="1">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I578" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J578" s="1">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K578" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L578" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M578" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="579">
+        <v>40.3</v>
+      </c>
+      <c r="N578" s="2">
+        <v>121.9</v>
+      </c>
+    </row>
+    <row r="579" spans="1:14">
       <c r="A579" s="1">
-        <v>3707</v>
+        <v>1002</v>
       </c>
       <c r="B579" s="1">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="C579" s="1">
         <v>0</v>
@@ -24988,39 +24990,42 @@
         <v>0</v>
       </c>
       <c r="G579" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H579" s="1">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I579" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J579" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K579" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L579" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M579" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="580">
+        <v>40.3</v>
+      </c>
+      <c r="N579" s="2">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="580" spans="1:14">
       <c r="A580" s="1">
-        <v>3708</v>
+        <v>1003</v>
       </c>
       <c r="B580" s="1">
-        <v>9.2</v>
+        <v>12.7</v>
       </c>
       <c r="C580" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D580" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E580" s="1">
         <v>0</v>
@@ -25029,16 +25034,16 @@
         <v>0</v>
       </c>
       <c r="G580" s="1">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H580" s="1">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="I580" s="1">
         <v>3.1</v>
       </c>
       <c r="J580" s="1">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K580" s="1">
         <v>1.5</v>
@@ -25047,21 +25052,24 @@
         <v>1.5</v>
       </c>
       <c r="M580" s="1">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="581">
+        <v>40.3</v>
+      </c>
+      <c r="N580" s="2">
+        <v>137.7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:14">
       <c r="A581" s="1">
-        <v>3709</v>
+        <v>1004</v>
       </c>
       <c r="B581" s="1">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="C581" s="1">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="D581" s="1">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="E581" s="1">
         <v>0</v>
@@ -25070,3264 +25078,292 @@
         <v>0</v>
       </c>
       <c r="G581" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H581" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I581" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="J581" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="K581" s="1">
         <v>1.5</v>
       </c>
-      <c r="H581" s="1">
+      <c r="L581" s="1">
         <v>1.5</v>
       </c>
-      <c r="I581" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="J581" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="K581" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="L581" s="1">
-        <v>1.4</v>
-      </c>
       <c r="M581" s="1">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="582">
+        <v>40.4</v>
+      </c>
+      <c r="N581" s="2">
+        <v>127.9</v>
+      </c>
+    </row>
+    <row r="582" spans="1:14">
       <c r="A582" s="1">
-        <v>3710</v>
+        <v>1005</v>
       </c>
       <c r="B582" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="C582" s="1">
+        <v>0</v>
+      </c>
+      <c r="D582" s="1">
+        <v>0</v>
+      </c>
+      <c r="E582" s="1">
+        <v>0</v>
+      </c>
+      <c r="F582" s="1">
+        <v>0</v>
+      </c>
+      <c r="G582" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H582" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I582" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="J582" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="K582" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L582" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M582" s="1">
+        <v>40.3</v>
+      </c>
+      <c r="N582" s="2">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:14">
+      <c r="A583" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B583" s="1">
         <v>12.5</v>
       </c>
-      <c r="C582" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="D582" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="E582" s="1">
-        <v>0</v>
-      </c>
-      <c r="F582" s="1">
-        <v>0</v>
-      </c>
-      <c r="G582" s="1">
+      <c r="C583" s="1">
+        <v>0</v>
+      </c>
+      <c r="D583" s="1">
+        <v>0</v>
+      </c>
+      <c r="E583" s="1">
+        <v>0</v>
+      </c>
+      <c r="F583" s="1">
+        <v>0</v>
+      </c>
+      <c r="G583" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H583" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I583" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="J583" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="K583" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="L583" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="M583" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="N583" s="2">
+        <v>130.7</v>
+      </c>
+    </row>
+    <row r="584" spans="1:14">
+      <c r="A584" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B584" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="C584" s="1">
+        <v>0</v>
+      </c>
+      <c r="D584" s="1">
+        <v>0</v>
+      </c>
+      <c r="E584" s="1">
+        <v>0</v>
+      </c>
+      <c r="F584" s="1">
+        <v>0</v>
+      </c>
+      <c r="G584" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H584" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I584" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="J584" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="K584" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="L584" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="M584" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="N584" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="585" spans="1:14">
+      <c r="A585" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B585" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="C585" s="1">
+        <v>0</v>
+      </c>
+      <c r="D585" s="1">
+        <v>0</v>
+      </c>
+      <c r="E585" s="1">
+        <v>0</v>
+      </c>
+      <c r="F585" s="1">
+        <v>0</v>
+      </c>
+      <c r="G585" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H585" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I585" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="J585" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="K585" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="L585" s="1">
         <v>1.5</v>
       </c>
-      <c r="H582" s="1">
+      <c r="M585" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="N585" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="586" spans="1:14">
+      <c r="A586" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B586" s="1">
+        <v>17.6</v>
+      </c>
+      <c r="C586" s="1">
+        <v>0</v>
+      </c>
+      <c r="D586" s="1">
+        <v>0</v>
+      </c>
+      <c r="E586" s="1">
+        <v>0</v>
+      </c>
+      <c r="F586" s="1">
+        <v>0</v>
+      </c>
+      <c r="G586" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H586" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I586" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="J586" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="K586" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="L586" s="1">
         <v>1.5</v>
       </c>
-      <c r="I582" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="J582" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="K582" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="L582" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="M582" s="1">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" s="1">
-        <v>3711</v>
-      </c>
-      <c r="B583" s="1">
-        <v>0</v>
-      </c>
-      <c r="C583" s="1">
-        <v>0</v>
-      </c>
-      <c r="D583" s="1">
-        <v>0</v>
-      </c>
-      <c r="E583" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="F583" s="1">
+      <c r="M586" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="N586" s="2">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:14">
+      <c r="A587" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B587" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="C587" s="1">
+        <v>0</v>
+      </c>
+      <c r="D587" s="1">
+        <v>0</v>
+      </c>
+      <c r="E587" s="1">
+        <v>0</v>
+      </c>
+      <c r="F587" s="1">
+        <v>0</v>
+      </c>
+      <c r="G587" s="1">
         <v>3.5</v>
       </c>
-      <c r="G583" s="1">
-        <v>0</v>
-      </c>
-      <c r="H583" s="1">
-        <v>0</v>
-      </c>
-      <c r="I583" s="1">
-        <v>0</v>
-      </c>
-      <c r="J583" s="1">
-        <v>0</v>
-      </c>
-      <c r="K583" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="L583" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="M583" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" s="1">
-        <v>3712</v>
-      </c>
-      <c r="B584" s="1">
-        <v>0</v>
-      </c>
-      <c r="C584" s="1">
-        <v>0</v>
-      </c>
-      <c r="D584" s="1">
-        <v>0</v>
-      </c>
-      <c r="E584" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="F584" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="G584" s="1">
-        <v>0</v>
-      </c>
-      <c r="H584" s="1">
-        <v>0</v>
-      </c>
-      <c r="I584" s="1">
-        <v>0</v>
-      </c>
-      <c r="J584" s="1">
-        <v>0</v>
-      </c>
-      <c r="K584" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="L584" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="M584" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" s="1">
-        <v>3713</v>
-      </c>
-      <c r="B585" s="1">
-        <v>0</v>
-      </c>
-      <c r="C585" s="1">
-        <v>0</v>
-      </c>
-      <c r="D585" s="1">
-        <v>0</v>
-      </c>
-      <c r="E585" s="1">
-        <v>0</v>
-      </c>
-      <c r="F585" s="1">
-        <v>0</v>
-      </c>
-      <c r="G585" s="1">
-        <v>0</v>
-      </c>
-      <c r="H585" s="1">
-        <v>0</v>
-      </c>
-      <c r="I585" s="1">
-        <v>0</v>
-      </c>
-      <c r="J585" s="1">
-        <v>0</v>
-      </c>
-      <c r="K585" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="L585" s="1">
-        <v>2.3</v>
-      </c>
-      <c r="M585" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" s="1">
-        <v>3714</v>
-      </c>
-      <c r="B586" s="1">
-        <v>0</v>
-      </c>
-      <c r="C586" s="1">
-        <v>0</v>
-      </c>
-      <c r="D586" s="1">
-        <v>0</v>
-      </c>
-      <c r="E586" s="1">
-        <v>0</v>
-      </c>
-      <c r="F586" s="1">
-        <v>0</v>
-      </c>
-      <c r="G586" s="1">
-        <v>0</v>
-      </c>
-      <c r="H586" s="1">
-        <v>0</v>
-      </c>
-      <c r="I586" s="1">
-        <v>0</v>
-      </c>
-      <c r="J586" s="1">
-        <v>0</v>
-      </c>
-      <c r="K586" s="1">
-        <v>0</v>
-      </c>
-      <c r="L586" s="1">
-        <v>0</v>
-      </c>
-      <c r="M586" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="1">
-        <v>3715</v>
-      </c>
-      <c r="B587" s="1">
-        <v>0</v>
-      </c>
-      <c r="C587" s="1">
-        <v>0</v>
-      </c>
-      <c r="D587" s="1">
-        <v>0</v>
-      </c>
-      <c r="E587" s="1">
-        <v>0</v>
-      </c>
-      <c r="F587" s="1">
-        <v>0</v>
-      </c>
-      <c r="G587" s="1">
-        <v>0</v>
-      </c>
       <c r="H587" s="1">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I587" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J587" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K587" s="1">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="L587" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M587" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" s="1">
-        <v>3716</v>
-      </c>
-      <c r="B588" s="1">
-        <v>0</v>
-      </c>
-      <c r="C588" s="1">
-        <v>0</v>
-      </c>
-      <c r="D588" s="1">
-        <v>0</v>
-      </c>
-      <c r="E588" s="1">
-        <v>0</v>
-      </c>
-      <c r="F588" s="1">
-        <v>0</v>
-      </c>
-      <c r="G588" s="1">
-        <v>0</v>
-      </c>
-      <c r="H588" s="1">
-        <v>0</v>
-      </c>
-      <c r="I588" s="1">
-        <v>0</v>
-      </c>
-      <c r="J588" s="1">
-        <v>0</v>
-      </c>
-      <c r="K588" s="1">
-        <v>0</v>
-      </c>
-      <c r="L588" s="1">
-        <v>0</v>
-      </c>
-      <c r="M588" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" s="1">
-        <v>3717</v>
-      </c>
-      <c r="B589" s="1">
-        <v>0</v>
-      </c>
-      <c r="C589" s="1">
-        <v>0</v>
-      </c>
-      <c r="D589" s="1">
-        <v>0</v>
-      </c>
-      <c r="E589" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="F589" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="G589" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="H589" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="I589" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="J589" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="K589" s="1">
-        <v>0</v>
-      </c>
-      <c r="L589" s="1">
-        <v>0</v>
-      </c>
-      <c r="M589" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="1">
-        <v>3718</v>
-      </c>
-      <c r="B590" s="1">
-        <v>0</v>
-      </c>
-      <c r="C590" s="1">
-        <v>0</v>
-      </c>
-      <c r="D590" s="1">
-        <v>0</v>
-      </c>
-      <c r="E590" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="F590" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="G590" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="H590" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="I590" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="J590" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="K590" s="1">
-        <v>0</v>
-      </c>
-      <c r="L590" s="1">
-        <v>0</v>
-      </c>
-      <c r="M590" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="1">
-        <v>3719</v>
-      </c>
-      <c r="B591" s="1">
-        <v>0</v>
-      </c>
-      <c r="C591" s="1">
-        <v>0</v>
-      </c>
-      <c r="D591" s="1">
-        <v>0</v>
-      </c>
-      <c r="E591" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="F591" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="G591" s="1">
-        <v>0</v>
-      </c>
-      <c r="H591" s="1">
-        <v>0</v>
-      </c>
-      <c r="I591" s="1">
-        <v>0</v>
-      </c>
-      <c r="J591" s="1">
-        <v>0</v>
-      </c>
-      <c r="K591" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="L591" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="M591" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="1">
-        <v>3720</v>
-      </c>
-      <c r="B592" s="1">
-        <v>0</v>
-      </c>
-      <c r="C592" s="1">
-        <v>0</v>
-      </c>
-      <c r="D592" s="1">
-        <v>0</v>
-      </c>
-      <c r="E592" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="F592" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="G592" s="1">
-        <v>0</v>
-      </c>
-      <c r="H592" s="1">
-        <v>0</v>
-      </c>
-      <c r="I592" s="1">
-        <v>0</v>
-      </c>
-      <c r="J592" s="1">
-        <v>0</v>
-      </c>
-      <c r="K592" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="L592" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="M592" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" s="1">
-        <v>3721</v>
-      </c>
-      <c r="B593" s="1">
-        <v>0</v>
-      </c>
-      <c r="C593" s="1">
-        <v>0</v>
-      </c>
-      <c r="D593" s="1">
-        <v>0</v>
-      </c>
-      <c r="E593" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="F593" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="G593" s="1">
-        <v>0</v>
-      </c>
-      <c r="H593" s="1">
-        <v>0</v>
-      </c>
-      <c r="I593" s="1">
-        <v>0</v>
-      </c>
-      <c r="J593" s="1">
-        <v>0</v>
-      </c>
-      <c r="K593" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="L593" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="M593" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" s="1">
-        <v>3722</v>
-      </c>
-      <c r="B594" s="1">
-        <v>12.9</v>
-      </c>
-      <c r="C594" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="D594" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="E594" s="1">
-        <v>0</v>
-      </c>
-      <c r="F594" s="1">
-        <v>0</v>
-      </c>
-      <c r="G594" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H594" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I594" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="J594" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="K594" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="L594" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="M594" s="1">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" s="1">
-        <v>3723</v>
-      </c>
-      <c r="B595" s="1">
-        <v>12.8</v>
-      </c>
-      <c r="C595" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="D595" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="E595" s="1">
-        <v>0</v>
-      </c>
-      <c r="F595" s="1">
-        <v>0</v>
-      </c>
-      <c r="G595" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H595" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I595" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="J595" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="K595" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="L595" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="M595" s="1">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" s="1">
-        <v>3724</v>
-      </c>
-      <c r="B596" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="C596" s="1">
-        <v>4.4</v>
-      </c>
-      <c r="D596" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="E596" s="1">
-        <v>0</v>
-      </c>
-      <c r="F596" s="1">
-        <v>0</v>
-      </c>
-      <c r="G596" s="1">
-        <v>4</v>
-      </c>
-      <c r="H596" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="I596" s="1">
-        <v>5</v>
-      </c>
-      <c r="J596" s="1">
-        <v>4.9</v>
-      </c>
-      <c r="K596" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="L596" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="M596" s="1">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" s="1">
-        <v>3725</v>
-      </c>
-      <c r="B597" s="1">
-        <v>19.1</v>
-      </c>
-      <c r="C597" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="D597" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="E597" s="1">
-        <v>0</v>
-      </c>
-      <c r="F597" s="1">
-        <v>0</v>
-      </c>
-      <c r="G597" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="H597" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="I597" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="J597" s="1">
-        <v>4</v>
-      </c>
-      <c r="K597" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L597" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="M597" s="1">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" s="1">
-        <v>3726</v>
-      </c>
-      <c r="B598" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="C598" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="D598" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="E598" s="1">
-        <v>0</v>
-      </c>
-      <c r="F598" s="1">
-        <v>0</v>
-      </c>
-      <c r="G598" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H598" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="I598" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="J598" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="K598" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L598" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="M598" s="1">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" s="1">
-        <v>3727</v>
-      </c>
-      <c r="B599" s="1">
-        <v>18.7</v>
-      </c>
-      <c r="C599" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="D599" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E599" s="1">
-        <v>0</v>
-      </c>
-      <c r="F599" s="1">
-        <v>0</v>
-      </c>
-      <c r="G599" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="H599" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="I599" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="J599" s="1">
-        <v>4.4</v>
-      </c>
-      <c r="K599" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="L599" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="M599" s="1">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" s="1">
-        <v>3728</v>
-      </c>
-      <c r="B600" s="1">
-        <v>12.8</v>
-      </c>
-      <c r="C600" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="D600" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="E600" s="1">
-        <v>0</v>
-      </c>
-      <c r="F600" s="1">
-        <v>0</v>
-      </c>
-      <c r="G600" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H600" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I600" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="J600" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="K600" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="L600" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="M600" s="1">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" s="1">
-        <v>3729</v>
-      </c>
-      <c r="B601" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="C601" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D601" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E601" s="1">
-        <v>0</v>
-      </c>
-      <c r="F601" s="1">
-        <v>0</v>
-      </c>
-      <c r="G601" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H601" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="I601" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="J601" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="K601" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="L601" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="M601" s="1">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" s="1">
-        <v>3730</v>
-      </c>
-      <c r="B602" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="C602" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D602" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E602" s="1">
-        <v>0</v>
-      </c>
-      <c r="F602" s="1">
-        <v>0</v>
-      </c>
-      <c r="G602" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H602" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="I602" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="J602" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="K602" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="L602" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="M602" s="1">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" s="1">
-        <v>3731</v>
-      </c>
-      <c r="B603" s="1">
-        <v>0</v>
-      </c>
-      <c r="C603" s="1">
-        <v>0</v>
-      </c>
-      <c r="D603" s="1">
-        <v>0</v>
-      </c>
-      <c r="E603" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="F603" s="1">
-        <v>5.1</v>
-      </c>
-      <c r="G603" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="H603" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="I603" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="J603" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="K603" s="1">
-        <v>0</v>
-      </c>
-      <c r="L603" s="1">
-        <v>0</v>
-      </c>
-      <c r="M603" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" s="1">
-        <v>3732</v>
-      </c>
-      <c r="B604" s="1">
-        <v>0</v>
-      </c>
-      <c r="C604" s="1">
-        <v>0</v>
-      </c>
-      <c r="D604" s="1">
-        <v>0</v>
-      </c>
-      <c r="E604" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="F604" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="G604" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="H604" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="I604" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="J604" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="K604" s="1">
-        <v>0</v>
-      </c>
-      <c r="L604" s="1">
-        <v>0</v>
-      </c>
-      <c r="M604" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" s="1">
-        <v>3733</v>
-      </c>
-      <c r="B605" s="1">
-        <v>12.6</v>
-      </c>
-      <c r="C605" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="D605" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="E605" s="1">
-        <v>0</v>
-      </c>
-      <c r="F605" s="1">
-        <v>0</v>
-      </c>
-      <c r="G605" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H605" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="I605" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="J605" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="K605" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="L605" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="M605" s="1">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" s="1">
-        <v>3734</v>
-      </c>
-      <c r="B606" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="C606" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D606" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E606" s="1">
-        <v>0</v>
-      </c>
-      <c r="F606" s="1">
-        <v>0</v>
-      </c>
-      <c r="G606" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="H606" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="I606" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="J606" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="K606" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="L606" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="M606" s="1">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" s="1">
-        <v>3735</v>
-      </c>
-      <c r="B607" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="C607" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D607" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E607" s="1">
-        <v>0</v>
-      </c>
-      <c r="F607" s="1">
-        <v>0</v>
-      </c>
-      <c r="G607" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="H607" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="I607" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="J607" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="K607" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="L607" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="M607" s="1">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" s="1">
-        <v>3736</v>
-      </c>
-      <c r="B608" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="C608" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D608" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E608" s="1">
-        <v>0</v>
-      </c>
-      <c r="F608" s="1">
-        <v>0</v>
-      </c>
-      <c r="G608" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H608" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="I608" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="J608" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="K608" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="L608" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="M608" s="1">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" s="1">
-        <v>3737</v>
-      </c>
-      <c r="B609" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="C609" s="1">
-        <v>0</v>
-      </c>
-      <c r="D609" s="1">
-        <v>0</v>
-      </c>
-      <c r="E609" s="1">
-        <v>0</v>
-      </c>
-      <c r="F609" s="1">
-        <v>0</v>
-      </c>
-      <c r="G609" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="H609" s="1">
-        <v>2</v>
-      </c>
-      <c r="I609" s="1">
-        <v>0</v>
-      </c>
-      <c r="J609" s="1">
-        <v>0</v>
-      </c>
-      <c r="K609" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L609" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="M609" s="1">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" s="1">
-        <v>3738</v>
-      </c>
-      <c r="B610" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="C610" s="1">
-        <v>0</v>
-      </c>
-      <c r="D610" s="1">
-        <v>0</v>
-      </c>
-      <c r="E610" s="1">
-        <v>0</v>
-      </c>
-      <c r="F610" s="1">
-        <v>0</v>
-      </c>
-      <c r="G610" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="H610" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="I610" s="1">
-        <v>0</v>
-      </c>
-      <c r="J610" s="1">
-        <v>0</v>
-      </c>
-      <c r="K610" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L610" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="M610" s="1">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" s="1">
-        <v>3739</v>
-      </c>
-      <c r="B611" s="1">
-        <v>12.9</v>
-      </c>
-      <c r="C611" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="D611" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="E611" s="1">
-        <v>0</v>
-      </c>
-      <c r="F611" s="1">
-        <v>0</v>
-      </c>
-      <c r="G611" s="1">
-        <v>2.3</v>
-      </c>
-      <c r="H611" s="1">
-        <v>2.3</v>
-      </c>
-      <c r="I611" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="J611" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="K611" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="L611" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="M611" s="1">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" s="1">
-        <v>3740</v>
-      </c>
-      <c r="B612" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="C612" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="D612" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E612" s="1">
-        <v>0</v>
-      </c>
-      <c r="F612" s="1">
-        <v>0</v>
-      </c>
-      <c r="G612" s="1">
-        <v>2.3</v>
-      </c>
-      <c r="H612" s="1">
-        <v>2.3</v>
-      </c>
-      <c r="I612" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="J612" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="K612" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="L612" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="M612" s="1">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" s="1">
-        <v>3741</v>
-      </c>
-      <c r="B613" s="1">
-        <v>13</v>
-      </c>
-      <c r="C613" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="D613" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="E613" s="1">
-        <v>0</v>
-      </c>
-      <c r="F613" s="1">
-        <v>0</v>
-      </c>
-      <c r="G613" s="1">
-        <v>2.2</v>
-      </c>
-      <c r="H613" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="I613" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="J613" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="K613" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L613" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="M613" s="1">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" s="1">
-        <v>3659</v>
-      </c>
-      <c r="B614" s="1">
-        <v>0</v>
-      </c>
-      <c r="C614" s="1">
-        <v>0</v>
-      </c>
-      <c r="D614" s="1">
-        <v>0</v>
-      </c>
-      <c r="E614" s="1">
-        <v>0</v>
-      </c>
-      <c r="F614" s="1">
-        <v>0</v>
-      </c>
-      <c r="G614" s="1">
-        <v>0</v>
-      </c>
-      <c r="H614" s="1">
-        <v>0</v>
-      </c>
-      <c r="I614" s="1">
-        <v>0</v>
-      </c>
-      <c r="J614" s="1">
-        <v>0</v>
-      </c>
-      <c r="K614" s="1">
-        <v>0</v>
-      </c>
-      <c r="L614" s="1">
-        <v>0</v>
-      </c>
-      <c r="M614" s="1">
-        <v>0.10000000000000001</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" s="1">
-        <v>3660</v>
-      </c>
-      <c r="B615" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="C615" s="1">
-        <v>1</v>
-      </c>
-      <c r="D615" s="1">
-        <v>1</v>
-      </c>
-      <c r="E615" s="1">
-        <v>0</v>
-      </c>
-      <c r="F615" s="1">
-        <v>0</v>
-      </c>
-      <c r="G615" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H615" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I615" s="1">
-        <v>3.2000000000000002</v>
-      </c>
-      <c r="J615" s="1">
-        <v>3</v>
-      </c>
-      <c r="K615" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L615" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="M615" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" s="1">
-        <v>3661</v>
-      </c>
-      <c r="B616" s="1">
-        <v>12.9</v>
-      </c>
-      <c r="C616" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D616" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E616" s="1">
-        <v>0</v>
-      </c>
-      <c r="F616" s="1">
-        <v>0</v>
-      </c>
-      <c r="G616" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H616" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I616" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J616" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K616" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="L616" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M616" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" s="1">
-        <v>3662</v>
-      </c>
-      <c r="B617" s="1">
-        <v>12.9</v>
-      </c>
-      <c r="C617" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D617" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E617" s="1">
-        <v>0</v>
-      </c>
-      <c r="F617" s="1">
-        <v>0</v>
-      </c>
-      <c r="G617" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H617" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I617" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J617" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K617" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="L617" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M617" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" s="1">
-        <v>3663</v>
-      </c>
-      <c r="B618" s="1">
-        <v>12.9</v>
-      </c>
-      <c r="C618" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D618" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E618" s="1">
-        <v>0</v>
-      </c>
-      <c r="F618" s="1">
-        <v>0</v>
-      </c>
-      <c r="G618" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H618" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I618" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J618" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K618" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="L618" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M618" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" s="1">
-        <v>3664</v>
-      </c>
-      <c r="B619" s="1">
-        <v>12.800000000000001</v>
-      </c>
-      <c r="C619" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D619" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E619" s="1">
-        <v>0</v>
-      </c>
-      <c r="F619" s="1">
-        <v>0</v>
-      </c>
-      <c r="G619" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H619" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I619" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J619" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K619" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="L619" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M619" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" s="1">
-        <v>3665</v>
-      </c>
-      <c r="B620" s="1">
-        <v>15.800000000000001</v>
-      </c>
-      <c r="C620" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D620" s="1">
-        <v>2.3999999999999999</v>
-      </c>
-      <c r="E620" s="1">
-        <v>0</v>
-      </c>
-      <c r="F620" s="1">
-        <v>0</v>
-      </c>
-      <c r="G620" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H620" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="I620" s="1">
-        <v>3.7999999999999998</v>
-      </c>
-      <c r="J620" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K620" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L620" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M620" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" s="1">
-        <v>3666</v>
-      </c>
-      <c r="B621" s="1">
-        <v>0</v>
-      </c>
-      <c r="C621" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="D621" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="E621" s="1">
-        <v>0</v>
-      </c>
-      <c r="F621" s="1">
-        <v>0</v>
-      </c>
-      <c r="G621" s="1">
-        <v>5</v>
-      </c>
-      <c r="H621" s="1">
-        <v>5</v>
-      </c>
-      <c r="I621" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J621" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K621" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="L621" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="M621" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" s="1">
-        <v>3667</v>
-      </c>
-      <c r="B622" s="1">
-        <v>0</v>
-      </c>
-      <c r="C622" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="D622" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="E622" s="1">
-        <v>0</v>
-      </c>
-      <c r="F622" s="1">
-        <v>0</v>
-      </c>
-      <c r="G622" s="1">
-        <v>5</v>
-      </c>
-      <c r="H622" s="1">
-        <v>5</v>
-      </c>
-      <c r="I622" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J622" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K622" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="L622" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="M622" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" s="1">
-        <v>3668</v>
-      </c>
-      <c r="B623" s="1">
-        <v>0</v>
-      </c>
-      <c r="C623" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="D623" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="E623" s="1">
-        <v>0</v>
-      </c>
-      <c r="F623" s="1">
-        <v>0</v>
-      </c>
-      <c r="G623" s="1">
-        <v>5</v>
-      </c>
-      <c r="H623" s="1">
-        <v>5</v>
-      </c>
-      <c r="I623" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J623" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K623" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L623" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="M623" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" s="1">
-        <v>3669</v>
-      </c>
-      <c r="B624" s="1">
-        <v>0</v>
-      </c>
-      <c r="C624" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="D624" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="E624" s="1">
-        <v>0</v>
-      </c>
-      <c r="F624" s="1">
-        <v>0</v>
-      </c>
-      <c r="G624" s="1">
-        <v>0</v>
-      </c>
-      <c r="H624" s="1">
-        <v>0</v>
-      </c>
-      <c r="I624" s="1">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="J624" s="1">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="K624" s="1">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="L624" s="1">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="M624" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" s="1">
-        <v>3670</v>
-      </c>
-      <c r="B625" s="1">
-        <v>0</v>
-      </c>
-      <c r="C625" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="D625" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="E625" s="1">
-        <v>0</v>
-      </c>
-      <c r="F625" s="1">
-        <v>0</v>
-      </c>
-      <c r="G625" s="1">
-        <v>0</v>
-      </c>
-      <c r="H625" s="1">
-        <v>0</v>
-      </c>
-      <c r="I625" s="1">
-        <v>4.2999999999999998</v>
-      </c>
-      <c r="J625" s="1">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="K625" s="1">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="L625" s="1">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="M625" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" s="1">
-        <v>3671</v>
-      </c>
-      <c r="B626" s="1">
-        <v>0</v>
-      </c>
-      <c r="C626" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="D626" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="E626" s="1">
-        <v>0</v>
-      </c>
-      <c r="F626" s="1">
-        <v>0</v>
-      </c>
-      <c r="G626" s="1">
-        <v>0</v>
-      </c>
-      <c r="H626" s="1">
-        <v>0</v>
-      </c>
-      <c r="I626" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J626" s="1">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="K626" s="1">
-        <v>2</v>
-      </c>
-      <c r="L626" s="1">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="M626" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" s="1">
-        <v>3672</v>
-      </c>
-      <c r="B627" s="1">
-        <v>0</v>
-      </c>
-      <c r="C627" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="D627" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="E627" s="1">
-        <v>0</v>
-      </c>
-      <c r="F627" s="1">
-        <v>0</v>
-      </c>
-      <c r="G627" s="1">
-        <v>0</v>
-      </c>
-      <c r="H627" s="1">
-        <v>0</v>
-      </c>
-      <c r="I627" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="J627" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="K627" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="L627" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="M627" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" s="1">
-        <v>3673</v>
-      </c>
-      <c r="B628" s="1">
-        <v>0</v>
-      </c>
-      <c r="C628" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="D628" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="E628" s="1">
-        <v>0</v>
-      </c>
-      <c r="F628" s="1">
-        <v>0</v>
-      </c>
-      <c r="G628" s="1">
-        <v>0</v>
-      </c>
-      <c r="H628" s="1">
-        <v>0</v>
-      </c>
-      <c r="I628" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J628" s="1">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="K628" s="1">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="L628" s="1">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="M628" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" s="1">
-        <v>3674</v>
-      </c>
-      <c r="B629" s="1">
-        <v>0</v>
-      </c>
-      <c r="C629" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="D629" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="E629" s="1">
-        <v>0</v>
-      </c>
-      <c r="F629" s="1">
-        <v>0</v>
-      </c>
-      <c r="G629" s="1">
-        <v>0</v>
-      </c>
-      <c r="H629" s="1">
-        <v>0</v>
-      </c>
-      <c r="I629" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J629" s="1">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="K629" s="1">
-        <v>2</v>
-      </c>
-      <c r="L629" s="1">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="M629" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" s="1">
-        <v>3675</v>
-      </c>
-      <c r="B630" s="1">
-        <v>0</v>
-      </c>
-      <c r="C630" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="D630" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="E630" s="1">
-        <v>0</v>
-      </c>
-      <c r="F630" s="1">
-        <v>0</v>
-      </c>
-      <c r="G630" s="1">
-        <v>0</v>
-      </c>
-      <c r="H630" s="1">
-        <v>0</v>
-      </c>
-      <c r="I630" s="1">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="J630" s="1">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="K630" s="1">
-        <v>2</v>
-      </c>
-      <c r="L630" s="1">
-        <v>2</v>
-      </c>
-      <c r="M630" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" s="1">
-        <v>3676</v>
-      </c>
-      <c r="B631" s="1">
-        <v>0</v>
-      </c>
-      <c r="C631" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="D631" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="E631" s="1">
-        <v>0</v>
-      </c>
-      <c r="F631" s="1">
-        <v>0</v>
-      </c>
-      <c r="G631" s="1">
-        <v>0</v>
-      </c>
-      <c r="H631" s="1">
-        <v>0</v>
-      </c>
-      <c r="I631" s="1">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="J631" s="1">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="K631" s="1">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="L631" s="1">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="M631" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" s="1">
-        <v>3677</v>
-      </c>
-      <c r="B632" s="1">
-        <v>0</v>
-      </c>
-      <c r="C632" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="D632" s="1">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="E632" s="1">
-        <v>0</v>
-      </c>
-      <c r="F632" s="1">
-        <v>0</v>
-      </c>
-      <c r="G632" s="1">
-        <v>0</v>
-      </c>
-      <c r="H632" s="1">
-        <v>0</v>
-      </c>
-      <c r="I632" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J632" s="1">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="K632" s="1">
-        <v>2</v>
-      </c>
-      <c r="L632" s="1">
-        <v>2</v>
-      </c>
-      <c r="M632" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" s="1">
-        <v>3678</v>
-      </c>
-      <c r="B633" s="1">
-        <v>0</v>
-      </c>
-      <c r="C633" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="D633" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="E633" s="1">
-        <v>0</v>
-      </c>
-      <c r="F633" s="1">
-        <v>0</v>
-      </c>
-      <c r="G633" s="1">
-        <v>0</v>
-      </c>
-      <c r="H633" s="1">
-        <v>0</v>
-      </c>
-      <c r="I633" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="J633" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="K633" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="L633" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="M633" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" s="1">
-        <v>3679</v>
-      </c>
-      <c r="B634" s="1">
-        <v>0</v>
-      </c>
-      <c r="C634" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="D634" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="E634" s="1">
-        <v>0</v>
-      </c>
-      <c r="F634" s="1">
-        <v>0</v>
-      </c>
-      <c r="G634" s="1">
-        <v>0</v>
-      </c>
-      <c r="H634" s="1">
-        <v>0</v>
-      </c>
-      <c r="I634" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="J634" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="K634" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="L634" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="M634" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" s="1">
-        <v>3680</v>
-      </c>
-      <c r="B635" s="1">
-        <v>0</v>
-      </c>
-      <c r="C635" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="D635" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="E635" s="1">
-        <v>0</v>
-      </c>
-      <c r="F635" s="1">
-        <v>0</v>
-      </c>
-      <c r="G635" s="1">
-        <v>0</v>
-      </c>
-      <c r="H635" s="1">
-        <v>0</v>
-      </c>
-      <c r="I635" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="J635" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="K635" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="L635" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="M635" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" s="1">
-        <v>3681</v>
-      </c>
-      <c r="B636" s="1">
-        <v>0</v>
-      </c>
-      <c r="C636" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="D636" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="E636" s="1">
-        <v>0</v>
-      </c>
-      <c r="F636" s="1">
-        <v>0</v>
-      </c>
-      <c r="G636" s="1">
-        <v>0</v>
-      </c>
-      <c r="H636" s="1">
-        <v>0</v>
-      </c>
-      <c r="I636" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="J636" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="K636" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="L636" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="M636" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" s="1">
-        <v>3682</v>
-      </c>
-      <c r="B637" s="1">
-        <v>0</v>
-      </c>
-      <c r="C637" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="D637" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="E637" s="1">
-        <v>0</v>
-      </c>
-      <c r="F637" s="1">
-        <v>0</v>
-      </c>
-      <c r="G637" s="1">
-        <v>0</v>
-      </c>
-      <c r="H637" s="1">
-        <v>0</v>
-      </c>
-      <c r="I637" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="J637" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="K637" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="L637" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="M637" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" s="1">
-        <v>3683</v>
-      </c>
-      <c r="B638" s="1">
-        <v>0</v>
-      </c>
-      <c r="C638" s="1">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="D638" s="1">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="E638" s="1">
-        <v>0</v>
-      </c>
-      <c r="F638" s="1">
-        <v>0</v>
-      </c>
-      <c r="G638" s="1">
-        <v>0</v>
-      </c>
-      <c r="H638" s="1">
-        <v>0</v>
-      </c>
-      <c r="I638" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="J638" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="K638" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="L638" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="M638" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" s="1">
-        <v>3684</v>
-      </c>
-      <c r="B639" s="1">
-        <v>0</v>
-      </c>
-      <c r="C639" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="D639" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="E639" s="1">
-        <v>0</v>
-      </c>
-      <c r="F639" s="1">
-        <v>0</v>
-      </c>
-      <c r="G639" s="1">
-        <v>0</v>
-      </c>
-      <c r="H639" s="1">
-        <v>0</v>
-      </c>
-      <c r="I639" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="J639" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="K639" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="L639" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="M639" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" s="1">
-        <v>3685</v>
-      </c>
-      <c r="B640" s="1">
-        <v>0</v>
-      </c>
-      <c r="C640" s="1">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="D640" s="1">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="E640" s="1">
-        <v>0</v>
-      </c>
-      <c r="F640" s="1">
-        <v>0</v>
-      </c>
-      <c r="G640" s="1">
-        <v>0</v>
-      </c>
-      <c r="H640" s="1">
-        <v>0</v>
-      </c>
-      <c r="I640" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="J640" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="K640" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="L640" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="M640" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" s="1">
-        <v>3686</v>
-      </c>
-      <c r="B641" s="1">
-        <v>0</v>
-      </c>
-      <c r="C641" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="D641" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="E641" s="1">
-        <v>0</v>
-      </c>
-      <c r="F641" s="1">
-        <v>0</v>
-      </c>
-      <c r="G641" s="1">
-        <v>0</v>
-      </c>
-      <c r="H641" s="1">
-        <v>0</v>
-      </c>
-      <c r="I641" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="J641" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="K641" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="L641" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="M641" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" s="1">
-        <v>3687</v>
-      </c>
-      <c r="B642" s="1">
-        <v>0</v>
-      </c>
-      <c r="C642" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="D642" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="E642" s="1">
-        <v>0</v>
-      </c>
-      <c r="F642" s="1">
-        <v>0</v>
-      </c>
-      <c r="G642" s="1">
-        <v>0</v>
-      </c>
-      <c r="H642" s="1">
-        <v>0</v>
-      </c>
-      <c r="I642" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="J642" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="K642" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="L642" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="M642" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" s="1">
-        <v>3688</v>
-      </c>
-      <c r="B643" s="1">
-        <v>0</v>
-      </c>
-      <c r="C643" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="D643" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="E643" s="1">
-        <v>0</v>
-      </c>
-      <c r="F643" s="1">
-        <v>0</v>
-      </c>
-      <c r="G643" s="1">
-        <v>0</v>
-      </c>
-      <c r="H643" s="1">
-        <v>0</v>
-      </c>
-      <c r="I643" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="J643" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="K643" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="L643" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="M643" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" s="1">
-        <v>3689</v>
-      </c>
-      <c r="B644" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="C644" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D644" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E644" s="1">
-        <v>0</v>
-      </c>
-      <c r="F644" s="1">
-        <v>0</v>
-      </c>
-      <c r="G644" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H644" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I644" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J644" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K644" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="L644" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M644" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" s="1">
-        <v>3690</v>
-      </c>
-      <c r="B645" s="1">
-        <v>17.699999999999999</v>
-      </c>
-      <c r="C645" s="1">
-        <v>5.2000000000000002</v>
-      </c>
-      <c r="D645" s="1">
-        <v>5.2000000000000002</v>
-      </c>
-      <c r="E645" s="1">
-        <v>0</v>
-      </c>
-      <c r="F645" s="1">
-        <v>0</v>
-      </c>
-      <c r="G645" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H645" s="1">
-        <v>3.3999999999999999</v>
-      </c>
-      <c r="I645" s="1">
-        <v>5.2999999999999998</v>
-      </c>
-      <c r="J645" s="1">
-        <v>5.2999999999999998</v>
-      </c>
-      <c r="K645" s="1">
-        <v>2.7000000000000002</v>
-      </c>
-      <c r="L645" s="1">
-        <v>2.7000000000000002</v>
-      </c>
-      <c r="M645" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" s="1">
-        <v>3691</v>
-      </c>
-      <c r="B646" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="C646" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D646" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="E646" s="1">
-        <v>0</v>
-      </c>
-      <c r="F646" s="1">
-        <v>0</v>
-      </c>
-      <c r="G646" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H646" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I646" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J646" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K646" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="L646" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M646" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" s="1">
-        <v>3692</v>
-      </c>
-      <c r="B647" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="C647" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D647" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="E647" s="1">
-        <v>0</v>
-      </c>
-      <c r="F647" s="1">
-        <v>0</v>
-      </c>
-      <c r="G647" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H647" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I647" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J647" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K647" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="L647" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M647" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" s="1">
-        <v>3693</v>
-      </c>
-      <c r="B648" s="1">
-        <v>13.199999999999999</v>
-      </c>
-      <c r="C648" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D648" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="E648" s="1">
-        <v>0</v>
-      </c>
-      <c r="F648" s="1">
-        <v>0</v>
-      </c>
-      <c r="G648" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="H648" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="I648" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J648" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K648" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="L648" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M648" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" s="1">
-        <v>3694</v>
-      </c>
-      <c r="B649" s="1">
-        <v>13</v>
-      </c>
-      <c r="C649" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D649" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="E649" s="1">
-        <v>0</v>
-      </c>
-      <c r="F649" s="1">
-        <v>0</v>
-      </c>
-      <c r="G649" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H649" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I649" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J649" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K649" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="L649" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M649" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" s="1">
-        <v>3695</v>
-      </c>
-      <c r="B650" s="1">
-        <v>12.699999999999999</v>
-      </c>
-      <c r="C650" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="D650" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="E650" s="1">
-        <v>0</v>
-      </c>
-      <c r="F650" s="1">
-        <v>0</v>
-      </c>
-      <c r="G650" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H650" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I650" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J650" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K650" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="L650" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M650" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" s="1">
-        <v>3696</v>
-      </c>
-      <c r="B651" s="1">
-        <v>12.699999999999999</v>
-      </c>
-      <c r="C651" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="D651" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="E651" s="1">
-        <v>0</v>
-      </c>
-      <c r="F651" s="1">
-        <v>0</v>
-      </c>
-      <c r="G651" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H651" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I651" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J651" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K651" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L651" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M651" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" s="1">
-        <v>3697</v>
-      </c>
-      <c r="B652" s="1">
-        <v>12.800000000000001</v>
-      </c>
-      <c r="C652" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="D652" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="E652" s="1">
-        <v>0</v>
-      </c>
-      <c r="F652" s="1">
-        <v>0</v>
-      </c>
-      <c r="G652" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H652" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I652" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J652" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K652" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="L652" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M652" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" s="1">
-        <v>3698</v>
-      </c>
-      <c r="B653" s="1">
-        <v>12.699999999999999</v>
-      </c>
-      <c r="C653" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="D653" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="E653" s="1">
-        <v>0</v>
-      </c>
-      <c r="F653" s="1">
-        <v>0</v>
-      </c>
-      <c r="G653" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H653" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I653" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J653" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K653" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="L653" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M653" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" s="1">
-        <v>3699</v>
-      </c>
-      <c r="B654" s="1">
-        <v>12.699999999999999</v>
-      </c>
-      <c r="C654" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="D654" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="E654" s="1">
-        <v>0</v>
-      </c>
-      <c r="F654" s="1">
-        <v>0</v>
-      </c>
-      <c r="G654" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H654" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I654" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J654" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K654" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="L654" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M654" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" s="1">
-        <v>3700</v>
-      </c>
-      <c r="B655" s="1">
-        <v>12.699999999999999</v>
-      </c>
-      <c r="C655" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="D655" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="E655" s="1">
-        <v>0</v>
-      </c>
-      <c r="F655" s="1">
-        <v>0</v>
-      </c>
-      <c r="G655" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H655" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I655" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J655" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K655" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L655" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M655" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" s="1">
-        <v>3701</v>
-      </c>
-      <c r="B656" s="1">
-        <v>12.699999999999999</v>
-      </c>
-      <c r="C656" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="D656" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="E656" s="1">
-        <v>0</v>
-      </c>
-      <c r="F656" s="1">
-        <v>0</v>
-      </c>
-      <c r="G656" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H656" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="I656" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J656" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K656" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L656" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M656" s="1">
-        <v>46.299999999999997</v>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" s="1">
-        <v>3702</v>
-      </c>
-      <c r="B657" s="1">
-        <v>12.699999999999999</v>
-      </c>
-      <c r="C657" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="D657" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="E657" s="1">
-        <v>0</v>
-      </c>
-      <c r="F657" s="1">
-        <v>0</v>
-      </c>
-      <c r="G657" s="1">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="H657" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I657" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="J657" s="1">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="K657" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="L657" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="M657" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" s="1">
-        <v>3703</v>
-      </c>
-      <c r="B658" s="1">
-        <v>12.699999999999999</v>
-      </c>
-      <c r="C658" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="D658" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="E658" s="1">
-        <v>0</v>
-      </c>
-      <c r="F658" s="1">
-        <v>0</v>
-      </c>
-      <c r="G658" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="H658" s="1">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="I658" s="1">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="J658" s="1">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="K658" s="1">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="L658" s="1">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="M658" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" s="1">
-        <v>3704</v>
-      </c>
-      <c r="B659" s="1">
-        <v>12.699999999999999</v>
-      </c>
-      <c r="C659" s="1">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="D659" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="E659" s="1">
-        <v>0</v>
-      </c>
-      <c r="F659" s="1">
-        <v>0</v>
-      </c>
-      <c r="G659" s="1">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="H659" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I659" s="1">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="J659" s="1">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="K659" s="1">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="L659" s="1">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="M659" s="1">
-        <v>46.399999999999999</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" s="1">
-        <v>3705</v>
-      </c>
-      <c r="B660" s="1">
-        <v>2.8999999999999999</v>
-      </c>
-      <c r="C660" s="1">
-        <v>1</v>
-      </c>
-      <c r="D660" s="1">
-        <v>1</v>
-      </c>
-      <c r="E660" s="1">
-        <v>0</v>
-      </c>
-      <c r="F660" s="1">
-        <v>0</v>
-      </c>
-      <c r="G660" s="1">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="H660" s="1">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="I660" s="1">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="J660" s="1">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="K660" s="1">
-        <v>0</v>
-      </c>
-      <c r="L660" s="1">
-        <v>0</v>
-      </c>
-      <c r="M660" s="1">
-        <v>46.299999999999997</v>
+        <v>45.8</v>
+      </c>
+      <c r="N587" s="2">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
